--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WFD" sheetId="1" r:id="rId1"/>
-    <sheet name="打卡" sheetId="2" r:id="rId2"/>
+    <sheet name="WFD 生词本" sheetId="3" r:id="rId2"/>
+    <sheet name="分组记忆单词" sheetId="5" r:id="rId3"/>
+    <sheet name="高阶单词本" sheetId="4" r:id="rId4"/>
+    <sheet name="打卡" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="410">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -3283,6 +3286,782 @@
   </si>
   <si>
     <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(economic)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>academic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>predictions turned out to be incorrect</t>
+    </r>
+  </si>
+  <si>
+    <t>听错了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>He was regarded as the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(foremost economist)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>formal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>at that time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When the root system of a plant fails</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(foliage)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>suffers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(An effective)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>As In as in a fact factor of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>business manager is always open to new ideas</t>
+    </r>
+  </si>
+  <si>
+    <t>听不出来 effective</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(Linguistics)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Linguistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(scientific)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>study and analysis of</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>language</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please return to the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(reference book)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>colletions books to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the correct position</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>positions on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the shelf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Audition)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>audiction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(the)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>university</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(choir)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>acuqre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>will be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(on)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>hold until the next week</t>
+    </r>
+  </si>
+  <si>
+    <t>不懂 choir</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Relying on natural</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(ability)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>materials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>will not get you far on science</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A visit to the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(designed museum)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>great</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Great mesuma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(of)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>has a great</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+  </si>
+  <si>
+    <t>is of 听不出来, museum 不会写</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>95/50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(Renovation)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Revonation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>work is currently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(being)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>been understaking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>undertaken throughout the whole building</t>
+    </r>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一遍没听懂，只听到了 the whole building</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The course involves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>combination of pure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(and applied mathematics)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>mathmatics</t>
+    </r>
+  </si>
+  <si>
+    <t>6/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>听懂了，但是回忆不起来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Academic libraries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(across)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>library throughout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the world are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(steadily incorporating)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>steadly incorperating incorperation through</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>social media</t>
+    </r>
+  </si>
+  <si>
+    <t>记不住</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼写错误</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Trees benefit the</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>city by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(absorbing)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>obsorbing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>water running</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(off-road)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>off road</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Marine)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>environment has been destroyed by pollution and unsustainable development</t>
+    </r>
+  </si>
+  <si>
+    <t>9/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>marine 根本听不懂，第一遍是懵的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>Rivers provide</t>
     </r>
     <r>
@@ -3359,6 +4138,1118 @@
       </rPr>
       <t>species</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The year when the of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(artifacts)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ship was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(wrecked interested)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>written in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>historians</t>
+    </r>
+  </si>
+  <si>
+    <t>8/11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色字根本听不到</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(Our)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>study program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(equips)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>centrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>skills students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(with central)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(university)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>a univeristy universities</t>
+    </r>
+  </si>
+  <si>
+    <t>5/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(Americans)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>American</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(progressively)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>progressive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>defined the process of plant growth and reproductive development in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(quantitative)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>quatitive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>terms</t>
+    </r>
+  </si>
+  <si>
+    <t>太长了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>You must hand in your essays</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>essay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(midday on Friday)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>mid-day middle-day middle mid day of Firday</t>
+    </r>
+  </si>
+  <si>
+    <t>加了一串词没一个有用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tribes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vied with each)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>eatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>other to build up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(monolithic)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>statues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(series)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>serious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(the observations were)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>observation is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>carried out in the classroom</t>
+    </r>
+  </si>
+  <si>
+    <t>复数没听出来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The collapse of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(the housing)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>house</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>market</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>marketing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is triggering trigger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>triggered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(recessions)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>a regression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>throughout the world</t>
+    </r>
+  </si>
+  <si>
+    <t>单复数回忆的时候很难注意</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Graphs are often</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(useful)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(geographical)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>geographacial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>research</t>
+    </r>
+  </si>
+  <si>
+    <t>5/7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Animal</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Animals Animals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>and plant</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>plants plants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>cells have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(a number of structures)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>many structure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in common</t>
+    </r>
+  </si>
+  <si>
+    <t>a number of 想不起来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(Firm)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Formal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>conclusions can be established through</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(rigorous experiments)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>regular</t>
+    </r>
+  </si>
+  <si>
+    <t>regorous experiments 根本听不懂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Salt</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>can be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>produced is</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>produced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>from the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(seawater or extracted)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>sea water are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>from the ground</t>
+    </r>
+  </si>
+  <si>
+    <t>seawater 应该连着写</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>approach 回忆不起来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I thought it was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(thrown)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>throwed throwing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in a small meeting room</t>
+    </r>
+  </si>
+  <si>
+    <t>thrown 被动形式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Resources and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(materials are on)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>meterials were held</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>hold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(at the)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(reference)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>desk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Astronauts are using</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(light years)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the to measure</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>distance</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>from to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>space</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>outer with within</t>
+    </r>
+  </si>
+  <si>
+    <t>light year 光年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Everyone must evacuate the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(premises)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>during the fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(drill)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>They</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>have develop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>developed a unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(approach)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>technology technique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(training)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>their employees</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能猜懂大概意思，但是写不对 fire drill 消防演习</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3366,31 +5257,362 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(economic)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>academic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>predictions turned out to be incorrect</t>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>openning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>opening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(hours)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ceremony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>reduced during the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(library are)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>summer</t>
+    </r>
+  </si>
+  <si>
+    <t>hours 听不出来</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(reception)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>staff can give advice about renting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(private)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>accommodation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Our</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(facilities)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>include five items in the university</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The poster</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>posters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in of this play is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(hung)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>hang in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>larger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>large</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(lecture theater)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>theator</t>
+    </r>
+  </si>
+  <si>
+    <t>hang 的被动形式，theater n. 剧院</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The department has a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(higher-than-normal proportion of)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>higher porporation for post graduate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>postgraduate</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>post-graduate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>students</t>
+    </r>
+  </si>
+  <si>
+    <t>proportion n. 比例，听懂了不会写</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The cooperator operates a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(continuous)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>assessment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Economic)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Academic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>development needs to be supported by the government</t>
     </r>
   </si>
   <si>
@@ -3399,435 +5621,887 @@
   </si>
   <si>
     <r>
-      <t>He was regarded as the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(foremost economist)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>formal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>at that time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When the root system of a plant fails</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(foliage)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>suffers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(An effective)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>As In as in a fact factor of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>business manager is always open to new ideas</t>
-    </r>
-  </si>
-  <si>
-    <t>听不出来 effective</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(Linguistics)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Linguistic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>is the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(scientific)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>science</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>study and analysis of</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>language</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Please return to the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(reference book)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>colletions books to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>the correct position</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>positions on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>the shelf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(Audition)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>audiction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(the)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>university</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(choir)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>acuqre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>will be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(on)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>hold until the next week</t>
-    </r>
-  </si>
-  <si>
-    <t>不懂 choir</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Relying on natural</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(ability)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>materials</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>will not get you far on science</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A visit to the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(designed museum)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>great</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Great mesuma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(of)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FF666666"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>has a great</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF12D3BF"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>value</t>
-    </r>
-  </si>
-  <si>
-    <t>is of 听不出来, museum 不会写</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>95/50</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>14/10</t>
+      <t>(Continuing)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Continous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>students will be sent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(necessary)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>send neccessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>application forms</t>
+    </r>
+  </si>
+  <si>
+    <t>necessary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>65/50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 单词 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 释义 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 题号 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 例句/常用词组 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rigorous </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 严密的，严格的，枯燥的，缜密的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3284 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> psychology </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. n. 心理（学）；思想 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3283</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> philosophy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1729</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> behavior </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 行为 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3283 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> muscle </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 肌肉；权力 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3275 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sentence </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 句子；判断；宣判； v. 判决；宣判；判刑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3273 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sentence to death </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contemporary </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [adj] 现代的；当代的；当时的；同时代的 [n] 与…同时代的人；当时的人；同龄人 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 936 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ art 当代艺术 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> critic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 批评 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ clothes 奇装异服 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accommodate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v.容纳，接纳; 为…提供住宿; 顾及，考虑到; 给…提供方便; 迎合; 适应 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1988 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> accommodation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 住处，办公楼；住宿；空间、座位 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1765 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> essential </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 基本的，必不可少的，根本的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1983 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 学说；理论；观点 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1981 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1980 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Opinum War 鸦片战争  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> assumption </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 假定；承担；获得 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1977 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> premise </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 前提 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1975 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promptly </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adv. 敏捷地，迅速地，立即地，毫不迟疑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1966 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> candidate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 候选人，应试者，适合...的人 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1961 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> despite </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prep. 尽管，虽然，不由自主 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1960 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> journalism </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 新闻业，新闻学，报刊杂志 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1953  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> agricultural </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 农业的，农用的，以农业为主的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1812  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 原子核的，原子能的；细胞核的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1811  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scientifically </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adv. 合乎科学的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1789  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> colonialism </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 殖民主义 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1729  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> faint </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 微弱的，暗淡的，敷衍的，晕眩的 v. 晕倒 n. 昏厥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1727  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> theater </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 剧场，戏剧界，戏剧效果，[军]战区 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> discussion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 讨论，论述 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1670  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1175  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ecology </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 生态(学) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1047  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> convince </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v. 相信、信服 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1044  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crucial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 至关重要的，关键性的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mathematical </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 数学的，精确的，绝对的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 961 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grinding poverty 贫困不堪 grinding difficulty 极度困难 a grinding halt &lt;车、船&gt;急停 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> laboratory </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 实验室，研究室，药厂 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 495 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elaborate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vi. 详尽说明，变得复杂 vt. 详细定制；尽心竭力的做 adj. 复杂的，详尽的，精心制作的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 536 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> archeologist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 考古学家 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 856 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> antibiotic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 抗生素 adj. 抗生素的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> architecture </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 建筑学、建筑样式，风格，结构，架构 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1484 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1442 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> world-renowned 享誉世界 great renown 享有盛誉 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> overabundant </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  overabundant calories 卡路里超标 overabundance n. 超标 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nutritional </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj.营养的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> witness </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 目击者，见证人 v. 出席，见证 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1278 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> habitat </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 栖息地，生活环境 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1263 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ sports 水上运动 ~ birds 水生鸟类 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1092 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1169 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> museum </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 博物馆 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 937 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> steadily </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 904 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incorporate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> absorb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v. 吸收 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> marine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 海洋的，海产的，海军的 n. 海军陆战队士兵 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> artifact </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 手工艺品，人工制品  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v. 毁掉，失事 n. 失事的船或车，车祸，精疲力尽的人 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in the wreck 出事 I'm a wreck 我是个废人 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> equip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v. 装备，使做好准备  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> central </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 中心的，中央的，核心的  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quantitative </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 定量的，数量上的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 847 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qualitative </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 定性的，定质的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 质量，品质 adj. 优质的，棒极了 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to be of good quality 质量好 high-quality goods 优质产品 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> observation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> series </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> geographical </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> structure </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> approach </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 前提，房屋 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reception </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> facility </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proportion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> economic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> necessary </t>
+  </si>
+  <si>
+    <t>psychology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n 心理学，思想</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 物理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子/核物理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>biology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 生物学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 生态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 考古，古物，古迹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle/nuclear physics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 建筑学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hall</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>campus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 哲学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 经济</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 政治</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>politics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 住宿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 前提；房屋(复数)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>argument</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 论点，理由，辩论，参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalism</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 新闻业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 数学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mathematics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 统计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> eccentric </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 古怪的 n. 怪人；偏心圆  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> treaty </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 条约；协议；协商；谈判 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> disarmament </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 裁军，裁减军备 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> colossal </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 巨大的，&lt;口语&gt;异常的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> assessment </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 看法，评估，鉴定；估价, 核定的付款额 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> grinding </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 摩的，碾的，摩擦的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> renowned </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n.名望，声誉; 威名; 声威 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflicting </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj.相矛盾的，冲突的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> aquatic </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 水生的，水产的，水上的，水中的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> foliage </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 树叶 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> foremost </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj.第一流的，最重要的，最初的，最前面的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> renovation </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> wreck </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tribe </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 部落，部族，一帮，一伙  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> vie </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> vi. 竞争 vt.使竞争，做较量，下赌注  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> monolithic </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> recession </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> rigorous </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> continuous </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> firm </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  adj. 严密的，缜密的，严格的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 商号，公司 adj. 坚固的，坚定的，忠实的 v. 培土，使坚固，稳步上涨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  n. 翻新，修复，整修，恢复活力</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3835,7 +6509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3887,8 +6561,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3897,18 +6599,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3940,6 +6666,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3949,7 +6730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3958,9 +6739,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -3977,13 +6755,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4267,32 +7123,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="133.375" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25">
       <c r="A2">
         <v>936</v>
       </c>
@@ -4302,174 +7166,176 @@
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25">
+      <c r="D2" s="26"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25">
       <c r="A3">
         <v>3284</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:6" ht="17.25">
       <c r="A4">
         <v>3275</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:6" ht="17.25">
       <c r="A5">
         <v>3273</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25">
+    <row r="6" spans="1:6" ht="17.25">
       <c r="A6">
         <v>3283</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25">
+    <row r="7" spans="1:6" ht="17.25">
       <c r="A7">
         <v>1989</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25">
+    <row r="8" spans="1:6" ht="17.25">
       <c r="A8">
         <v>1988</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.25">
+    <row r="9" spans="1:6" ht="17.25">
       <c r="A9">
         <v>1983</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25">
+    <row r="10" spans="1:6" ht="17.25">
       <c r="A10">
         <v>1981</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25">
+    <row r="11" spans="1:6" ht="17.25">
       <c r="A11">
         <v>1980</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25">
+    <row r="12" spans="1:6" ht="17.25">
       <c r="A12">
         <v>1977</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25">
+    <row r="13" spans="1:6" ht="17.25">
       <c r="A13">
         <v>1975</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.25">
+    <row r="14" spans="1:6" ht="17.25">
       <c r="A14">
         <v>1966</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25">
+    <row r="15" spans="1:6" ht="17.25">
       <c r="A15">
         <v>1961</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25">
+    <row r="16" spans="1:6" ht="17.25">
       <c r="A16">
         <v>1960</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25">
+    <row r="17" spans="1:7" ht="17.25">
       <c r="A17">
         <v>1953</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25">
+    <row r="18" spans="1:7" ht="17.25">
       <c r="A18">
         <v>1944</v>
       </c>
@@ -4480,54 +7346,54 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25">
+    <row r="19" spans="1:7" ht="17.25">
       <c r="A19">
         <v>1812</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25">
+    <row r="20" spans="1:7" ht="17.25">
       <c r="A20">
         <v>1811</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25">
+    <row r="21" spans="1:7" ht="17.25">
       <c r="A21">
         <v>1789</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25">
+    <row r="22" spans="1:7" ht="17.25">
       <c r="A22">
         <v>1765</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25">
+    <row r="23" spans="1:7" ht="17.25">
       <c r="A23">
         <v>1729</v>
       </c>
@@ -4537,22 +7403,22 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:7" ht="17.25">
+      <c r="A24" s="8">
         <v>1727</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25">
+    <row r="25" spans="1:7" ht="17.25">
       <c r="A25">
         <v>1670</v>
       </c>
@@ -4562,83 +7428,83 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25">
+    <row r="26" spans="1:7" ht="17.25">
       <c r="A26">
         <v>1667</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.25">
+    <row r="27" spans="1:7" ht="17.25">
       <c r="A27">
         <v>1625</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.25">
+    <row r="28" spans="1:7" ht="17.25">
       <c r="A28">
         <v>1305</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.25">
+    <row r="29" spans="1:7" ht="17.25">
       <c r="A29">
         <v>1175</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.25">
+    <row r="30" spans="1:7" ht="17.25">
       <c r="A30">
         <v>1047</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.25">
+    <row r="31" spans="1:7" ht="17.25">
       <c r="A31">
         <v>1044</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25">
+    <row r="32" spans="1:7" ht="17.25">
       <c r="A32">
         <v>992</v>
       </c>
@@ -4648,68 +7514,68 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25">
+    <row r="33" spans="1:7" ht="17.25">
       <c r="A33">
         <v>961</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25">
+    <row r="34" spans="1:7" ht="17.25">
       <c r="A34">
         <v>495</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25">
+    <row r="35" spans="1:7" ht="17.25">
       <c r="A35">
         <v>536</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25">
+    <row r="36" spans="1:7" ht="17.25">
       <c r="A36">
         <v>889</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25">
-      <c r="A37" s="9">
+    <row r="37" spans="1:7" ht="17.25">
+      <c r="A37" s="8">
         <v>856</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4719,252 +7585,661 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25">
+    <row r="38" spans="1:7" ht="17.25">
       <c r="A38">
         <v>101</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25">
+    <row r="39" spans="1:7" ht="17.25">
       <c r="A39">
         <v>75</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25">
+    <row r="40" spans="1:7" ht="17.25">
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25">
+    <row r="41" spans="1:7" ht="17.25">
       <c r="A41">
         <v>1484</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.25">
+    <row r="42" spans="1:7" ht="17.25">
       <c r="A42">
         <v>1447</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25">
+    <row r="43" spans="1:7" ht="17.25">
       <c r="A43">
         <v>1442</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25">
+    <row r="44" spans="1:7" ht="17.25">
       <c r="A44">
         <v>1411</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.25">
+    <row r="45" spans="1:7" ht="17.25">
       <c r="A45">
         <v>1359</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.25">
+    <row r="46" spans="1:7" ht="17.25">
       <c r="A46">
         <v>1036</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25">
+    <row r="47" spans="1:7" ht="17.25">
       <c r="A47">
         <v>751</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.25">
+    <row r="48" spans="1:7" ht="17.25">
       <c r="A48">
         <v>1288</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.25">
+    <row r="49" spans="1:7" ht="17.25">
       <c r="A49">
         <v>1278</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25">
+    <row r="50" spans="1:7" ht="17.25">
       <c r="A50">
         <v>1263</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>78</v>
+      <c r="B50" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.25">
+    <row r="51" spans="1:7" ht="17.25">
       <c r="A51">
         <v>1231</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
         <v>79</v>
       </c>
-      <c r="C51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.25">
+    </row>
+    <row r="52" spans="1:7" ht="17.25">
       <c r="A52">
         <v>1169</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>81</v>
+      <c r="B52" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.25">
-      <c r="A53" s="9">
+    <row r="53" spans="1:7" ht="17.25">
+      <c r="A53" s="8">
         <v>1092</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>82</v>
+      <c r="B53" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.25">
+    <row r="54" spans="1:7" ht="17.25">
       <c r="A54">
         <v>1065</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
       </c>
-      <c r="E54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.25">
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.25">
       <c r="A55">
         <v>1060</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.25">
+    <row r="56" spans="1:7" ht="17.25">
       <c r="A56">
         <v>1042</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>86</v>
+      <c r="B56" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.25">
+    <row r="57" spans="1:7" ht="17.25">
       <c r="A57">
         <v>1039</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
         <v>87</v>
       </c>
-      <c r="E57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.25">
+    </row>
+    <row r="58" spans="1:7" ht="17.25">
       <c r="A58">
         <v>1025</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58">
+      <c r="B58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.25">
+    <row r="59" spans="1:7" ht="17.25">
       <c r="A59">
         <v>1023</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s">
         <v>90</v>
       </c>
-      <c r="E59" t="s">
-        <v>91</v>
+    </row>
+    <row r="61" spans="1:7" ht="17.25">
+      <c r="A61">
+        <v>937</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.25">
+      <c r="A62">
+        <v>933</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="G62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.25">
+      <c r="A63">
+        <v>904</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.25">
+      <c r="A64">
+        <v>878</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.25">
+      <c r="A65">
+        <v>874</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65">
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25">
+      <c r="A66">
+        <v>858</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.25">
+      <c r="A67">
+        <v>855</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.25">
+      <c r="A68">
+        <v>847</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.25">
+      <c r="A69">
+        <v>785</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25">
+      <c r="A70">
+        <v>815</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.25">
+      <c r="A71">
+        <v>740</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.25">
+      <c r="A72">
+        <v>1005</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25">
+      <c r="A73">
+        <v>999</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.25">
+      <c r="A74">
+        <v>997</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.25">
+      <c r="A75">
+        <v>995</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.25">
+      <c r="A76">
+        <v>996</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.25">
+      <c r="A77">
+        <v>941</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17.25">
+      <c r="A78">
+        <v>764</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17.25">
+      <c r="A79">
+        <v>721</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17.25">
+      <c r="A80">
+        <v>712</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17.25">
+      <c r="A81">
+        <v>700</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17.25">
+      <c r="A82">
+        <v>695</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17.25">
+      <c r="A83">
+        <v>690</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17.25">
+      <c r="A84">
+        <v>656</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17.25">
+      <c r="A85">
+        <v>651</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.25">
+      <c r="A86">
+        <v>645</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17.25">
+      <c r="A87">
+        <v>644</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17.25">
+      <c r="A88">
+        <v>603</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.25">
+      <c r="A89">
+        <v>600</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4976,376 +8251,3525 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="69.25" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="79.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="7" width="9" style="11"/>
-    <col min="8" max="8" width="22.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="9.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="9"/>
+    <col min="8" max="8" width="22.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9" style="9"/>
+    <col min="10" max="10" width="9.25" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="23.25">
+      <c r="B1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4">
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
         <v>45324</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K3" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>45325</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>45326</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4">
-        <v>45325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4">
-        <v>45326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="J5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
         <v>45327</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="B6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
         <v>45328</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="B7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
         <v>45329</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="B8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
         <v>45330</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4">
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
         <v>45331</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4">
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3">
         <v>45332</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
+      <c r="B11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
         <v>45333</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4">
+      <c r="B12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
         <v>45334</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
+      <c r="B13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
         <v>45335</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4">
+      <c r="B14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
         <v>45336</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4">
+      <c r="B15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
         <v>45337</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4">
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
         <v>45338</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4">
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
         <v>45339</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4">
+      <c r="B18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
         <v>45340</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4">
+      <c r="B19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
         <v>45341</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4">
+      <c r="B20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
         <v>45342</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4">
+      <c r="B21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
         <v>45343</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4">
+      <c r="B22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
         <v>45344</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4">
+      <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
         <v>45345</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4">
+      <c r="B24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
         <v>45346</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4">
+      <c r="B25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
         <v>45347</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4">
+      <c r="B26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
         <v>45348</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4">
+      <c r="B27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
         <v>45349</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4">
+      <c r="B28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
         <v>45350</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4">
+      <c r="B29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
         <v>45351</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4">
+      <c r="B30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3">
         <v>45352</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4">
+      <c r="B31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3">
         <v>45353</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4">
+      <c r="B32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3">
         <v>45354</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4">
+      <c r="B33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3">
         <v>45355</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4">
+      <c r="B34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3">
         <v>45356</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4">
+      <c r="B35" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
         <v>45357</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4">
+      <c r="B36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
         <v>45358</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4">
+      <c r="B37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
         <v>45359</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4">
+      <c r="B38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3">
         <v>45360</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4">
+      <c r="B39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
         <v>45361</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4">
+      <c r="B40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3">
         <v>45362</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4">
+      <c r="B41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3">
         <v>45363</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="4">
+      <c r="B42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3">
         <v>45364</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4">
+      <c r="B43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3">
         <v>45365</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4">
+      <c r="B44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3">
         <v>45366</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4">
+      <c r="B45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3">
         <v>45367</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4">
+      <c r="B46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3">
         <v>45368</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4">
+      <c r="B47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
         <v>45369</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="4">
+      <c r="B48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3">
         <v>45370</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4">
+      <c r="B49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3">
         <v>45371</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="4">
+      <c r="B50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="3">
         <v>45372</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="4">
+      <c r="B51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="3">
         <v>45373</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="4">
+      <c r="B52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="3">
         <v>45374</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="4">
+      <c r="B53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="3">
         <v>45375</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="4">
+      <c r="B54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="3">
         <v>45376</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="4">
+      <c r="B55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="3">
         <v>45377</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="4">
+      <c r="B56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="3">
         <v>45378</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="4">
+      <c r="B57" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="3">
         <v>45379</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="4">
+      <c r="B58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="3">
         <v>45380</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="4">
+      <c r="B59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3">
         <v>45381</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="4">
+      <c r="B60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="3">
         <v>45382</v>
       </c>
+      <c r="B61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WFD" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="高阶单词本" sheetId="4" r:id="rId4"/>
     <sheet name="打卡" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">高阶单词本!$B$1:$B$514</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1060">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -6178,90 +6181,1873 @@
     <t xml:space="preserve"> n. 前提，房屋 </t>
   </si>
   <si>
+    <t xml:space="preserve"> facility </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proportion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> economic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> necessary </t>
+  </si>
+  <si>
+    <t>psychology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n 心理学，思想</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 物理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>biology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 生物学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 生态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 考古，古物，古迹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 建筑学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hall</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>campus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 哲学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 经济</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 政治</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>politics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 住宿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 前提；房屋(复数)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>argument</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 论点，理由，辩论，参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalism</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 新闻业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 数学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mathematics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 统计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> eccentric </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 古怪的 n. 怪人；偏心圆  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> treaty </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 条约；协议；协商；谈判 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> disarmament </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 裁军，裁减军备 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> colossal </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 巨大的，&lt;口语&gt;异常的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> assessment </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 看法，评估，鉴定；估价, 核定的付款额 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> grinding </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 摩的，碾的，摩擦的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> renowned </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n.名望，声誉; 威名; 声威 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflicting </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj.相矛盾的，冲突的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> aquatic </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj. 水生的，水产的，水上的，水中的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> foliage </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 树叶 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> foremost </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> adj.第一流的，最重要的，最初的，最前面的 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> renovation </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> wreck </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tribe </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 部落，部族，一帮，一伙  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> vie </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> vi. 竞争 vt.使竞争，做较量，下赌注  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> monolithic </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> recession </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> rigorous </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> continuous </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> firm </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  adj. 严密的，缜密的，严格的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> n. 商号，公司 adj. 坚固的，坚定的，忠实的 v. 培土，使坚固，稳步上涨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  n. 翻新，修复，整修，恢复活力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 独块巨石的；整体的；庞大的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 观察；监视；评论</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 经济衰退，不景气；后退，撤退；凹处；退场</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>geographic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 地理学的，地理的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>geography</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 地理学；地形；地势；布局</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> reception </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> facility </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> proportion </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> economic </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> necessary </t>
-  </si>
-  <si>
-    <t>psychology</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n 心理学，思想</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>physics</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 物理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>例子/核物理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>biology</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 生物学</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecology</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 生态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>archaeology</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 考古，古物，古迹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>particle/nuclear physics</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>architecture</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 建筑学</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>lecture</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hall</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>theater</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 接待；欢迎；招待会；接待处</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhaust</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhilarate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>intense</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>facilitate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sustainable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nucleus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>intellectual</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>disorder</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>literacy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>explore</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>innovate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>innovation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>competent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>compete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>escape</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>perception</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>combine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>industrial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambitious</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>core</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>immense</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourist</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosperity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>precede</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnerable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>opponent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>technique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>launch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>election</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>patent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualify</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>library</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>speaker</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ban</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>odd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>genetic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>diversity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>observe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>particularly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extinction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>glimpse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>allocate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>examination</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adequate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>constitute</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>elephant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeptical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessarily</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopper</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethnic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spice</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>potential</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypothesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>desperate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>association</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgraduate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>poverty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>division</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ritual</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneath</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>above</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>radical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>convince</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>measure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strengthen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerful</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnitude</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>promise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimistic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>puzzle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>relative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtually</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fossil</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foliage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>posture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hip</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>survive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>protection</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>grand</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>debate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>establish</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>twin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>publication</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>astrophysical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>particle/nuclear/astro physics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子/核/天体物理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>astronomy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 天文学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>journal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rely</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>external</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>alphabet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>despite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>healthy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>faculty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>significance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>workforce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticism</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>competition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>participate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fame</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>widely</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>series</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wild</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>huge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hind</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>compulsory adj. 强迫的，义务的，规定的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 赞美</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. （常指动物腿）后面的; 在后的; （通常与can或could连用）唠叨不停; 滔滔不绝
+n. 雌鹿；石斑鱼；&lt;古&gt;乡下人; &lt;英&gt;有经验的农场工人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>methodology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 方法论</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mathodology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionnaire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 调查问卷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 调查；勘测；概述； v. 审查；测量；进行民意测验</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 调查 v. 审查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualitative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantitative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>interview</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpose</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangerous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlikely</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>widespread</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>criminal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>definition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>employ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>legislation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>substance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>loose</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>welfare</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>regard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>universal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>obtain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>newspaper</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>realize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discover</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 物质；材料；实质；内容；(织物的）质地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 立法，制定法律；法律；法规</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>characteristic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 特色，特点，品质 adj. 明显的，典型的，独特的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>teach</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>advancement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>arduous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 努力的，艰巨的，难克服的，陡峭的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>practice</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>diverse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>legal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheerful</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>metabolism</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rational</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 神志清楚的，理性的，理智的，合理的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 新陈代谢，代谢作用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>science</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>precise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>divide</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hemisphere</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>creative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>logical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tendency</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 倾向；趋势；偏好；极端势力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>crowd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>atmosphere</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>environmental</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>governmental</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldwide</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenhouse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>personnel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 人员；人事部门</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>datum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 数据，资料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>steal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 窃取，偷偷移动 n. 便宜货;偷窃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>investigator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 调查者；研究者；侦查员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>republican</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 共和国的；共和政体的；共和主义的;共和党的
+n. 拥护共和政体者；共和主义者；共和党人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>politics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 发出(气体、热量、光线等); 排放物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>urban</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 地形,地势,地面,地带;岩层;(知识的)领域范围</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>illegal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>crime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>export</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lenient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.宽大的,仁慈的,缓解的,宽容的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolve</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpretation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>delineate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 勾画,描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>originate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>revolution</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skilled</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>organize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>engage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fascinate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnificent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>metropolitan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>museum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lie</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>climate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reveal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reform</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>donor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>grind</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>certainly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>coastal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>capability</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>retain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nutrient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>flood</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -6269,239 +8055,1084 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>assignment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>campus</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>accommodation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>professor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>professional</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>philosophy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 哲学</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>economy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 经济</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 政治</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>politics</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 住宿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>premise</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 前提；房屋(复数)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>argument</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 论点，理由，辩论，参数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>journalism</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 新闻业</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 数学</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mathematics</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>statistics</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n. 统计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> eccentric </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> adj. 古怪的 n. 怪人；偏心圆  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> treaty </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> n. 条约；协议；协商；谈判 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> disarmament </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> n. 裁军，裁减军备 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> colossal </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> adj. 巨大的，&lt;口语&gt;异常的 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> assessment </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> n. 看法，评估，鉴定；估价, 核定的付款额 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> grinding </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> adj. 摩的，碾的，摩擦的 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> renowned </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> n.名望，声誉; 威名; 声威 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> conflicting </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> adj.相矛盾的，冲突的 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> aquatic </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> adj. 水生的，水产的，水上的，水中的 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> foliage </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> n. 树叶 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> foremost </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> adj.第一流的，最重要的，最初的，最前面的 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> renovation </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> wreck </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tribe </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> n. 部落，部族，一帮，一伙  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> vie </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> vi. 竞争 vt.使竞争，做较量，下赌注  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> monolithic </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> recession </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> rigorous </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> continuous </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> firm </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  adj. 严密的，缜密的，严格的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> n. 商号，公司 adj. 坚固的，坚定的，忠实的 v. 培土，使坚固，稳步上涨</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  n. 翻新，修复，整修，恢复活力</t>
+    <t>commercial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prove</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>express</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>convey</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>correct</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>historian</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>medieval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sympathy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>entertainment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>possibility</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>increasingly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>relate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>competitive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>useful</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>essential</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>perceive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>inevitable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>outcome</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>parliament</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 意识到,察觉,发觉,理解</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 议会,国会</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>crucial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>occur</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>planet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrast</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 齿轮,排挡,传动装置,设备,衣服,毒品
+v. (使)适应,使…准备好</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>immune</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bacteria</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>virus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 免疫的,有免疫力的,不受影响的,免除…的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exempt v.免除,豁免 adj. 被免除的,被豁免的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.细菌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>belief</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>predator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sociable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 捕食者,掠夺者,食肉动物,弱肉强食的人(或机构)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dolphin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 海豚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>threat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>empire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>marine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>biologist</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 生物学家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>coastline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vital</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 必要的,至关重要的,生命的,生气勃勃的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>particular</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>population</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exist</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollution</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>station</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>economics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>narrative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 记叙文,故事,叙述,记事,叙述手法
+adj. 叙述的,故事体的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>statue n. 雕像,塑像</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 地位,情形,状态,身份</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>resemble</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 像,类似</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assemble v. 聚集,收集,组装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>indication</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>syndrome</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 综合征,综合症状,典型表现</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>habitat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>abundance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>density</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>agriculture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>collide</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tissue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>burst</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 碰撞,冲突,抵触</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. (动植物)组织;薄纸;面巾纸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strike</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 碰撞,击打,侵袭,给…印象,罢工 n. 罢工,袭击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dividend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 红利,股息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspective</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.操作者，操纵者，操纵器; 翻钢机; 推床; 电键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.透镜，望远镜; 观点，看法; 远景，景色; 洞察力
+adj.（按照）透视画法的; 透视的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>basis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 基础,基准,根据,方式,原因</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>impose</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 推行，强制实行; 把…强加于; 使遭受，使承受(压力、痛苦等) ; 勉强（某人做某事）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnetic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 有磁性的,有吸引力的,有魅力的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>polarity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.[物]极性; [生]反向性; 对立; [数]配极</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>platinum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [化学] 铂，白金; 唱片集达100万张的销售量; 银灰色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>propulsion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tube</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 推进; 推进力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 管子; 管状物/容器/器官; 地铁; 电视机</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 精神，心灵; 勇气，意志; 灵魂; 态度; 忠诚度; 情绪; （某种类型的）人; 酒精
+v. 偷偷带走</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>undesirable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 不受欢迎的，讨厌的; 不合需要的; 不方便的; 不良的
+n. 不受欢迎的人,不良分子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>audience</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. 观众; 听众; 读者; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接见; 会见</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>implication</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 含义；可能的影响（或作用、结果）；暗指；（被）牵连; [逻辑学]蕴涵，蕴含</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>democracy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 民主（制度）; 民主国家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 努力奋斗,力求,斗争,力争</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrict</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>appliance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspondent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>affair</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lean</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 倾斜,斜靠 adj. 瘦的,脂肪少的,贫乏的,精干的 n. 瘦肉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 事务，私事; 事件; 东西; 风流韵事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>移民局 Immigration affairs department</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstrate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatility</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 多才多艺; 多用途; 可转动性; 易变</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>creature</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>disguise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 伪装，乔装; 掩饰 n. 伪装，乔装;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>crisis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>arise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>refine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>disaster</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>criteria</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>thesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>formulate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 提炼; 改善; 使高雅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 判断标准，准则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 论文，毕业论文，论点，命题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.构想出，规划; 确切地阐述; 用公式表示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spread</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conflict</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalization</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>precious</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dramatically</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>outperform</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>illness</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>divorce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>invention</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>household</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>renowned</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conscious</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>indigenous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestigious</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 开展; 伸开; 传播; 涂; 分摊 n. 散布;广泛;酱;范围</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 花费; 消耗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.适当的; 合适的
+v.私占; 盗用; 挪用; 拨出（专款）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 争执; 矛盾心理; 冲突; 严重分歧 v. 冲突</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 宝贵的; 珍奇的; 值得珍视的; 宝贝似的; 矫揉造作的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 热; 高温天气; 温度; 热源; 强烈的感情; 压力; 预赛 v. 把…加热</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 放下; 存放; 存入银行账户; 使沉淀
+n.订金，押金; 存款; 竞选保证金; 沉淀物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 有名的，享有声誉的; 有声望的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>renown v. 使…有声誉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 选择,挑选</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 意识到的; 神志清醒的; 慎重的; 关注的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 土生土长的; 生来的，固有的; 本地的; 根生土长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 受尊敬的，有声望的; &lt;古&gt;魔术的，欺骗的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>garage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>plagiarism</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 剽窃; 抄袭; 剽窃物; 抄袭物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>manmal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fad</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourism</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>theory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>generation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>survival</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemistry</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 化学,(两人之间的)吸引</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sediment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>institution</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquarium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>primarily</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exotic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>captivity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nimbus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>surface</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>flap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectively</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>associate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.撕碎; 分裂; （因愤怒、痛苦等而）揪扯（衣服或头发等）; （声音等）刺破
+vi. 撕开，裂开，分裂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去时 rent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 接待; 欢迎; 招待会; 接待处</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 联想，联系; 使与（某个组织、事业或观点）有关系; 公开支持; 与…交往
+n. 同事,伙伴,合伙人
+adj. (表示头衔）副的，准的; 有关联的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.拍打; 扁平下垂物; 襟翼; 激动，忧虑
+v.振（翅）; 摆动，挥动; 拍打</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. （机）翼，翅膀; 侧厅，边厢; （汽车）挡泥板; （尤指政治组织的）派; 边锋; 飞行资格
+v. (飞);赶往</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>feather n. 羽毛
+fluffy adj. 松软的，毛茸茸的; 轻柔的; 无聊的，琐碎的; 肤浅的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ clouds 雨云</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. （人和物产生的）灵气，（神像头上的）光轮
+n. a dark gray cloud bearing rain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 不同的; 清楚的，明显的; 确切的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinctively adv. 区别地，特殊地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 被俘; 囚禁; 束缚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 异国情调的; 奇异的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ cuisine 异国美食</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 水族馆; 水族槽，养鱼缸; 玻璃鱼池</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 机构; 社会收容机构; 习俗; 建立；开创；制定；设立; 出名的人; 制度；习俗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 有毒的; 中毒的; 因中毒引起的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [地]沉淀物; 沉积物，沉渣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 一时的流行; 一时的风尚; 一时的怪念头</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6509,7 +9140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6588,6 +9219,25 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -6730,7 +9380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6791,24 +9441,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6830,9 +9462,6 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -6841,6 +9470,48 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7166,7 +9837,7 @@
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -7846,7 +10517,7 @@
       <c r="D61" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="21">
         <v>0.4</v>
       </c>
       <c r="G61" t="s">
@@ -8054,7 +10725,7 @@
       <c r="A75">
         <v>995</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="22" t="s">
         <v>135</v>
       </c>
       <c r="C75" t="s">
@@ -8253,8 +10924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8280,10 +10951,10 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="29" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -8370,10 +11041,10 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="29" t="s">
         <v>190</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -8398,11 +11069,11 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>374</v>
+      <c r="B10" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>371</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>191</v>
@@ -8468,11 +11139,11 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>376</v>
+      <c r="B15" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>373</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>208</v>
@@ -8594,11 +11265,11 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>378</v>
+      <c r="B24" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>375</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>233</v>
@@ -8636,11 +11307,11 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>380</v>
+      <c r="B27" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>377</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>239</v>
@@ -8692,11 +11363,11 @@
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>382</v>
+      <c r="B31" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>379</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>248</v>
@@ -8762,11 +11433,11 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>384</v>
+      <c r="B36" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>381</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>259</v>
@@ -8846,11 +11517,11 @@
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>386</v>
+      <c r="B42" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>383</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>276</v>
@@ -8902,11 +11573,11 @@
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>388</v>
+      <c r="B46" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>385</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>287</v>
@@ -8930,11 +11601,11 @@
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>390</v>
+      <c r="B48" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>387</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>290</v>
@@ -8944,11 +11615,11 @@
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>392</v>
+      <c r="B49" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>389</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>292</v>
@@ -8958,11 +11629,11 @@
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>394</v>
+      <c r="B50" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>391</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>293</v>
@@ -9000,11 +11671,11 @@
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>409</v>
+      <c r="B53" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>405</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>297</v>
@@ -9084,8 +11755,8 @@
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="35" t="s">
-        <v>396</v>
+      <c r="B59" s="28" t="s">
+        <v>393</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>307</v>
@@ -9165,11 +11836,11 @@
       </c>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>398</v>
+      <c r="B65" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>395</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>176</v>
@@ -9179,11 +11850,11 @@
       </c>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>400</v>
+      <c r="B66" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>397</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>176</v>
@@ -9193,11 +11864,11 @@
       </c>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>402</v>
+      <c r="B67" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>406</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>176</v>
@@ -9211,7 +11882,7 @@
         <v>321</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>172</v>
+        <v>407</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>176</v>
@@ -9221,11 +11892,11 @@
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="35" t="s">
-        <v>403</v>
+      <c r="B69" s="28" t="s">
+        <v>399</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>176</v>
@@ -9277,11 +11948,11 @@
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>407</v>
+      <c r="B73" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>403</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>176</v>
@@ -9291,11 +11962,11 @@
       </c>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>408</v>
+      <c r="B74" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>176</v>
@@ -9333,11 +12004,11 @@
       </c>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>172</v>
+      <c r="B77" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>414</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>176</v>
@@ -9348,7 +12019,7 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>172</v>
@@ -9362,7 +12033,7 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>172</v>
@@ -9375,8 +12046,8 @@
       </c>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="35" t="s">
-        <v>405</v>
+      <c r="B80" s="28" t="s">
+        <v>401</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>172</v>
@@ -9390,7 +12061,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>172</v>
@@ -9404,7 +12075,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>172</v>
@@ -9419,15 +12090,16 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9438,175 +12110,239 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
         <v>332</v>
-      </c>
-      <c r="B2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" t="s">
         <v>334</v>
-      </c>
-      <c r="B3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>865</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>368</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>367</v>
+      </c>
+      <c r="B16" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>571</v>
+      </c>
+      <c r="B17" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>350</v>
+        <v>1022</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>353</v>
-      </c>
-      <c r="B22" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" t="s">
-        <v>366</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>620</v>
+      </c>
+      <c r="B32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>623</v>
+      </c>
+      <c r="B33" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>624</v>
+      </c>
+      <c r="B34" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -9617,14 +12353,3002 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E534"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A498" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C510" sqref="C510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="71.375" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>463</v>
+      </c>
+      <c r="D47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="37" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="37" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="37" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
+        <v>521</v>
+      </c>
+      <c r="D106" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="37" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D119" t="s">
+        <v>536</v>
+      </c>
+      <c r="E119" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="37" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" t="s">
+        <v>542</v>
+      </c>
+      <c r="D124" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="D129" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="37" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="D131" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="38" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="39" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="40" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="39" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" s="39" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" s="39" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" s="39" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="39" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" s="39" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="39" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="39" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="39" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="39" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="40" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="39" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="39" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="39" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="39" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="40" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="39" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="39" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="39" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="39" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="39" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="39" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="39" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="39" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="39" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="39" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="39" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="39" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="39" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="39" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="39" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="39" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="39" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="39" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="39" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="39" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="39" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="39" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="39" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="39" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="39" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="39" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="39" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="39" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="39" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="39" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="39" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="D182" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="39" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" s="39" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="39" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" s="39" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" s="39" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="42.75">
+      <c r="B188" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" s="39" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="C190" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" s="39" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" s="39" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="C193" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="C194" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="D195" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="39" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" s="39" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="39" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" s="39" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" s="39" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" s="39" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="39" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="39" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" s="39" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="39" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="39" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="39" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="39" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="39" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="39" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="C213" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="39" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="39" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="39" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="39" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="39" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="39" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="39" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="39" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" s="39" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="39" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="39" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="39" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="C227" s="40" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="39" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="39" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" s="39" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="39" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" s="39" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" s="39" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" s="39" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" s="40" t="s">
+        <v>674</v>
+      </c>
+      <c r="C237" s="37" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" s="39" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" s="39" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" s="39" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="39" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="39" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="39" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="39" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="39" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="39" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="39" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="39" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" s="39" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="C251" s="40" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="C252" s="40" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="39"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="39" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="39" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="39" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" s="39" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" s="39" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="39" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="39" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="39" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="39" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="39" t="s">
+        <v>702</v>
+      </c>
+      <c r="C263" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="39" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="39" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="39" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" s="39" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="39" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" s="39" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" s="39" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271" s="39" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272" s="39" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" s="39" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="B274" s="39" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" s="40" t="s">
+        <v>715</v>
+      </c>
+      <c r="C275" s="40" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="B276" s="39" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" s="40" t="s">
+        <v>718</v>
+      </c>
+      <c r="C277" s="37" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="B278" s="40" t="s">
+        <v>720</v>
+      </c>
+      <c r="C278" s="37" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="B279" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="C279" s="37" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" ht="28.5">
+      <c r="B280" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C280" s="41" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="B281" s="39" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="B282" s="39" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="B283" s="39" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="B284" s="39" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" s="39" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="C286" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="B287" s="39" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" s="39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="B289" s="39" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" s="39" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" s="39" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="B292" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="C292" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" s="39" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="B294" s="39" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" s="39" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" s="40" t="s">
+        <v>743</v>
+      </c>
+      <c r="C296" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" s="39" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" s="39" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" s="39" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" s="39" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" s="40" t="s">
+        <v>749</v>
+      </c>
+      <c r="C301" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="B302" s="39" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" s="39" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" s="39" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="39" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="39"/>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="39" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="40" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="39" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="39" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="40" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="39" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="39" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="39" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="39" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="39" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="39" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="39" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="39" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="39" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="39" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="39" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="39" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="40" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="39" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="40" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="39" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="39" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="39" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="39" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="39" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="39" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="39" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="39" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="39" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="40" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="40" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="39" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="39" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="39" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="39" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="39" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="39" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="39" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="39" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="39" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="39" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="39" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="39" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="39" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="39" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="39" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="39" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="39" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="39" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="39" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="39" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="39" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="39"/>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="40" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" s="39" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" s="39" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" s="39" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="39" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="39" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="39" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="39" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="39" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="40" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="40" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="39" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="39" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="39" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="39" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" s="39" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="39" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="39" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="39" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="39" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="39" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="39" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="40" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4">
+      <c r="B385" s="39" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4">
+      <c r="B386" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="C386" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4">
+      <c r="B387" s="39" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4">
+      <c r="B388" s="39" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4">
+      <c r="B389" s="39" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4">
+      <c r="B390" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="C390" s="37" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4">
+      <c r="B391" s="39" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4">
+      <c r="B392" s="39" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4">
+      <c r="B393" s="39" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4">
+      <c r="B394" s="39" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4">
+      <c r="B395" s="39" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4">
+      <c r="B396" s="39" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4">
+      <c r="B397" s="39" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" ht="28.5">
+      <c r="B398" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4">
+      <c r="B399" s="39" t="s">
+        <v>849</v>
+      </c>
+      <c r="C399" t="s">
+        <v>852</v>
+      </c>
+      <c r="D399" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4">
+      <c r="B400" s="39" t="s">
+        <v>850</v>
+      </c>
+      <c r="C400" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3">
+      <c r="B401" s="39" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3">
+      <c r="B402" s="39" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3">
+      <c r="B403" s="39" t="s">
+        <v>856</v>
+      </c>
+      <c r="C403" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3">
+      <c r="B404" s="39" t="s">
+        <v>859</v>
+      </c>
+      <c r="C404" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3">
+      <c r="B405" s="39" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3">
+      <c r="B406" s="39" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3">
+      <c r="B407" s="39" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3">
+      <c r="B408" s="39" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3">
+      <c r="B409" s="39" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3">
+      <c r="B410" s="39" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3">
+      <c r="B411" s="39" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3">
+      <c r="B412" s="40" t="s">
+        <v>868</v>
+      </c>
+      <c r="C412" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3">
+      <c r="B413" s="39" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3">
+      <c r="B414" s="39" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3">
+      <c r="B415" s="39" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3">
+      <c r="B416" s="39" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4">
+      <c r="B417" s="39" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4">
+      <c r="B418" s="39" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4">
+      <c r="B419" s="39" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4">
+      <c r="B420" s="39" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" ht="28.5">
+      <c r="B421" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4">
+      <c r="B422" s="39" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4">
+      <c r="B423" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="C423" t="s">
+        <v>883</v>
+      </c>
+      <c r="D423" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4">
+      <c r="B424" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="C424" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="D424" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4">
+      <c r="B425" s="39" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4">
+      <c r="B426" s="39" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4">
+      <c r="B427" s="39" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4">
+      <c r="B428" s="39" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4">
+      <c r="B429" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="C429" s="37" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4">
+      <c r="B430" s="39"/>
+    </row>
+    <row r="431" spans="2:4">
+      <c r="B431" s="39" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4">
+      <c r="B432" s="39" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3">
+      <c r="B433" s="39" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="B434" s="39" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3">
+      <c r="B435" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="C435" s="37" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3">
+      <c r="B436" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="C436" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3">
+      <c r="B437" s="39" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3">
+      <c r="B438" s="39" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3">
+      <c r="B439" s="39" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3">
+      <c r="B440" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="C440" s="37" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3">
+      <c r="B441" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="C441" s="40" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" ht="28.5">
+      <c r="B442" s="39" t="s">
+        <v>908</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3">
+      <c r="B443" s="39" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3">
+      <c r="B444" s="39" t="s">
+        <v>910</v>
+      </c>
+      <c r="C444" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3">
+      <c r="B445" s="40" t="s">
+        <v>913</v>
+      </c>
+      <c r="C445" s="37" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3">
+      <c r="B446" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="C446" s="40" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3">
+      <c r="B447" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="C447" s="40" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3">
+      <c r="B448" s="40" t="s">
+        <v>919</v>
+      </c>
+      <c r="C448" s="40" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4">
+      <c r="B449" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="C449" s="40" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4">
+      <c r="B450" s="40" t="s">
+        <v>923</v>
+      </c>
+      <c r="C450" s="40" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4">
+      <c r="B451" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="C451" s="40" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" ht="28.5">
+      <c r="B452" s="39" t="s">
+        <v>925</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4">
+      <c r="B453" s="39" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" ht="28.5">
+      <c r="B454" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="C454" s="41" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4">
+      <c r="B455" s="39" t="s">
+        <v>932</v>
+      </c>
+      <c r="C455" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4">
+      <c r="B456" s="40" t="s">
+        <v>934</v>
+      </c>
+      <c r="C456" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4">
+      <c r="B457" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="C457" s="37" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4">
+      <c r="B458" s="40" t="s">
+        <v>938</v>
+      </c>
+      <c r="C458" s="37" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4">
+      <c r="B459" s="39" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4">
+      <c r="B460" s="40" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4">
+      <c r="B461" s="40" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4">
+      <c r="B462" s="39" t="s">
+        <v>943</v>
+      </c>
+      <c r="C462" t="s">
+        <v>946</v>
+      </c>
+      <c r="D462" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4">
+      <c r="B463" s="40" t="s">
+        <v>944</v>
+      </c>
+      <c r="C463" s="40" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4">
+      <c r="B464" s="39" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="B465" s="40" t="s">
+        <v>949</v>
+      </c>
+      <c r="C465" s="40" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="B466" s="39" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="B467" s="39" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="B468" s="40" t="s">
+        <v>953</v>
+      </c>
+      <c r="C468" s="40" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="B469" s="39" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="B470" s="39" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="B471" s="40" t="s">
+        <v>957</v>
+      </c>
+      <c r="C471" s="40" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="B472" s="39" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="B473" s="39" t="s">
+        <v>959</v>
+      </c>
+      <c r="C473" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="B474" s="39" t="s">
+        <v>960</v>
+      </c>
+      <c r="C474" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="B475" s="40" t="s">
+        <v>961</v>
+      </c>
+      <c r="C475" s="40" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="16.5">
+      <c r="A476" t="s">
+        <v>962</v>
+      </c>
+      <c r="B476" s="39"/>
+      <c r="C476" s="42"/>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="B477" s="40" t="s">
+        <v>967</v>
+      </c>
+      <c r="C477" s="40" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="B478" s="39" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="B479" s="39" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="B480" s="40" t="s">
+        <v>970</v>
+      </c>
+      <c r="C480" s="40" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3">
+      <c r="B481" s="40" t="s">
+        <v>971</v>
+      </c>
+      <c r="C481" s="40" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3">
+      <c r="B482" s="40" t="s">
+        <v>972</v>
+      </c>
+      <c r="C482" s="40" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3">
+      <c r="B483" s="39" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3">
+      <c r="B484" s="40" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3">
+      <c r="B485" s="39" t="s">
+        <v>975</v>
+      </c>
+      <c r="C485" s="40" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3">
+      <c r="B486" s="39" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3">
+      <c r="B487" s="39" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="B488" s="39" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3">
+      <c r="B489" s="39" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3">
+      <c r="B490" s="39" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3">
+      <c r="B491" s="39" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3">
+      <c r="B492" s="39" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3">
+      <c r="B493" s="39" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3">
+      <c r="B494" s="39" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3">
+      <c r="B495" s="39" t="s">
+        <v>985</v>
+      </c>
+      <c r="C495" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" ht="28.5">
+      <c r="B496" s="39" t="s">
+        <v>986</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="B497" s="40" t="s">
+        <v>987</v>
+      </c>
+      <c r="C497" s="40" t="s">
+        <v>999</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="B498" s="40" t="s">
+        <v>988</v>
+      </c>
+      <c r="C498" s="40" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="B499" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="C499" s="40" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="B500" s="40" t="s">
+        <v>990</v>
+      </c>
+      <c r="C500" s="40" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="B501" s="40" t="s">
+        <v>991</v>
+      </c>
+      <c r="C501" s="40" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B502" s="39"/>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="B503" s="39" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="B504" s="39" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="B505" s="39" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="B506" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C506" s="40" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="B507" s="39" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="B508" s="40" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="B509" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="B510" s="39" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="B511" s="39" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="B512" s="39" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="513" spans="2:4">
+      <c r="B513" s="39" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4">
+      <c r="B514" s="39" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4">
+      <c r="B515" s="39" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="516" spans="2:4">
+      <c r="B516" s="39" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="517" spans="2:4">
+      <c r="B517" s="39" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="518" spans="2:4">
+      <c r="B518" s="40" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="519" spans="2:4">
+      <c r="B519" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="520" spans="2:4">
+      <c r="B520" s="40" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="521" spans="2:4">
+      <c r="B521" s="40" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="522" spans="2:4">
+      <c r="B522" s="39" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="523" spans="2:4">
+      <c r="B523" s="40" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="524" spans="2:4">
+      <c r="B524" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="525" spans="2:4">
+      <c r="B525" s="40" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="526" spans="2:4" ht="28.5">
+      <c r="B526" s="40" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="527" spans="2:4">
+      <c r="B527" s="39" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="528" spans="2:4">
+      <c r="B528" s="39" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" ht="85.5">
+      <c r="B529" s="40" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" ht="28.5">
+      <c r="B530" s="40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4">
+      <c r="B531" s="39" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="532" spans="2:4" ht="42.75">
+      <c r="B532" s="40" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="533" spans="2:4">
+      <c r="B533" s="40" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" ht="28.5">
+      <c r="B534" s="40" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C534" s="43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9635,7 +15359,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9648,21 +15372,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="25"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10" t="s">
@@ -9674,16 +15398,16 @@
       <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="14" t="s">
@@ -9712,7 +15436,7 @@
       <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -9730,7 +15454,7 @@
       <c r="J3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9747,7 +15471,7 @@
       <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -9765,7 +15489,7 @@
       <c r="J4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9782,7 +15506,7 @@
       <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -9800,7 +15524,7 @@
       <c r="J5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9817,7 +15541,7 @@
       <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -9835,7 +15559,7 @@
       <c r="J6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9852,7 +15576,7 @@
       <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -9870,7 +15594,7 @@
       <c r="J7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9887,7 +15611,7 @@
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -9905,7 +15629,7 @@
       <c r="J8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9922,7 +15646,7 @@
       <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -9940,7 +15664,7 @@
       <c r="J9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9957,7 +15681,7 @@
       <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -9975,7 +15699,7 @@
       <c r="J10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9992,7 +15716,7 @@
       <c r="D11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="16" t="s">
@@ -10010,7 +15734,7 @@
       <c r="J11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10027,7 +15751,7 @@
       <c r="D12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="16" t="s">
@@ -10045,7 +15769,7 @@
       <c r="J12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10062,7 +15786,7 @@
       <c r="D13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="16" t="s">
@@ -10080,7 +15804,7 @@
       <c r="J13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10097,7 +15821,7 @@
       <c r="D14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="16" t="s">
@@ -10115,7 +15839,7 @@
       <c r="J14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10132,7 +15856,7 @@
       <c r="D15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="16" t="s">
@@ -10150,7 +15874,7 @@
       <c r="J15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10167,7 +15891,7 @@
       <c r="D16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -10185,7 +15909,7 @@
       <c r="J16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10202,7 +15926,7 @@
       <c r="D17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="16" t="s">
@@ -10220,7 +15944,7 @@
       <c r="J17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10237,7 +15961,7 @@
       <c r="D18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -10255,7 +15979,7 @@
       <c r="J18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10272,7 +15996,7 @@
       <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="16" t="s">
@@ -10290,7 +16014,7 @@
       <c r="J19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10307,7 +16031,7 @@
       <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -10325,7 +16049,7 @@
       <c r="J20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10342,7 +16066,7 @@
       <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="16" t="s">
@@ -10360,7 +16084,7 @@
       <c r="J21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10377,7 +16101,7 @@
       <c r="D22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="16" t="s">
@@ -10395,7 +16119,7 @@
       <c r="J22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10412,7 +16136,7 @@
       <c r="D23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="16" t="s">
@@ -10430,7 +16154,7 @@
       <c r="J23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10447,7 +16171,7 @@
       <c r="D24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="16" t="s">
@@ -10465,7 +16189,7 @@
       <c r="J24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10482,7 +16206,7 @@
       <c r="D25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="16" t="s">
@@ -10500,7 +16224,7 @@
       <c r="J25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="29" t="s">
+      <c r="K25" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10517,7 +16241,7 @@
       <c r="D26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="16" t="s">
@@ -10535,7 +16259,7 @@
       <c r="J26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10552,7 +16276,7 @@
       <c r="D27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="16" t="s">
@@ -10570,7 +16294,7 @@
       <c r="J27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10587,7 +16311,7 @@
       <c r="D28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="16" t="s">
@@ -10605,7 +16329,7 @@
       <c r="J28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10622,7 +16346,7 @@
       <c r="D29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="16" t="s">
@@ -10640,7 +16364,7 @@
       <c r="J29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10657,7 +16381,7 @@
       <c r="D30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="16" t="s">
@@ -10675,7 +16399,7 @@
       <c r="J30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10692,7 +16416,7 @@
       <c r="D31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="16" t="s">
@@ -10710,7 +16434,7 @@
       <c r="J31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10727,7 +16451,7 @@
       <c r="D32" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="16" t="s">
@@ -10745,7 +16469,7 @@
       <c r="J32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10762,7 +16486,7 @@
       <c r="D33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="16" t="s">
@@ -10780,7 +16504,7 @@
       <c r="J33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="29" t="s">
+      <c r="K33" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10797,7 +16521,7 @@
       <c r="D34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="16" t="s">
@@ -10815,7 +16539,7 @@
       <c r="J34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="29" t="s">
+      <c r="K34" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10832,7 +16556,7 @@
       <c r="D35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="16" t="s">
@@ -10850,7 +16574,7 @@
       <c r="J35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10867,7 +16591,7 @@
       <c r="D36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="16" t="s">
@@ -10885,7 +16609,7 @@
       <c r="J36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="29" t="s">
+      <c r="K36" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10902,7 +16626,7 @@
       <c r="D37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="16" t="s">
@@ -10920,7 +16644,7 @@
       <c r="J37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="K37" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10937,7 +16661,7 @@
       <c r="D38" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="16" t="s">
@@ -10955,7 +16679,7 @@
       <c r="J38" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="29" t="s">
+      <c r="K38" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10972,7 +16696,7 @@
       <c r="D39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="16" t="s">
@@ -10990,7 +16714,7 @@
       <c r="J39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="29" t="s">
+      <c r="K39" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11007,7 +16731,7 @@
       <c r="D40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="16" t="s">
@@ -11025,7 +16749,7 @@
       <c r="J40" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K40" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11042,7 +16766,7 @@
       <c r="D41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="16" t="s">
@@ -11060,7 +16784,7 @@
       <c r="J41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="29" t="s">
+      <c r="K41" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11077,7 +16801,7 @@
       <c r="D42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="16" t="s">
@@ -11095,7 +16819,7 @@
       <c r="J42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="29" t="s">
+      <c r="K42" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11112,7 +16836,7 @@
       <c r="D43" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="16" t="s">
@@ -11130,7 +16854,7 @@
       <c r="J43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="29" t="s">
+      <c r="K43" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11147,7 +16871,7 @@
       <c r="D44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="16" t="s">
@@ -11165,7 +16889,7 @@
       <c r="J44" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="29" t="s">
+      <c r="K44" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11182,7 +16906,7 @@
       <c r="D45" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="16" t="s">
@@ -11200,7 +16924,7 @@
       <c r="J45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="29" t="s">
+      <c r="K45" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11217,7 +16941,7 @@
       <c r="D46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="16" t="s">
@@ -11235,7 +16959,7 @@
       <c r="J46" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="K46" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11252,7 +16976,7 @@
       <c r="D47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="16" t="s">
@@ -11270,7 +16994,7 @@
       <c r="J47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11287,7 +17011,7 @@
       <c r="D48" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="16" t="s">
@@ -11305,7 +17029,7 @@
       <c r="J48" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="29" t="s">
+      <c r="K48" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11322,7 +17046,7 @@
       <c r="D49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="16" t="s">
@@ -11340,7 +17064,7 @@
       <c r="J49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="29" t="s">
+      <c r="K49" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11357,7 +17081,7 @@
       <c r="D50" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="16" t="s">
@@ -11375,7 +17099,7 @@
       <c r="J50" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="29" t="s">
+      <c r="K50" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11392,7 +17116,7 @@
       <c r="D51" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="16" t="s">
@@ -11410,7 +17134,7 @@
       <c r="J51" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="29" t="s">
+      <c r="K51" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11427,7 +17151,7 @@
       <c r="D52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="16" t="s">
@@ -11445,7 +17169,7 @@
       <c r="J52" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="29" t="s">
+      <c r="K52" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11462,7 +17186,7 @@
       <c r="D53" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="16" t="s">
@@ -11480,7 +17204,7 @@
       <c r="J53" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="29" t="s">
+      <c r="K53" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11497,7 +17221,7 @@
       <c r="D54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="16" t="s">
@@ -11515,7 +17239,7 @@
       <c r="J54" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="29" t="s">
+      <c r="K54" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11532,7 +17256,7 @@
       <c r="D55" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="16" t="s">
@@ -11550,7 +17274,7 @@
       <c r="J55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="29" t="s">
+      <c r="K55" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11567,7 +17291,7 @@
       <c r="D56" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="16" t="s">
@@ -11585,7 +17309,7 @@
       <c r="J56" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="29" t="s">
+      <c r="K56" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11602,7 +17326,7 @@
       <c r="D57" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="16" t="s">
@@ -11620,7 +17344,7 @@
       <c r="J57" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="29" t="s">
+      <c r="K57" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11637,7 +17361,7 @@
       <c r="D58" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="16" t="s">
@@ -11655,7 +17379,7 @@
       <c r="J58" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K58" s="29" t="s">
+      <c r="K58" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11672,7 +17396,7 @@
       <c r="D59" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="16" t="s">
@@ -11690,7 +17414,7 @@
       <c r="J59" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K59" s="29" t="s">
+      <c r="K59" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11707,7 +17431,7 @@
       <c r="D60" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F60" s="16" t="s">
@@ -11725,7 +17449,7 @@
       <c r="J60" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K60" s="29" t="s">
+      <c r="K60" s="23" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11742,7 +17466,7 @@
       <c r="D61" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="27" t="s">
         <v>17</v>
       </c>
       <c r="F61" s="16" t="s">
@@ -11760,7 +17484,7 @@
       <c r="J61" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K61" s="29" t="s">
+      <c r="K61" s="23" t="s">
         <v>162</v>
       </c>
     </row>

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1550">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -9133,6 +9133,1990 @@
   </si>
   <si>
     <t>n. 一时的流行; 一时的风尚; 一时的怪念头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>routine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>respect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>opportunity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>guarantee</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>profitable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneficial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimental</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>productive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>traditional</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>anxiety</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>perform</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>growth</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>capture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contribute</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consideration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrease</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 惯例，常规; 例程; 生活乏味; 一套动作 adj.常规的; 日常的; 平常的; 乏味的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>senator n. 议会议员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 强烈; （感情的）强烈程度; 强度; 烈度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 俘虏，占领; 引起（注意、想象、兴趣）; 拍摄; 表现，体现（感情、气氛）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema n. 概要，计划，图表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 公司的; 法人的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>knot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 吸引力，魅力; 诱惑物; 诱饵
+vt. 吸引,引诱,用引诱物召回（猎鹰）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prerequisite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 先决条件，前提，必要条件 adj.必须先具备的，必要的；先决条件的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 慢性的，长期的; 积习难改的; 严重的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 共同的，联合的; 共享的; 两院的; 连带的，共同的
+n. 关节,接合处,下流场所;一块烤肉(英式英语)
+vt. 结合，联合; 为…装上接头，使…有接缝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>senate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>microbe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 微生物，细菌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 消耗; 吞噬; 充满（感情）; 吃喝; 烧毁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.议会，立法机构; 集会（者）; 组装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 看法; 评估; 鉴定; 评定; 核定的付款额; 估价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 严重的; （疾病）急性的; 灵敏的; 敏锐的; 锐角的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>utilize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 利用，使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>endure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 忍受; 持续</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophisticate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 老于世故的人; 见多识广的人 adj. 老于世故的 v. 使迷惑; 篡改; 用诡辩欺骗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 动机; 刺激; 诱因; 鼓励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>incentive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheme</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 计划; 体制; 计谋 v. 密谋,认为</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 结，绳结，结节，（装饰用的）花结，蝴蝶结; [航]节(=浬/小时)，浬，海里; （树木或木材上的）节疤，
+（人或动物身上的）硬块，节，瘤; 难事，难题，麻烦事，（问题的）要点，
+（戏剧，小说的）情节的征结
+vt.&amp; vi.把…打结，把…连结，捆扎，包扎; 使密切结合; 使纠结; 皱（眉）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 参议院
+ 上院; 某些国家的)大学理事会; 大学评议会</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>respond</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>politician</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>humanity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispute</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>methane</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxicology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ongoing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tremendous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>satellite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>orbit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prolong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>critically</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>endanger</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleague</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hormone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bunch</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>laboratory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptom</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>violence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensitive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggressive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unrealistic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discovery</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>involvement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>literally</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>informative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>educational</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarkable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wonder</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 政治家; 政客，玩弄权术者; &lt;蔑&gt;政客，&lt;美&gt;政治贩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 人类; 人性; 人道; 人文学科</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 质疑; 辩论，争论; 争夺 n. 争论，争端，纠纷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>debate n. 辩论; 争论 v. 争论,讨论,考虑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 甲烷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 毒理学，毒物学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>politician n. 政客,政治家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 不间断的，进行的; 前进的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 极大的，巨大的; 可怕的，惊人的; 极好的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.（指工具、机器等）多用途的; 多才多艺的; 有多种学问、技能或职业的; 多功能的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 卫星; 人造卫星; 卫星国; 卫星区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 轨道; 势力范围; 眼眶; （人生的）旅程，生活过程
+vt&amp;vi. 在…轨道上运行，环绕轨道运行
+vi. 盘旋; 绕轨道运行
+vt. 绕轨道而行; 进入轨道</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 延长，拉长; 拖延，延期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 批判性地; 苛求地; 危急地; 严重地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 使遭危险; 危及</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 方形的; 平方的; 厚实的; 两清的; 公平的
+n. 正方形; 广场; 平方; 书呆子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [化]朊，蛋白（质）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 荷尔蒙; 激素</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 刺激; 激励，鼓舞; 使兴奋
+vi. 起兴奋作用; 起促进作用; 起刺激作用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 一伙; 一束; 一串; 大量; 群体; 发辫 v. 使变紧; 打褶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 症状; 征兆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 揭发; 使暴露; 使接触</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 体贴的; 艺术感觉好的; 易生气的; 敏感的; 过敏的; 灵敏的; 棘手的; 须妥善保管的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 牵连，参与; 加入; 财政困难; 牵连的事务，复杂的情况</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 异常的，引人注目的，; 卓越的; 显著的; 非凡的，非常（好）的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>undoubtedly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>minus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>organ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>organism</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundamental</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>translate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>transport</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>component</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>equally</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>withstand</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>graze</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>essentially</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pension</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sufficient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapidly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>infant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decade</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumstance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>infrastructure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>paint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>participation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pioneer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>underlie</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>injure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanism</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>regeneration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultimately</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>recovery</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p17</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>compete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stair</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>automatically</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>encourage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>elderly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stability</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>revenue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unprecedented</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>talented</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholarship</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>athlete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>intend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppose</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>survivor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighbour</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cohort</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>converge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrol</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolution</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>congress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>breathe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>relief</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>viable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>distress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaporate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>immediately</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>swim</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>restriction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>crop</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>acknowledge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mental</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skull</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintenance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>landlord</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>compress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chamber</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>artery</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vein</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hillside</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consist</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>riddle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>invisible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>behaviour</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>collective</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>enforce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolerate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prey</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>broadcast</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>autonomous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribute</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>initially</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>corruption</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scandal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>telescope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>investment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>depression</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>premium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dozen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hill</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>observatory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>quiescent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>herald</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>revolutionize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissemination</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>access</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>infrared</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydrogen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>influential</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>productivity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunger</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>retailer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>proceed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>academy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gather</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>milligram</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>caffeine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reality</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>communication</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>indeed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jean</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>personality</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bright</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>irritate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>variation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>partisan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>revise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobility</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attract</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>simultaneously</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>modification</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradual</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>disagree</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpret</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>curriculum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>elective</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychologist</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>establishment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apartment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>typical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attitude</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emphasis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>copyright</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>regime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprehensive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bombard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discourse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>accusation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>momentum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>embed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>specimen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>secrete</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>voluntary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandatory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>obvious</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>majority</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rural</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>minority n. 少数,少数民族,未成年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 强制的; 命令的; 受委托的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 自愿的; 志愿组织/协会/机构等 n.（教堂中的）管风琴演奏曲，即兴曲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [生]分泌; 隐匿，隐藏; 私下侵吞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校场景</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人体器官</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>insulin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 胰岛素</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 肾上腺素</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 激素,荷尔蒙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pancrea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 胰腺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lung</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 肺,呼吸器官 [医]辅助呼吸的装置; 〈英〉可供呼吸新鲜空气的地方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 癌症</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adrenine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pregnancy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 怀孕，妊娠; 丰富，多产; 意义深长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sickness</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 恶心</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sick adj.恶心的; 晕船; 不舒服的; 腻烦的; 生病的
+n. &lt;口&gt;呕吐物,病人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 诊所,门诊时间,培训班</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 医学,药物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 样品; 范例; （化验的）抽样; 某种类型的人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 样品; 样本; （化验的）取样; （用于新乐曲中的）节录乐曲; 确定（模拟信号）瞬时值
+vt.品尝; 体验; 抽样调查; 取样; 品尝，体验；抽样检验；节录（某一曲子，用于新乐曲中）
+adj. 样品的,作为例子的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. （使）嵌入，融入; 派遣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [物]动量; 势头; 动力; 要素，契机</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 指责，控告; （尚未证实的被控告的）罪名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuse v. 指责，控告</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 不足的，缺乏的; 有缺陷的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 闪开，躲开; 逃避
+n. 推脱的计策; 骗人的伎俩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 监测仪器; 显示屏; 班长; 监督员; 巨蜥 v. 监听,监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 储备; 预备队员; 保护区; 寡言; 谨慎; 后备军; 底价
+v. 保留,预定,拥有</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 演讲，论述; 论文; 〈语〉语篇，话语
+v. 论述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 电子的; 电子设备的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 炮击，轰炸; &lt;核&gt;以高能量粒子或放射能冲击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bombardment n. 炮击,轰炸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 全面的; 综合性的 n.（英国的公立性）综合中学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 政治制度，政权，政体; 管理，方法; [医]养生法; （病人等的）生活规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 版权，著作权 adj. 受版权保护的 v. 获得…的版权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. （强烈的）反对，敌对; （政府的）反对党，在野党; 对抗，抵抗; 相对，对照</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 强调，重要性; 重读</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tropical adj.热带的; 来自热带的; 典型热带气候的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 公寓套房; （总统等要人的）套间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>phycology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 藻类学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 藻类学家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 由选举产生的; 有选举权的; 选修的; 〈医〉非急需的 n. 选修课</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 选修课 
+adj. 
+1. not compulsory 非强制的
+2. subject to popular election</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 全部课程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extracurriculum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 课外的,业余的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 诠释; 领会，把…理解为; 口译; 演绎</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 逐渐的; 平缓的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 同时地; 一壁; 齐; 一齐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 塑料; 塑料学; 信用卡 adj.塑料的; 不自然的; 可塑的; 做作的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.边线; 刀锋; （危险）临界点; 优势; 影响力; 尖锐声调
+v. 缓慢地移动,给…加边;略微增加(变好)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 流动性; 移动性; &lt;社&gt;流动; 机动性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 电子学,电子设备</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 党派性的; 偏袒的; 游击队的
+n. 党羽,强硬支持者;游击队员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.刺激，使兴奋; 使发怒; 使感到不适; 使疼痛，使发炎
+vi. 引起恼怒,引起不愉快</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.（耐用的）斜纹棉布; 牛仔裤，斜纹棉布裤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 认识，识别; 承认; 赞赏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [药]咖啡因; 咖啡碱; 茶精（兴奋剂）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 毫克（千分之一克）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 聚集; 收集; 搜集; 收割; 理解; 逐渐增加; 集中; 给…打褶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 专科院校; 研究院，学会; （美国）私立中学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 进行; 前进; （沿特定路线）行进; （尤指打断后）继续说</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 有影响力的; 有支配力的 n.有影响力的人物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 重要性; 意义; 相关性; 关联；适当；中肯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.&lt;化&gt;氢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. &lt;物&gt;红外线的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.散播，宣传; 浸染</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. &amp; vi. 发动革命; 彻底改革; 使革命化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.使者，先驱，通报者; （旧时的）传令官 v. 传达,通报,预告,预示…的到来;欢呼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 不活动的，静态的; 休眠的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 天文台; 气象台; 瞭望台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 小山，山冈; 斜坡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.品牌; 一种; 类型; 烙印 v.加污名于; 丑化; 谴责; 在…打烙印</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 额外费用; 保险费; 附加费 adj. 高昂的,优质的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.制造，生产; 捏造，虚构; 加工; 从事制造 n. 大量制造,批量生产,工业品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 铁饼（奥运会的扔铁饼比赛..）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discuss v. 讨论,商量,阐述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 抑郁(症); 消沉; 萧条(期); 洼地; 低气压</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 咨询，磋商; 会诊; 查阅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 望远镜 v.精简</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>microscope n.显微镜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.丑闻，丑名，丑事，丑行，丢脸的事件，舞弊案件，耻辱; 流言蜚语; 闲话; 诽谤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.腐败，贪污，受贿; （单词）变体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 分发; 配销; 分配; 分散; 撒，播</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自治的; 独立自主的; 有主见的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.休眠的; 蛰伏的; 暂停活动的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>domestic adj.国内的; 家用的; 喜爱家庭生活的; 驯养的 n. 家佣,家政工</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 强制执行; 强迫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 共有的; 总体的 n. 企业集团</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 框架，构架; 体系; 眼镜框 v. 给…装/做框; 表达制定; 诬陷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.谜（语）; 神秘事件 v.用子弹）把…打得到处是洞，使满是弹孔; 精查（证据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(小山的）山坡; 山腰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.静脉; [地]矿脉，岩脉; [植]叶脉; 气质，倾向</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.动脉; 主干路，要道</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(作特殊用途的)房间; 议会; (人体、植物或机器内部的)腔; 私人房间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.敷布，压布 v. 压缩,精简</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 床单; 一页/张（纸）; 纪要; 薄板; 一层/团/片; 拉帆绳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 房东，地主; 店主</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.维持，保持; 保养，保管; 维护; 维修</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 基本的; 初级的; 简单的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 视力; 视野; 想象，幻象; 远见卓识; 有气质的人; 画面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 感觉的，感受的，感官的; 传递感觉的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ organs 感觉器官</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.颅骨，头盖骨; 脑袋; 脑子; [冶]渣壳，熔铁上的浮渣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 庄稼，作物; 收成; 一群，一些; 短发 v. 有收成; 收割; 啃吃（草等）; 剪短，剪裁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ knot 牢固的结</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. (使）蒸发，挥发; 逐渐消失</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 悲伤，痛苦; 危险; 窘迫 v. 使忧虑,使悲伤,使苦恼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -9471,6 +11455,27 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9491,27 +11496,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10924,8 +12908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12096,253 +14080,394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1" t="s">
         <v>353</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
         <v>331</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>333</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>569</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
         <v>409</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
         <v>411</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
         <v>335</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
         <v>865</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
         <v>337</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
         <v>339</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
         <v>358</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
         <v>355</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
         <v>341</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
         <v>364</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
         <v>368</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>367</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>571</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>1022</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>350</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C30" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
         <v>360</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C33" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
         <v>362</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C34" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
         <v>620</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C35" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
         <v>623</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C36" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
         <v>624</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C37" t="s">
         <v>627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="57">
+      <c r="B38" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="57">
+      <c r="B49" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
@@ -12353,10 +14478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E534"/>
+  <dimension ref="A1:E861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C510" sqref="C510"/>
+    <sheetView tabSelected="1" topLeftCell="A724" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C734" sqref="C734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12372,7 +14497,7 @@
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="30" t="s">
         <v>416</v>
       </c>
     </row>
@@ -12387,7 +14512,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="30" t="s">
         <v>419</v>
       </c>
     </row>
@@ -12556,7 +14681,7 @@
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="30" t="s">
         <v>453</v>
       </c>
     </row>
@@ -12734,7 +14859,7 @@
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="30" t="s">
         <v>489</v>
       </c>
     </row>
@@ -12749,7 +14874,7 @@
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="30" t="s">
         <v>492</v>
       </c>
     </row>
@@ -12764,7 +14889,7 @@
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="30" t="s">
         <v>495</v>
       </c>
     </row>
@@ -12799,12 +14924,12 @@
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="30" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="30" t="s">
         <v>503</v>
       </c>
     </row>
@@ -12879,7 +15004,7 @@
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="30" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12922,7 +15047,7 @@
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="30" t="s">
         <v>527</v>
       </c>
     </row>
@@ -12962,7 +15087,7 @@
       </c>
     </row>
     <row r="119" spans="2:5">
-      <c r="B119" s="37" t="s">
+      <c r="B119" s="30" t="s">
         <v>535</v>
       </c>
       <c r="D119" t="s">
@@ -12988,7 +15113,7 @@
       </c>
     </row>
     <row r="123" spans="2:5">
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="30" t="s">
         <v>541</v>
       </c>
     </row>
@@ -13021,7 +15146,7 @@
       </c>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="30" t="s">
         <v>548</v>
       </c>
       <c r="D129" t="s">
@@ -13029,12 +15154,12 @@
       </c>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="30" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="37" t="s">
+      <c r="B131" s="30" t="s">
         <v>551</v>
       </c>
       <c r="D131" t="s">
@@ -13042,260 +15167,260 @@
       </c>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="31" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="32" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="40" t="s">
+      <c r="B134" s="33" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="135" spans="2:4">
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="32" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="32" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="137" spans="2:4">
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="32" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="138" spans="2:4">
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="32" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="32" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="140" spans="2:4">
-      <c r="B140" s="39" t="s">
+      <c r="B140" s="32" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" s="39" t="s">
+      <c r="B141" s="32" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="142" spans="2:4">
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="32" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="143" spans="2:4">
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="32" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="144" spans="2:4">
-      <c r="B144" s="39" t="s">
+      <c r="B144" s="32" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="40" t="s">
+      <c r="B145" s="33" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="39" t="s">
+      <c r="B146" s="32" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="32" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="32" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="32" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="40" t="s">
+      <c r="B150" s="33" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="32" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="32" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="32" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="39" t="s">
+      <c r="B154" s="32" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="32" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="39" t="s">
+      <c r="B156" s="32" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="39" t="s">
+      <c r="B157" s="32" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="39" t="s">
+      <c r="B158" s="32" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="32" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="32" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="39" t="s">
+      <c r="B161" s="32" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="39" t="s">
+      <c r="B162" s="32" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="39" t="s">
+      <c r="B163" s="32" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="39" t="s">
+      <c r="B164" s="32" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="39" t="s">
+      <c r="B165" s="32" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="39" t="s">
+      <c r="B166" s="32" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="39" t="s">
+      <c r="B167" s="32" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="39" t="s">
+      <c r="B168" s="32" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="39" t="s">
+      <c r="B169" s="32" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="39" t="s">
+      <c r="B170" s="32" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="39" t="s">
+      <c r="B171" s="32" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="39" t="s">
+      <c r="B172" s="32" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="39" t="s">
+      <c r="B173" s="32" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="39" t="s">
+      <c r="B174" s="32" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="39" t="s">
+      <c r="B175" s="32" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="39" t="s">
+      <c r="B176" s="32" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="39" t="s">
+      <c r="B177" s="32" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="39" t="s">
+      <c r="B178" s="32" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="39" t="s">
+      <c r="B179" s="32" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="39" t="s">
+      <c r="B180" s="32" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="39" t="s">
+      <c r="B181" s="32" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="40" t="s">
+      <c r="B182" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="C182" s="37" t="s">
+      <c r="C182" s="30" t="s">
         <v>615</v>
       </c>
       <c r="D182" t="s">
@@ -13303,32 +15428,32 @@
       </c>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="39" t="s">
+      <c r="B183" s="32" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="39" t="s">
+      <c r="B184" s="32" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="39" t="s">
+      <c r="B185" s="32" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="39" t="s">
+      <c r="B186" s="32" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="39" t="s">
+      <c r="B187" s="32" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="42.75">
-      <c r="B188" s="40" t="s">
+    <row r="188" spans="2:4" ht="28.5">
+      <c r="B188" s="33" t="s">
         <v>613</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -13336,12 +15461,12 @@
       </c>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="39" t="s">
+      <c r="B189" s="32" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="39" t="s">
+      <c r="B190" s="32" t="s">
         <v>618</v>
       </c>
       <c r="C190" t="s">
@@ -13349,17 +15474,17 @@
       </c>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="39" t="s">
+      <c r="B191" s="32" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="39" t="s">
+      <c r="B192" s="32" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="39" t="s">
+      <c r="B193" s="32" t="s">
         <v>623</v>
       </c>
       <c r="C193" t="s">
@@ -13367,7 +15492,7 @@
       </c>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="39" t="s">
+      <c r="B194" s="32" t="s">
         <v>624</v>
       </c>
       <c r="C194" t="s">
@@ -13375,7 +15500,7 @@
       </c>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="39" t="s">
+      <c r="B195" s="32" t="s">
         <v>628</v>
       </c>
       <c r="D195" t="s">
@@ -13383,92 +15508,92 @@
       </c>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="39" t="s">
+      <c r="B196" s="32" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="39" t="s">
+      <c r="B197" s="32" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="32" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="39" t="s">
+      <c r="B199" s="32" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="39" t="s">
+      <c r="B200" s="32" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="39" t="s">
+      <c r="B201" s="32" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="39" t="s">
+      <c r="B202" s="32" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="39" t="s">
+      <c r="B203" s="32" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="39" t="s">
+      <c r="B204" s="32" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="39" t="s">
+      <c r="B205" s="32" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="39" t="s">
+      <c r="B206" s="32" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="39" t="s">
+      <c r="B207" s="32" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="39" t="s">
+      <c r="B208" s="32" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="39" t="s">
+      <c r="B209" s="32" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="39" t="s">
+      <c r="B210" s="32" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="39" t="s">
+      <c r="B211" s="32" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="39" t="s">
+      <c r="B212" s="32" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="40" t="s">
+      <c r="B213" s="33" t="s">
         <v>647</v>
       </c>
       <c r="C213" t="s">
@@ -13476,265 +15601,265 @@
       </c>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="40" t="s">
+      <c r="B214" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="C214" s="37" t="s">
+      <c r="C214" s="30" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="39" t="s">
+      <c r="B215" s="32" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="39" t="s">
+      <c r="B216" s="32" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="39" t="s">
+      <c r="B217" s="32" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="39" t="s">
+      <c r="B218" s="32" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="39" t="s">
+      <c r="B219" s="32" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="39" t="s">
+      <c r="B220" s="32" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="39" t="s">
+      <c r="B221" s="32" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="39" t="s">
+      <c r="B222" s="32" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="39" t="s">
+      <c r="B223" s="32" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="39" t="s">
+      <c r="B224" s="32" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="39" t="s">
+      <c r="B225" s="32" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="39" t="s">
+      <c r="B226" s="32" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="40" t="s">
+      <c r="B227" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="C227" s="40" t="s">
+      <c r="C227" s="33" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="39" t="s">
+      <c r="B228" s="32" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="39" t="s">
+      <c r="B229" s="32" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="39" t="s">
+      <c r="B230" s="32" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="39" t="s">
+      <c r="B231" s="32" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="39" t="s">
+      <c r="B232" s="32" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="39" t="s">
+      <c r="B233" s="32" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="39" t="s">
+      <c r="B234" s="32" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="39" t="s">
+      <c r="B235" s="32" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="39" t="s">
+      <c r="B236" s="32" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="40" t="s">
+      <c r="B237" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="C237" s="37" t="s">
+      <c r="C237" s="30" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="39" t="s">
+      <c r="B238" s="32" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="39" t="s">
+      <c r="B239" s="32" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" s="39" t="s">
+      <c r="B240" s="32" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="39" t="s">
+      <c r="B241" s="32" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="39" t="s">
+      <c r="B242" s="32" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="39" t="s">
+      <c r="B243" s="32" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="39" t="s">
+      <c r="B244" s="32" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="39" t="s">
+      <c r="B245" s="32" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="39" t="s">
+      <c r="B246" s="32" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="39" t="s">
+      <c r="B247" s="32" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="39" t="s">
+      <c r="B248" s="32" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="39" t="s">
+      <c r="B249" s="32" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="39" t="s">
+      <c r="B250" s="32" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="40" t="s">
+      <c r="B251" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="C251" s="40" t="s">
+      <c r="C251" s="33" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="40" t="s">
+      <c r="B252" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="C252" s="40" t="s">
+      <c r="C252" s="33" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="39"/>
+      <c r="B253" s="32"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="39" t="s">
+      <c r="B254" s="32" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="39" t="s">
+      <c r="B255" s="32" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="39" t="s">
+      <c r="B256" s="32" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" s="39" t="s">
+      <c r="B257" s="32" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="39" t="s">
+      <c r="B258" s="32" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="39" t="s">
+      <c r="B259" s="32" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="39" t="s">
+      <c r="B260" s="32" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="39" t="s">
+      <c r="B261" s="32" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="39" t="s">
+      <c r="B262" s="32" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="39" t="s">
+      <c r="B263" s="32" t="s">
         <v>702</v>
       </c>
       <c r="C263" t="s">
@@ -13742,132 +15867,132 @@
       </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="39" t="s">
+      <c r="B264" s="32" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="39" t="s">
+      <c r="B265" s="32" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="39" t="s">
+      <c r="B266" s="32" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="39" t="s">
+      <c r="B267" s="32" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="39" t="s">
+      <c r="B268" s="32" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="39" t="s">
+      <c r="B269" s="32" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="39" t="s">
+      <c r="B270" s="32" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="39" t="s">
+      <c r="B271" s="32" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="39" t="s">
+      <c r="B272" s="32" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="39" t="s">
+      <c r="B273" s="32" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="39" t="s">
+      <c r="B274" s="32" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="40" t="s">
+      <c r="B275" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="C275" s="40" t="s">
+      <c r="C275" s="33" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" s="39" t="s">
+      <c r="B276" s="32" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="40" t="s">
+      <c r="B277" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="C277" s="37" t="s">
+      <c r="C277" s="30" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="40" t="s">
+      <c r="B278" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="C278" s="37" t="s">
+      <c r="C278" s="30" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="40" t="s">
+      <c r="B279" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="C279" s="37" t="s">
+      <c r="C279" s="30" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="280" spans="2:3" ht="28.5">
-      <c r="B280" s="39" t="s">
+      <c r="B280" s="32" t="s">
         <v>724</v>
       </c>
-      <c r="C280" s="41" t="s">
+      <c r="C280" s="34" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="39" t="s">
+      <c r="B281" s="32" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="39" t="s">
+      <c r="B282" s="32" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" s="39" t="s">
+      <c r="B283" s="32" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="39" t="s">
+      <c r="B284" s="32" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" s="39" t="s">
+      <c r="B285" s="32" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" s="39" t="s">
+      <c r="B286" s="32" t="s">
         <v>731</v>
       </c>
       <c r="C286" t="s">
@@ -13875,32 +16000,32 @@
       </c>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="39" t="s">
+      <c r="B287" s="32" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="39" t="s">
+      <c r="B288" s="32" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="39" t="s">
+      <c r="B289" s="32" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="39" t="s">
+      <c r="B290" s="32" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="39" t="s">
+      <c r="B291" s="32" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="39" t="s">
+      <c r="B292" s="32" t="s">
         <v>738</v>
       </c>
       <c r="C292" t="s">
@@ -13908,22 +16033,22 @@
       </c>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="39" t="s">
+      <c r="B293" s="32" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="39" t="s">
+      <c r="B294" s="32" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="39" t="s">
+      <c r="B295" s="32" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="40" t="s">
+      <c r="B296" s="33" t="s">
         <v>743</v>
       </c>
       <c r="C296" t="s">
@@ -13931,27 +16056,27 @@
       </c>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="39" t="s">
+      <c r="B297" s="32" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="39" t="s">
+      <c r="B298" s="32" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" s="39" t="s">
+      <c r="B299" s="32" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="39" t="s">
+      <c r="B300" s="32" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="40" t="s">
+      <c r="B301" s="33" t="s">
         <v>749</v>
       </c>
       <c r="C301" t="s">
@@ -13959,423 +16084,423 @@
       </c>
     </row>
     <row r="302" spans="2:3">
-      <c r="B302" s="39" t="s">
+      <c r="B302" s="32" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="39" t="s">
+      <c r="B303" s="32" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="39" t="s">
+      <c r="B304" s="32" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="39" t="s">
+      <c r="B305" s="32" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="39"/>
+      <c r="B306" s="32"/>
     </row>
     <row r="307" spans="2:2">
-      <c r="B307" s="39" t="s">
+      <c r="B307" s="32" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="308" spans="2:2">
-      <c r="B308" s="40" t="s">
+      <c r="B308" s="33" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="309" spans="2:2">
-      <c r="B309" s="39" t="s">
+      <c r="B309" s="32" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="310" spans="2:2">
-      <c r="B310" s="39" t="s">
+      <c r="B310" s="32" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="311" spans="2:2">
-      <c r="B311" s="40" t="s">
+      <c r="B311" s="33" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="312" spans="2:2">
-      <c r="B312" s="39" t="s">
+      <c r="B312" s="32" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="313" spans="2:2">
-      <c r="B313" s="39" t="s">
+      <c r="B313" s="32" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="314" spans="2:2">
-      <c r="B314" s="39" t="s">
+      <c r="B314" s="32" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="315" spans="2:2">
-      <c r="B315" s="39" t="s">
+      <c r="B315" s="32" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="39" t="s">
+      <c r="B316" s="32" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="317" spans="2:2">
-      <c r="B317" s="39" t="s">
+      <c r="B317" s="32" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="318" spans="2:2">
-      <c r="B318" s="39" t="s">
+      <c r="B318" s="32" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="319" spans="2:2">
-      <c r="B319" s="39" t="s">
+      <c r="B319" s="32" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="320" spans="2:2">
-      <c r="B320" s="39" t="s">
+      <c r="B320" s="32" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="321" spans="2:2">
-      <c r="B321" s="39" t="s">
+      <c r="B321" s="32" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="322" spans="2:2">
-      <c r="B322" s="39" t="s">
+      <c r="B322" s="32" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="323" spans="2:2">
-      <c r="B323" s="39" t="s">
+      <c r="B323" s="32" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="324" spans="2:2">
-      <c r="B324" s="40" t="s">
+      <c r="B324" s="33" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="325" spans="2:2">
-      <c r="B325" s="39" t="s">
+      <c r="B325" s="32" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="326" spans="2:2">
-      <c r="B326" s="40" t="s">
+      <c r="B326" s="33" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="327" spans="2:2">
-      <c r="B327" s="39" t="s">
+      <c r="B327" s="32" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="328" spans="2:2">
-      <c r="B328" s="39" t="s">
+      <c r="B328" s="32" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="329" spans="2:2">
-      <c r="B329" s="39" t="s">
+      <c r="B329" s="32" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="330" spans="2:2">
-      <c r="B330" s="39" t="s">
+      <c r="B330" s="32" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="331" spans="2:2">
-      <c r="B331" s="39" t="s">
+      <c r="B331" s="32" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="332" spans="2:2">
-      <c r="B332" s="39" t="s">
+      <c r="B332" s="32" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="333" spans="2:2">
-      <c r="B333" s="39" t="s">
+      <c r="B333" s="32" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="334" spans="2:2">
-      <c r="B334" s="39" t="s">
+      <c r="B334" s="32" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="335" spans="2:2">
-      <c r="B335" s="39" t="s">
+      <c r="B335" s="32" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="336" spans="2:2">
-      <c r="B336" s="40" t="s">
+      <c r="B336" s="33" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="337" spans="2:2">
-      <c r="B337" s="40" t="s">
+      <c r="B337" s="33" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="338" spans="2:2">
-      <c r="B338" s="39" t="s">
+      <c r="B338" s="32" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="339" spans="2:2">
-      <c r="B339" s="39" t="s">
+      <c r="B339" s="32" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="340" spans="2:2">
-      <c r="B340" s="39" t="s">
+      <c r="B340" s="32" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="341" spans="2:2">
-      <c r="B341" s="39" t="s">
+      <c r="B341" s="32" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="342" spans="2:2">
-      <c r="B342" s="39" t="s">
+      <c r="B342" s="32" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="343" spans="2:2">
-      <c r="B343" s="39" t="s">
+      <c r="B343" s="32" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="344" spans="2:2">
-      <c r="B344" s="39" t="s">
+      <c r="B344" s="32" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="345" spans="2:2">
-      <c r="B345" s="39" t="s">
+      <c r="B345" s="32" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="346" spans="2:2">
-      <c r="B346" s="39" t="s">
+      <c r="B346" s="32" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="347" spans="2:2">
-      <c r="B347" s="39" t="s">
+      <c r="B347" s="32" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="348" spans="2:2">
-      <c r="B348" s="39" t="s">
+      <c r="B348" s="32" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="349" spans="2:2">
-      <c r="B349" s="39" t="s">
+      <c r="B349" s="32" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="350" spans="2:2">
-      <c r="B350" s="39" t="s">
+      <c r="B350" s="32" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="351" spans="2:2">
-      <c r="B351" s="39" t="s">
+      <c r="B351" s="32" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="352" spans="2:2">
-      <c r="B352" s="39" t="s">
+      <c r="B352" s="32" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="353" spans="2:2">
-      <c r="B353" s="39" t="s">
+      <c r="B353" s="32" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="354" spans="2:2">
-      <c r="B354" s="39" t="s">
+      <c r="B354" s="32" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="355" spans="2:2">
-      <c r="B355" s="39" t="s">
+      <c r="B355" s="32" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="356" spans="2:2">
-      <c r="B356" s="39" t="s">
+      <c r="B356" s="32" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="357" spans="2:2">
-      <c r="B357" s="39" t="s">
+      <c r="B357" s="32" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="358" spans="2:2">
-      <c r="B358" s="39" t="s">
+      <c r="B358" s="32" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="359" spans="2:2">
-      <c r="B359" s="39"/>
+      <c r="B359" s="32"/>
     </row>
     <row r="360" spans="2:2">
-      <c r="B360" s="40" t="s">
+      <c r="B360" s="33" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="361" spans="2:2">
-      <c r="B361" s="39" t="s">
+      <c r="B361" s="32" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="362" spans="2:2">
-      <c r="B362" s="39" t="s">
+      <c r="B362" s="32" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="363" spans="2:2">
-      <c r="B363" s="39" t="s">
+      <c r="B363" s="32" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="364" spans="2:2">
-      <c r="B364" s="39" t="s">
+      <c r="B364" s="32" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="365" spans="2:2">
-      <c r="B365" s="39" t="s">
+      <c r="B365" s="32" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="366" spans="2:2">
-      <c r="B366" s="39" t="s">
+      <c r="B366" s="32" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="367" spans="2:2">
-      <c r="B367" s="39" t="s">
+      <c r="B367" s="32" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="368" spans="2:2">
-      <c r="B368" s="39" t="s">
+      <c r="B368" s="32" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="369" spans="2:2">
-      <c r="B369" s="40" t="s">
+      <c r="B369" s="33" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="370" spans="2:2">
-      <c r="B370" s="40" t="s">
+      <c r="B370" s="33" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="371" spans="2:2">
-      <c r="B371" s="39" t="s">
+      <c r="B371" s="32" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="372" spans="2:2">
-      <c r="B372" s="39" t="s">
+      <c r="B372" s="32" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="373" spans="2:2">
-      <c r="B373" s="39" t="s">
+      <c r="B373" s="32" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="374" spans="2:2">
-      <c r="B374" s="39" t="s">
+      <c r="B374" s="32" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" s="39" t="s">
+      <c r="B375" s="32" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="376" spans="2:2">
-      <c r="B376" s="39" t="s">
+      <c r="B376" s="32" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="377" spans="2:2">
-      <c r="B377" s="39" t="s">
+      <c r="B377" s="32" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="378" spans="2:2">
-      <c r="B378" s="39" t="s">
+      <c r="B378" s="32" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="39" t="s">
+      <c r="B379" s="32" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="380" spans="2:2">
-      <c r="B380" s="39" t="s">
+      <c r="B380" s="32" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="381" spans="2:2">
-      <c r="B381" s="39" t="s">
+      <c r="B381" s="32" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="382" spans="2:2">
-      <c r="B382" s="39" t="s">
+      <c r="B382" s="32" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="383" spans="2:2">
-      <c r="B383" s="39" t="s">
+      <c r="B383" s="32" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="384" spans="2:2">
-      <c r="B384" s="40" t="s">
+      <c r="B384" s="33" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="385" spans="2:4">
-      <c r="B385" s="39" t="s">
+      <c r="B385" s="32" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="386" spans="2:4">
-      <c r="B386" s="40" t="s">
+      <c r="B386" s="33" t="s">
         <v>833</v>
       </c>
       <c r="C386" t="s">
@@ -14383,65 +16508,65 @@
       </c>
     </row>
     <row r="387" spans="2:4">
-      <c r="B387" s="39" t="s">
+      <c r="B387" s="32" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="388" spans="2:4">
-      <c r="B388" s="39" t="s">
+      <c r="B388" s="32" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="389" spans="2:4">
-      <c r="B389" s="39" t="s">
+      <c r="B389" s="32" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="390" spans="2:4">
-      <c r="B390" s="40" t="s">
+      <c r="B390" s="33" t="s">
         <v>837</v>
       </c>
-      <c r="C390" s="37" t="s">
+      <c r="C390" s="30" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="391" spans="2:4">
-      <c r="B391" s="39" t="s">
+      <c r="B391" s="32" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="392" spans="2:4">
-      <c r="B392" s="39" t="s">
+      <c r="B392" s="32" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="393" spans="2:4">
-      <c r="B393" s="39" t="s">
+      <c r="B393" s="32" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="394" spans="2:4">
-      <c r="B394" s="39" t="s">
+      <c r="B394" s="32" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="395" spans="2:4">
-      <c r="B395" s="39" t="s">
+      <c r="B395" s="32" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="396" spans="2:4">
-      <c r="B396" s="39" t="s">
+      <c r="B396" s="32" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="397" spans="2:4">
-      <c r="B397" s="39" t="s">
+      <c r="B397" s="32" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="398" spans="2:4" ht="28.5">
-      <c r="B398" s="40" t="s">
+      <c r="B398" s="33" t="s">
         <v>847</v>
       </c>
       <c r="C398" s="2" t="s">
@@ -14449,7 +16574,7 @@
       </c>
     </row>
     <row r="399" spans="2:4">
-      <c r="B399" s="39" t="s">
+      <c r="B399" s="32" t="s">
         <v>849</v>
       </c>
       <c r="C399" t="s">
@@ -14460,7 +16585,7 @@
       </c>
     </row>
     <row r="400" spans="2:4">
-      <c r="B400" s="39" t="s">
+      <c r="B400" s="32" t="s">
         <v>850</v>
       </c>
       <c r="C400" t="s">
@@ -14468,17 +16593,17 @@
       </c>
     </row>
     <row r="401" spans="2:3">
-      <c r="B401" s="39" t="s">
+      <c r="B401" s="32" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="402" spans="2:3">
-      <c r="B402" s="39" t="s">
+      <c r="B402" s="32" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="403" spans="2:3">
-      <c r="B403" s="39" t="s">
+      <c r="B403" s="32" t="s">
         <v>856</v>
       </c>
       <c r="C403" t="s">
@@ -14486,7 +16611,7 @@
       </c>
     </row>
     <row r="404" spans="2:3">
-      <c r="B404" s="39" t="s">
+      <c r="B404" s="32" t="s">
         <v>859</v>
       </c>
       <c r="C404" t="s">
@@ -14494,42 +16619,42 @@
       </c>
     </row>
     <row r="405" spans="2:3">
-      <c r="B405" s="39" t="s">
+      <c r="B405" s="32" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="406" spans="2:3">
-      <c r="B406" s="39" t="s">
+      <c r="B406" s="32" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="407" spans="2:3">
-      <c r="B407" s="39" t="s">
+      <c r="B407" s="32" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="39" t="s">
+      <c r="B408" s="32" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="409" spans="2:3">
-      <c r="B409" s="39" t="s">
+      <c r="B409" s="32" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="39" t="s">
+      <c r="B410" s="32" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="411" spans="2:3">
-      <c r="B411" s="39" t="s">
+      <c r="B411" s="32" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="40" t="s">
+      <c r="B412" s="33" t="s">
         <v>868</v>
       </c>
       <c r="C412" t="s">
@@ -14537,47 +16662,47 @@
       </c>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="39" t="s">
+      <c r="B413" s="32" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="39" t="s">
+      <c r="B414" s="32" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="415" spans="2:3">
-      <c r="B415" s="39" t="s">
+      <c r="B415" s="32" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="416" spans="2:3">
-      <c r="B416" s="39" t="s">
+      <c r="B416" s="32" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="417" spans="2:4">
-      <c r="B417" s="39" t="s">
+      <c r="B417" s="32" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="418" spans="2:4">
-      <c r="B418" s="39" t="s">
+      <c r="B418" s="32" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="419" spans="2:4">
-      <c r="B419" s="39" t="s">
+      <c r="B419" s="32" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="420" spans="2:4">
-      <c r="B420" s="39" t="s">
+      <c r="B420" s="32" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="421" spans="2:4" ht="28.5">
-      <c r="B421" s="40" t="s">
+      <c r="B421" s="33" t="s">
         <v>878</v>
       </c>
       <c r="C421" s="2" t="s">
@@ -14585,12 +16710,12 @@
       </c>
     </row>
     <row r="422" spans="2:4">
-      <c r="B422" s="39" t="s">
+      <c r="B422" s="32" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="423" spans="2:4">
-      <c r="B423" s="39" t="s">
+      <c r="B423" s="32" t="s">
         <v>881</v>
       </c>
       <c r="C423" t="s">
@@ -14601,10 +16726,10 @@
       </c>
     </row>
     <row r="424" spans="2:4">
-      <c r="B424" s="40" t="s">
+      <c r="B424" s="33" t="s">
         <v>884</v>
       </c>
-      <c r="C424" s="37" t="s">
+      <c r="C424" s="30" t="s">
         <v>885</v>
       </c>
       <c r="D424" t="s">
@@ -14612,66 +16737,66 @@
       </c>
     </row>
     <row r="425" spans="2:4">
-      <c r="B425" s="39" t="s">
+      <c r="B425" s="32" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="426" spans="2:4">
-      <c r="B426" s="39" t="s">
+      <c r="B426" s="32" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="427" spans="2:4">
-      <c r="B427" s="39" t="s">
+      <c r="B427" s="32" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="428" spans="2:4">
-      <c r="B428" s="39" t="s">
+      <c r="B428" s="32" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="429" spans="2:4">
-      <c r="B429" s="40" t="s">
+      <c r="B429" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="C429" s="37" t="s">
+      <c r="C429" s="30" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="430" spans="2:4">
-      <c r="B430" s="39"/>
+      <c r="B430" s="32"/>
     </row>
     <row r="431" spans="2:4">
-      <c r="B431" s="39" t="s">
+      <c r="B431" s="32" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="432" spans="2:4">
-      <c r="B432" s="39" t="s">
+      <c r="B432" s="32" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="433" spans="2:3">
-      <c r="B433" s="39" t="s">
+      <c r="B433" s="32" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="434" spans="2:3">
-      <c r="B434" s="39" t="s">
+      <c r="B434" s="32" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="435" spans="2:3">
-      <c r="B435" s="40" t="s">
+      <c r="B435" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="C435" s="37" t="s">
+      <c r="C435" s="30" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="436" spans="2:3">
-      <c r="B436" s="39" t="s">
+      <c r="B436" s="32" t="s">
         <v>898</v>
       </c>
       <c r="C436" t="s">
@@ -14679,38 +16804,38 @@
       </c>
     </row>
     <row r="437" spans="2:3">
-      <c r="B437" s="39" t="s">
+      <c r="B437" s="32" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="438" spans="2:3">
-      <c r="B438" s="39" t="s">
+      <c r="B438" s="32" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="439" spans="2:3">
-      <c r="B439" s="39" t="s">
+      <c r="B439" s="32" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="440" spans="2:3">
-      <c r="B440" s="40" t="s">
+      <c r="B440" s="33" t="s">
         <v>904</v>
       </c>
-      <c r="C440" s="37" t="s">
+      <c r="C440" s="30" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="441" spans="2:3">
-      <c r="B441" s="40" t="s">
+      <c r="B441" s="33" t="s">
         <v>906</v>
       </c>
-      <c r="C441" s="40" t="s">
+      <c r="C441" s="33" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="442" spans="2:3" ht="28.5">
-      <c r="B442" s="39" t="s">
+      <c r="B442" s="32" t="s">
         <v>908</v>
       </c>
       <c r="C442" s="2" t="s">
@@ -14718,12 +16843,12 @@
       </c>
     </row>
     <row r="443" spans="2:3">
-      <c r="B443" s="39" t="s">
+      <c r="B443" s="32" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="444" spans="2:3">
-      <c r="B444" s="39" t="s">
+      <c r="B444" s="32" t="s">
         <v>910</v>
       </c>
       <c r="C444" t="s">
@@ -14731,63 +16856,63 @@
       </c>
     </row>
     <row r="445" spans="2:3">
-      <c r="B445" s="40" t="s">
+      <c r="B445" s="33" t="s">
         <v>913</v>
       </c>
-      <c r="C445" s="37" t="s">
+      <c r="C445" s="30" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="446" spans="2:3">
-      <c r="B446" s="40" t="s">
+      <c r="B446" s="33" t="s">
         <v>915</v>
       </c>
-      <c r="C446" s="40" t="s">
+      <c r="C446" s="33" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="447" spans="2:3">
-      <c r="B447" s="40" t="s">
+      <c r="B447" s="33" t="s">
         <v>917</v>
       </c>
-      <c r="C447" s="40" t="s">
+      <c r="C447" s="33" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="448" spans="2:3">
-      <c r="B448" s="40" t="s">
+      <c r="B448" s="33" t="s">
         <v>919</v>
       </c>
-      <c r="C448" s="40" t="s">
+      <c r="C448" s="33" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="449" spans="2:4">
-      <c r="B449" s="40" t="s">
+      <c r="B449" s="33" t="s">
         <v>921</v>
       </c>
-      <c r="C449" s="40" t="s">
+      <c r="C449" s="33" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="450" spans="2:4">
-      <c r="B450" s="40" t="s">
+      <c r="B450" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="C450" s="40" t="s">
+      <c r="C450" s="33" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="451" spans="2:4">
-      <c r="B451" s="40" t="s">
+      <c r="B451" s="33" t="s">
         <v>924</v>
       </c>
-      <c r="C451" s="40" t="s">
+      <c r="C451" s="33" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="452" spans="2:4" ht="28.5">
-      <c r="B452" s="39" t="s">
+      <c r="B452" s="32" t="s">
         <v>925</v>
       </c>
       <c r="C452" s="2" t="s">
@@ -14795,20 +16920,20 @@
       </c>
     </row>
     <row r="453" spans="2:4">
-      <c r="B453" s="39" t="s">
+      <c r="B453" s="32" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="454" spans="2:4" ht="28.5">
-      <c r="B454" s="40" t="s">
+      <c r="B454" s="33" t="s">
         <v>930</v>
       </c>
-      <c r="C454" s="41" t="s">
+      <c r="C454" s="34" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="455" spans="2:4">
-      <c r="B455" s="39" t="s">
+      <c r="B455" s="32" t="s">
         <v>932</v>
       </c>
       <c r="C455" t="s">
@@ -14816,7 +16941,7 @@
       </c>
     </row>
     <row r="456" spans="2:4">
-      <c r="B456" s="40" t="s">
+      <c r="B456" s="33" t="s">
         <v>934</v>
       </c>
       <c r="C456" t="s">
@@ -14824,38 +16949,38 @@
       </c>
     </row>
     <row r="457" spans="2:4">
-      <c r="B457" s="40" t="s">
+      <c r="B457" s="33" t="s">
         <v>936</v>
       </c>
-      <c r="C457" s="37" t="s">
+      <c r="C457" s="30" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="458" spans="2:4">
-      <c r="B458" s="40" t="s">
+      <c r="B458" s="33" t="s">
         <v>938</v>
       </c>
-      <c r="C458" s="37" t="s">
+      <c r="C458" s="30" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="459" spans="2:4">
-      <c r="B459" s="39" t="s">
+      <c r="B459" s="32" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="460" spans="2:4">
-      <c r="B460" s="40" t="s">
+      <c r="B460" s="33" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="461" spans="2:4">
-      <c r="B461" s="40" t="s">
+      <c r="B461" s="33" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="462" spans="2:4">
-      <c r="B462" s="39" t="s">
+      <c r="B462" s="32" t="s">
         <v>943</v>
       </c>
       <c r="C462" t="s">
@@ -14866,69 +16991,69 @@
       </c>
     </row>
     <row r="463" spans="2:4">
-      <c r="B463" s="40" t="s">
+      <c r="B463" s="33" t="s">
         <v>944</v>
       </c>
-      <c r="C463" s="40" t="s">
+      <c r="C463" s="33" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="464" spans="2:4">
-      <c r="B464" s="39" t="s">
+      <c r="B464" s="32" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="B465" s="40" t="s">
+      <c r="B465" s="33" t="s">
         <v>949</v>
       </c>
-      <c r="C465" s="40" t="s">
+      <c r="C465" s="33" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="B466" s="39" t="s">
+      <c r="B466" s="32" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="B467" s="39" t="s">
+      <c r="B467" s="32" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="468" spans="1:3">
-      <c r="B468" s="40" t="s">
+      <c r="B468" s="33" t="s">
         <v>953</v>
       </c>
-      <c r="C468" s="40" t="s">
+      <c r="C468" s="33" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="469" spans="1:3">
-      <c r="B469" s="39" t="s">
+      <c r="B469" s="32" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="B470" s="39" t="s">
+      <c r="B470" s="32" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="471" spans="1:3">
-      <c r="B471" s="40" t="s">
+      <c r="B471" s="33" t="s">
         <v>957</v>
       </c>
-      <c r="C471" s="40" t="s">
+      <c r="C471" s="33" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="B472" s="39" t="s">
+      <c r="B472" s="32" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="B473" s="39" t="s">
+      <c r="B473" s="32" t="s">
         <v>959</v>
       </c>
       <c r="C473" t="s">
@@ -14936,7 +17061,7 @@
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="B474" s="39" t="s">
+      <c r="B474" s="32" t="s">
         <v>960</v>
       </c>
       <c r="C474" t="s">
@@ -14944,10 +17069,10 @@
       </c>
     </row>
     <row r="475" spans="1:3">
-      <c r="B475" s="40" t="s">
+      <c r="B475" s="33" t="s">
         <v>961</v>
       </c>
-      <c r="C475" s="40" t="s">
+      <c r="C475" s="33" t="s">
         <v>966</v>
       </c>
     </row>
@@ -14955,116 +17080,116 @@
       <c r="A476" t="s">
         <v>962</v>
       </c>
-      <c r="B476" s="39"/>
-      <c r="C476" s="42"/>
+      <c r="B476" s="32"/>
+      <c r="C476" s="35"/>
     </row>
     <row r="477" spans="1:3">
-      <c r="B477" s="40" t="s">
+      <c r="B477" s="33" t="s">
         <v>967</v>
       </c>
-      <c r="C477" s="40" t="s">
+      <c r="C477" s="33" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="478" spans="1:3">
-      <c r="B478" s="39" t="s">
+      <c r="B478" s="32" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="479" spans="1:3">
-      <c r="B479" s="39" t="s">
+      <c r="B479" s="32" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="B480" s="40" t="s">
+      <c r="B480" s="33" t="s">
         <v>970</v>
       </c>
-      <c r="C480" s="40" t="s">
+      <c r="C480" s="33" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="481" spans="2:3">
-      <c r="B481" s="40" t="s">
+      <c r="B481" s="33" t="s">
         <v>971</v>
       </c>
-      <c r="C481" s="40" t="s">
+      <c r="C481" s="33" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="482" spans="2:3">
-      <c r="B482" s="40" t="s">
+      <c r="B482" s="33" t="s">
         <v>972</v>
       </c>
-      <c r="C482" s="40" t="s">
+      <c r="C482" s="33" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="483" spans="2:3">
-      <c r="B483" s="39" t="s">
+      <c r="B483" s="32" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="484" spans="2:3">
-      <c r="B484" s="40" t="s">
+      <c r="B484" s="33" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="485" spans="2:3">
-      <c r="B485" s="39" t="s">
+      <c r="B485" s="32" t="s">
         <v>975</v>
       </c>
-      <c r="C485" s="40" t="s">
+      <c r="C485" s="33" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="486" spans="2:3">
-      <c r="B486" s="39" t="s">
+      <c r="B486" s="32" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="39" t="s">
+      <c r="B487" s="32" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="488" spans="2:3">
-      <c r="B488" s="39" t="s">
+      <c r="B488" s="32" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="489" spans="2:3">
-      <c r="B489" s="39" t="s">
+      <c r="B489" s="32" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="490" spans="2:3">
-      <c r="B490" s="39" t="s">
+      <c r="B490" s="32" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="491" spans="2:3">
-      <c r="B491" s="39" t="s">
+      <c r="B491" s="32" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="492" spans="2:3">
-      <c r="B492" s="39" t="s">
+      <c r="B492" s="32" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="493" spans="2:3">
-      <c r="B493" s="39" t="s">
+      <c r="B493" s="32" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="494" spans="2:3">
-      <c r="B494" s="39" t="s">
+      <c r="B494" s="32" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="495" spans="2:3">
-      <c r="B495" s="39" t="s">
+      <c r="B495" s="32" t="s">
         <v>985</v>
       </c>
       <c r="C495" t="s">
@@ -15072,7 +17197,7 @@
       </c>
     </row>
     <row r="496" spans="2:3" ht="28.5">
-      <c r="B496" s="39" t="s">
+      <c r="B496" s="32" t="s">
         <v>986</v>
       </c>
       <c r="C496" s="2" t="s">
@@ -15080,10 +17205,10 @@
       </c>
     </row>
     <row r="497" spans="1:4">
-      <c r="B497" s="40" t="s">
+      <c r="B497" s="33" t="s">
         <v>987</v>
       </c>
-      <c r="C497" s="40" t="s">
+      <c r="C497" s="33" t="s">
         <v>999</v>
       </c>
       <c r="D497" t="s">
@@ -15091,34 +17216,34 @@
       </c>
     </row>
     <row r="498" spans="1:4">
-      <c r="B498" s="40" t="s">
+      <c r="B498" s="33" t="s">
         <v>988</v>
       </c>
-      <c r="C498" s="40" t="s">
+      <c r="C498" s="33" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="499" spans="1:4">
-      <c r="B499" s="40" t="s">
+      <c r="B499" s="33" t="s">
         <v>989</v>
       </c>
-      <c r="C499" s="40" t="s">
+      <c r="C499" s="33" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="500" spans="1:4">
-      <c r="B500" s="40" t="s">
+      <c r="B500" s="33" t="s">
         <v>990</v>
       </c>
-      <c r="C500" s="40" t="s">
+      <c r="C500" s="33" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="501" spans="1:4">
-      <c r="B501" s="40" t="s">
+      <c r="B501" s="33" t="s">
         <v>991</v>
       </c>
-      <c r="C501" s="40" t="s">
+      <c r="C501" s="33" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -15126,43 +17251,43 @@
       <c r="A502" t="s">
         <v>1005</v>
       </c>
-      <c r="B502" s="39"/>
+      <c r="B502" s="32"/>
     </row>
     <row r="503" spans="1:4">
-      <c r="B503" s="39" t="s">
+      <c r="B503" s="32" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="504" spans="1:4">
-      <c r="B504" s="39" t="s">
+      <c r="B504" s="32" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="505" spans="1:4">
-      <c r="B505" s="39" t="s">
+      <c r="B505" s="32" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="506" spans="1:4">
-      <c r="B506" s="40" t="s">
+      <c r="B506" s="33" t="s">
         <v>1009</v>
       </c>
-      <c r="C506" s="40" t="s">
+      <c r="C506" s="33" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="507" spans="1:4">
-      <c r="B507" s="39" t="s">
+      <c r="B507" s="32" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="508" spans="1:4">
-      <c r="B508" s="40" t="s">
+      <c r="B508" s="33" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="509" spans="1:4">
-      <c r="B509" s="40" t="s">
+      <c r="B509" s="33" t="s">
         <v>1013</v>
       </c>
       <c r="C509" t="s">
@@ -15170,47 +17295,47 @@
       </c>
     </row>
     <row r="510" spans="1:4">
-      <c r="B510" s="39" t="s">
+      <c r="B510" s="32" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="B511" s="39" t="s">
+      <c r="B511" s="32" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="512" spans="1:4">
-      <c r="B512" s="39" t="s">
+      <c r="B512" s="32" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="513" spans="2:4">
-      <c r="B513" s="39" t="s">
+      <c r="B513" s="32" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="514" spans="2:4">
-      <c r="B514" s="39" t="s">
+      <c r="B514" s="32" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="515" spans="2:4">
-      <c r="B515" s="39" t="s">
+      <c r="B515" s="32" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="516" spans="2:4">
-      <c r="B516" s="39" t="s">
+      <c r="B516" s="32" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="517" spans="2:4">
-      <c r="B517" s="39" t="s">
+      <c r="B517" s="32" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="518" spans="2:4">
-      <c r="B518" s="40" t="s">
+      <c r="B518" s="33" t="s">
         <v>1024</v>
       </c>
       <c r="C518" t="s">
@@ -15218,7 +17343,7 @@
       </c>
     </row>
     <row r="519" spans="2:4">
-      <c r="B519" s="40" t="s">
+      <c r="B519" s="33" t="s">
         <v>1025</v>
       </c>
       <c r="C519" t="s">
@@ -15226,7 +17351,7 @@
       </c>
     </row>
     <row r="520" spans="2:4">
-      <c r="B520" s="40" t="s">
+      <c r="B520" s="33" t="s">
         <v>1026</v>
       </c>
       <c r="C520" t="s">
@@ -15234,7 +17359,7 @@
       </c>
     </row>
     <row r="521" spans="2:4">
-      <c r="B521" s="40" t="s">
+      <c r="B521" s="33" t="s">
         <v>1027</v>
       </c>
       <c r="C521" t="s">
@@ -15242,12 +17367,12 @@
       </c>
     </row>
     <row r="522" spans="2:4">
-      <c r="B522" s="39" t="s">
+      <c r="B522" s="32" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="523" spans="2:4">
-      <c r="B523" s="40" t="s">
+      <c r="B523" s="33" t="s">
         <v>1029</v>
       </c>
       <c r="C523" t="s">
@@ -15258,7 +17383,7 @@
       </c>
     </row>
     <row r="524" spans="2:4">
-      <c r="B524" s="40" t="s">
+      <c r="B524" s="33" t="s">
         <v>1030</v>
       </c>
       <c r="C524" t="s">
@@ -15266,7 +17391,7 @@
       </c>
     </row>
     <row r="525" spans="2:4">
-      <c r="B525" s="40" t="s">
+      <c r="B525" s="33" t="s">
         <v>1031</v>
       </c>
       <c r="C525" t="s">
@@ -15277,7 +17402,7 @@
       </c>
     </row>
     <row r="526" spans="2:4" ht="28.5">
-      <c r="B526" s="40" t="s">
+      <c r="B526" s="33" t="s">
         <v>1032</v>
       </c>
       <c r="C526" s="2" t="s">
@@ -15288,17 +17413,17 @@
       </c>
     </row>
     <row r="527" spans="2:4">
-      <c r="B527" s="39" t="s">
+      <c r="B527" s="32" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="528" spans="2:4">
-      <c r="B528" s="39" t="s">
+      <c r="B528" s="32" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="529" spans="2:4" ht="85.5">
-      <c r="B529" s="40" t="s">
+    <row r="529" spans="1:4" ht="42.75">
+      <c r="B529" s="33" t="s">
         <v>1035</v>
       </c>
       <c r="C529" s="2" t="s">
@@ -15308,49 +17433,2091 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="530" spans="2:4" ht="28.5">
-      <c r="B530" s="40" t="s">
+    <row r="530" spans="1:4" ht="28.5">
+      <c r="B530" s="33" t="s">
         <v>1036</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="531" spans="2:4">
-      <c r="B531" s="39" t="s">
+    <row r="531" spans="1:4">
+      <c r="B531" s="32" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="532" spans="2:4" ht="42.75">
-      <c r="B532" s="40" t="s">
+    <row r="532" spans="1:4" ht="42.75">
+      <c r="B532" s="33" t="s">
         <v>1038</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="533" spans="2:4">
-      <c r="B533" s="40" t="s">
+    <row r="533" spans="1:4">
+      <c r="B533" s="33" t="s">
         <v>1039</v>
       </c>
       <c r="C533" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="534" spans="2:4" ht="28.5">
-      <c r="B534" s="40" t="s">
+    <row r="534" spans="1:4" ht="28.5">
+      <c r="B534" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="C534" s="43" t="s">
+      <c r="C534" s="36" t="s">
         <v>1041</v>
       </c>
       <c r="D534" t="s">
         <v>1042</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B535" s="31"/>
+    </row>
+    <row r="536" spans="1:4" ht="71.25">
+      <c r="B536" s="33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C536" s="36" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="B537" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C537" s="33" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="B538" s="31" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="B539" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C539" s="33" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="B540" s="31" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="B541" s="31" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="B542" s="33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C542" s="33" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="B543" s="31" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="42.75">
+      <c r="B544" s="33" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C544" s="36" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4">
+      <c r="B545" s="31" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="546" spans="2:4">
+      <c r="B546" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="547" spans="2:4" ht="28.5">
+      <c r="B547" s="33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C547" s="36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4">
+      <c r="B548" s="31" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4">
+      <c r="B549" s="31" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="550" spans="2:4">
+      <c r="B550" s="31" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4">
+      <c r="B551" s="31" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4">
+      <c r="B552" s="31" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4">
+      <c r="B553" s="31" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="554" spans="2:4">
+      <c r="B554" s="33" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C554" s="33" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4">
+      <c r="B555" s="31" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4">
+      <c r="B556" s="31" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4">
+      <c r="B557" s="33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C557" s="33" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="558" spans="2:4">
+      <c r="B558" s="33" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C558" s="33" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4">
+      <c r="B559" s="31" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4">
+      <c r="B560" s="33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C560" s="33" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3">
+      <c r="B561" s="31" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3">
+      <c r="B562" s="31" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3">
+      <c r="B563" s="31" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3">
+      <c r="B564" s="33" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C564" s="33" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3">
+      <c r="B565" s="31" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3">
+      <c r="B566" s="31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3">
+      <c r="B567" s="31" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3">
+      <c r="B568" s="31" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3">
+      <c r="B569" s="31" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3">
+      <c r="B570" s="33" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C570" s="33" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3">
+      <c r="B571" s="31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3">
+      <c r="B572" s="31" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3">
+      <c r="B573" s="31" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="574" spans="2:3">
+      <c r="B574" s="31" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3">
+      <c r="B575" s="33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C575" s="33" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3">
+      <c r="B576" s="31" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="B577" s="31" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="B578" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C578" s="33" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="B579" s="33" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C579" s="33" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="B580" s="33" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C580" s="33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="B581" s="31" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="B582" s="31" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="B584" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="B585" s="30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="B586" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="B587" s="30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C587" s="33" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="B588" s="33" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C588" s="33" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="B589" s="33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C589" s="33" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="B590" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="B591" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="B592" s="30" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C592" s="36" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="593" spans="2:3">
+      <c r="B593" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="594" spans="2:3">
+      <c r="B594" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="595" spans="2:3" ht="57">
+      <c r="B595" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C595" s="34" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="596" spans="2:3">
+      <c r="B596" s="34" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C596" s="34" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="597" spans="2:3">
+      <c r="B597" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="598" spans="2:3">
+      <c r="B598" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="599" spans="2:3" ht="28.5">
+      <c r="B599" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="600" spans="2:3">
+      <c r="B600" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="601" spans="2:3">
+      <c r="B601" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="602" spans="2:3">
+      <c r="B602" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="603" spans="2:3">
+      <c r="B603" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="604" spans="2:3" ht="28.5">
+      <c r="B604" s="34" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C604" s="34" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="605" spans="2:3">
+      <c r="B605" s="34" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C605" s="34" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="606" spans="2:3">
+      <c r="B606" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="607" spans="2:3">
+      <c r="B607" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="608" spans="2:3">
+      <c r="B608" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="B609" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="B610" s="34" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C610" s="34" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="B611" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="B612" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="B613" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="B614" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="B615" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="B616" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="B617" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="B618" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="B619" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="B620" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="B621" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="B622" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="B623" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2">
+      <c r="B625" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2">
+      <c r="B626" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2">
+      <c r="B627" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2">
+      <c r="B628" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2">
+      <c r="B629" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2">
+      <c r="B630" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2">
+      <c r="B631" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2">
+      <c r="B632" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2">
+      <c r="B633" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2">
+      <c r="B634" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2">
+      <c r="B635" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2">
+      <c r="B636" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2">
+      <c r="B637" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2">
+      <c r="B638" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2">
+      <c r="B639" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2">
+      <c r="B640" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2">
+      <c r="B641" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2">
+      <c r="B642" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2">
+      <c r="B643" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2">
+      <c r="B644" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2">
+      <c r="B645" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2">
+      <c r="B646" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2">
+      <c r="B647" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2">
+      <c r="B648" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2">
+      <c r="B649" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2">
+      <c r="B650" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2">
+      <c r="B651" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2">
+      <c r="B652" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2">
+      <c r="B653" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2">
+      <c r="B654" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2">
+      <c r="B655" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2">
+      <c r="B656" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="B657" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="B658" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="B659" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="B660" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="B661" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="B662" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="B663" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="B664" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="B665" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="B666" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="B667" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="B668" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="B669" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="B671" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="B672" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2">
+      <c r="B673" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2">
+      <c r="B674" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2">
+      <c r="B675" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2">
+      <c r="B676" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2">
+      <c r="B677" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2">
+      <c r="B678" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2">
+      <c r="B679" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2">
+      <c r="B680" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2">
+      <c r="B681" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2">
+      <c r="B682" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2">
+      <c r="B683" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2">
+      <c r="B684" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2">
+      <c r="B685" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2">
+      <c r="B686" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2">
+      <c r="B687" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2">
+      <c r="B688" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2">
+      <c r="B689" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2">
+      <c r="B690" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2">
+      <c r="B691" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2">
+      <c r="B692" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2">
+      <c r="B693" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2">
+      <c r="B694" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2">
+      <c r="B695" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2">
+      <c r="B696" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2">
+      <c r="B697" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2">
+      <c r="B698" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2">
+      <c r="B699" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2">
+      <c r="B700" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2">
+      <c r="B701" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2">
+      <c r="B702" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2">
+      <c r="B703" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2">
+      <c r="B704" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="B705" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="B706" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="B707" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="B708" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="B709" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="B710" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="B711" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="B712" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="B713" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="B714" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="B715" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="B717" s="30" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="B718" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="B719" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="B720" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="721" spans="2:4">
+      <c r="B721" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="722" spans="2:4">
+      <c r="B722" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="723" spans="2:4">
+      <c r="B723" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="724" spans="2:4">
+      <c r="B724" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="725" spans="2:4">
+      <c r="B725" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="726" spans="2:4">
+      <c r="B726" s="30" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="727" spans="2:4">
+      <c r="B727" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="728" spans="2:4">
+      <c r="B728" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="729" spans="2:4">
+      <c r="B729" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="730" spans="2:4">
+      <c r="B730" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="731" spans="2:4">
+      <c r="B731" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="732" spans="2:4">
+      <c r="B732" s="30" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="733" spans="2:4">
+      <c r="B733" s="30" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="734" spans="2:4">
+      <c r="B734" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="735" spans="2:4">
+      <c r="B735" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="736" spans="2:4">
+      <c r="B736" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="737" spans="2:3">
+      <c r="B737" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="738" spans="2:3">
+      <c r="B738" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="739" spans="2:3">
+      <c r="B739" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="740" spans="2:3">
+      <c r="B740" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="741" spans="2:3">
+      <c r="B741" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C741" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="742" spans="2:3">
+      <c r="B742" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="743" spans="2:3">
+      <c r="B743" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="744" spans="2:3">
+      <c r="B744" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="745" spans="2:3">
+      <c r="B745" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C745" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="746" spans="2:3">
+      <c r="B746" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="747" spans="2:3">
+      <c r="B747" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="748" spans="2:3">
+      <c r="B748" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="749" spans="2:3">
+      <c r="B749" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="750" spans="2:3">
+      <c r="B750" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="751" spans="2:3">
+      <c r="B751" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="752" spans="2:3">
+      <c r="B752" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="B753" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="B754" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="B755" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="B756" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="B757" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="B758" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="B759" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="B760" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="B761" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="B763" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="B764" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="B765" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="B766" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="B767" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="B768" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="769" spans="2:4">
+      <c r="B769" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="770" spans="2:4">
+      <c r="B770" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="771" spans="2:4">
+      <c r="B771" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="772" spans="2:4">
+      <c r="B772" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="773" spans="2:4">
+      <c r="B773" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="774" spans="2:4">
+      <c r="B774" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="775" spans="2:4">
+      <c r="B775" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="776" spans="2:4">
+      <c r="B776" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="777" spans="2:4">
+      <c r="B777" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="778" spans="2:4">
+      <c r="B778" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="779" spans="2:4">
+      <c r="B779" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="780" spans="2:4">
+      <c r="B780" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="781" spans="2:4">
+      <c r="B781" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="782" spans="2:4">
+      <c r="B782" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="783" spans="2:4">
+      <c r="B783" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="784" spans="2:4">
+      <c r="B784" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="785" spans="2:3">
+      <c r="B785" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="786" spans="2:3">
+      <c r="B786" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="787" spans="2:3">
+      <c r="B787" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="788" spans="2:3">
+      <c r="B788" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="789" spans="2:3">
+      <c r="B789" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="790" spans="2:3">
+      <c r="B790" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="791" spans="2:3">
+      <c r="B791" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="792" spans="2:3">
+      <c r="B792" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="793" spans="2:3">
+      <c r="B793" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="794" spans="2:3">
+      <c r="B794" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="795" spans="2:3">
+      <c r="B795" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="796" spans="2:3">
+      <c r="B796" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="797" spans="2:3">
+      <c r="B797" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="798" spans="2:3">
+      <c r="B798" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="799" spans="2:3">
+      <c r="B799" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="800" spans="2:3">
+      <c r="B800" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3">
+      <c r="B801" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3">
+      <c r="B802" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3">
+      <c r="B803" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3">
+      <c r="B804" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3">
+      <c r="B805" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3">
+      <c r="B806" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3">
+      <c r="B807" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="B808" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" ht="28.5">
+      <c r="B809" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="B810" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3">
+      <c r="A811" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3">
+      <c r="B812" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3">
+      <c r="B813" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" ht="28.5">
+      <c r="B814" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3">
+      <c r="B815" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3">
+      <c r="B816" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="817" spans="2:3">
+      <c r="B817" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="818" spans="2:3">
+      <c r="B818" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="819" spans="2:3" ht="28.5">
+      <c r="B819" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="820" spans="2:3">
+      <c r="B820" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="821" spans="2:3">
+      <c r="B821" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="822" spans="2:3">
+      <c r="B822" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="823" spans="2:3">
+      <c r="B823" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="824" spans="2:3">
+      <c r="B824" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="825" spans="2:3">
+      <c r="B825" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="826" spans="2:3">
+      <c r="B826" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="827" spans="2:3">
+      <c r="B827" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="828" spans="2:3">
+      <c r="B828" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="829" spans="2:3">
+      <c r="B829" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="830" spans="2:3">
+      <c r="B830" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="831" spans="2:3">
+      <c r="B831" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="832" spans="2:3">
+      <c r="B832" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="833" spans="2:4">
+      <c r="B833" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="834" spans="2:4">
+      <c r="B834" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="835" spans="2:4">
+      <c r="B835" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="836" spans="2:4">
+      <c r="B836" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="837" spans="2:4">
+      <c r="B837" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="838" spans="2:4">
+      <c r="B838" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="839" spans="2:4">
+      <c r="B839" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="840" spans="2:4">
+      <c r="B840" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="841" spans="2:4">
+      <c r="B841" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="842" spans="2:4">
+      <c r="B842" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="843" spans="2:4">
+      <c r="B843" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="844" spans="2:4" ht="28.5">
+      <c r="B844" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C844" s="2" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="845" spans="2:4" ht="28.5">
+      <c r="B845" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C845" s="2" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="846" spans="2:4">
+      <c r="B846" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="847" spans="2:4" ht="28.5">
+      <c r="B847" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="848" spans="2:4">
+      <c r="B848" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="849" spans="2:4">
+      <c r="B849" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="850" spans="2:4">
+      <c r="B850" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="851" spans="2:4">
+      <c r="B851" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="852" spans="2:4">
+      <c r="B852" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="853" spans="2:4" ht="71.25">
+      <c r="B853" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="854" spans="2:4">
+      <c r="B854" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="855" spans="2:4">
+      <c r="B855" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="856" spans="2:4">
+      <c r="B856" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="857" spans="2:4">
+      <c r="B857" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="858" spans="2:4">
+      <c r="B858" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="859" spans="2:4">
+      <c r="B859" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="860" spans="2:4">
+      <c r="B860" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="861" spans="2:4">
+      <c r="B861" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15372,21 +19539,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10" t="s">

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WFD" sheetId="1" r:id="rId1"/>
     <sheet name="WFD 生词本" sheetId="3" r:id="rId2"/>
     <sheet name="分组记忆单词" sheetId="5" r:id="rId3"/>
-    <sheet name="高阶单词本" sheetId="4" r:id="rId4"/>
+    <sheet name="高阶单词本1k" sheetId="4" r:id="rId4"/>
     <sheet name="打卡" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">高阶单词本!$B$1:$B$514</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">高阶单词本1k!$B$1:$B$514</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1818">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -11108,15 +11108,1093 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>~ knot 牢固的结</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>v. (使）蒸发，挥发; 逐渐消失</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>n. 悲伤，痛苦; 危险; 窘迫 v. 使忧虑,使悲伤,使苦恼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.代表大会; 国会，议会</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 测试 n.审讯; 试验; 试用期; 磨难; 预赛; 比赛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 决心; 解决; 坚决; 分辨率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 注册; 登记; 招收</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 汇集，聚集; （路、线等）相交，汇合; （思想等）趋同</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 古罗马军队的）步兵大队，军队; 一群人; 同伙，共犯; 支持者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 幸存者，残存者; 生还者; 遗物，残存物; 重新正常生活的人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 前所未有的，无前例的; 空前的; 无比的; 新奇的，崭新的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 税收; 财政收入; 收益</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.简易房，棚（用于贮藏物品）; 工棚，库房 v.去除，摆脱; 使落下; 蜕，落; 流，洒; 掉落（货物）; 使流（血）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 体积; 音量; 一卷; 合订本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.稳定（性），稳固; 坚定，恒心</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 恢复; 改善; 失而复得; 监护室</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 最后，最终; 基本上; 根本; 郅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. [生]机制，机能，[乐]机理; （机械）结构，机械装置[作用]，（故事的）结构; [艺]手法，技巧，途径; 机械作用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 给…上油漆; （用颜料）绘画; 涂，抹; 描绘 n. 油漆，涂层;绘画颜料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 驴; 蠢人; 屁股</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 条件; 环境; 情况; 情形; 原委; 境况; 命运; 机缘</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 全体演员; 模子; 特征，外貌; 投，抛 v.瞥; 投射(光线); 投(票); 扔; 抛; 挑选(演员); 描述; 浇铸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 心理（学）; 思想</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 养老金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 用餐，吃饭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 本质上，根本上; 本来; “essential“的派生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. （使）转变; 改造; 换算; （使）改变信仰; 使…迷上 n.皈依者; 改变宗教信仰者; 刚迷上…的人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 擦过，掠过 n. 放牧,擦伤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 经受住; 承受</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 昆虫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 屏障; 障碍; 界限; 壁垒; 隔阂; 阻碍; 关口; 栅栏; 挡板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 有机体; 生物体; 微生物; 有机体系，有机组织</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 相当大/多的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 毋庸置疑地，的确地; 显然; 必定; 无疑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 婴儿，幼儿; 未成年人; 初学者，生手 adj.婴儿的，幼儿的; 幼稚的，幼小的; 初期的; 未成年的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ knot 牢固的结 tie a knot 打结</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>isolation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>norm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>frighten</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>interrupt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discursive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consistency</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>encounter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>awareness</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>disadvantage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>existence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>investigate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>complicate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>landscape</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>especially</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>undergraduate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>excite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>valuable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsibility</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>theoretical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>undertake</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>respondent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>implementation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>desirable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>preference</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenuous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>provision</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>boundary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ornament</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prioritize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolution</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>massive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>enormous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>inadvertently</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hazard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decomposition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>placement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>artificial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>predominate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>orient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>commitment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>inform</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceremony</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>portion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>devote</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>disappear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>seminar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertisement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>solve</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>triple</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>afford</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lane</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>overeat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>persuade</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>socioeconomic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>levy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喷嘴，喷雾; 喷气式飞机; 喷射流; 煤玉 vi. 乘喷气式飞机; 射出 vt. 喷射，喷出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.隔离; 隔离状态; 孤独; 孤立状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.病房; 选区; 〈法〉被监护人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 标准; 规范; 准则; （劳动）定额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 对话; 对白</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 东拉西扯的，离题的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.精确度，准确（性）; [语]精确</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.[航]陆标; 界标; 里程碑; 纪念碑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 意识; 了解; 觉察</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.劣势; 障碍; 不利因素</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 调查; 研究</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 风景; 乡村风景画（风格）; 形势; 横向打印格式 v.对…做景观美化; 给…做园林美化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.前提; [复数]房屋; [复数][合同、契约用语]上述各点; （逻辑学中的）大[小]前提</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.柜台; 工作台; 对立面; 计数器; 筹码; 反驳 v. 抵制,反驳 adv. 逆向地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.理论的; 推想的，假设的; 空论的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 承担,承诺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 地点; 斑点; 丘疹; 少量 v. 注意到,让步 adj. 立即支付的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit the spot (非正式)be exactly what is required 完全契合要求
+in spots 有时,偶尔 now and then
+on the spot 立刻,不耽误
+in a spot (非正式)in a difficult situation 处境艰难</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.回答者; [法]（特指离婚诉讼的）被告; [生]反应，反射</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.（新政策的）实施</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.偏爱; 优先权; 偏爱的事物; （债权人）受优先偿还的权利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 感觉; 直觉; 知觉; 轰动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 薄的，细的; 精细的; 稀薄的; 贫乏的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.规定，条项，条款; 预备，准备，设备; 供应，（一批）供应品; 生活物质，储备物资
+vt. &amp; vi.为…提供所需物品（尤指食物）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.装饰; 装饰物; [乐]装饰音 v. 装饰,美化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 按重要性排列，划分优先顺序; 优先处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.驾驶员; 引航员; 试验性的方案; 试播节目; 常燃小火 v. 驾驶;引导,试验,顺利通过 adj.试验性的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 进化,演变</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 巨大的; 大而重的; 强烈的; 极好的; (疾病)非常严重的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 巨大的; 极大的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 进入，准许加入; 承认; 入场费; 入院治疗; 坦白</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 漫不经心地，疏忽地; 非故意地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 冒险; 使遭受危险 n.危险; 冒险的事; 机会; 双骰子游戏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 分解; 腐烂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 主要的，占主导地位的; 占优势的，卓越的; 有影响的; 特优种</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.差别; 分别; 卓越; 特殊奖励; 特质; 荣誉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 标定方向; 使…向东方; 以…为参照; 使熟悉或适应
+vi. 转向东方; 使调整或者成为一条直线
+n. 东方,亚洲,亚洲各国</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.信奉，忠诚; 承诺; 已许诺的事; 献身; 投入; 花费</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.典礼，仪式; 礼节，客套</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 减少; 衰落; 下降; 衰退; 婉拒; （单词）变格 n. 下降,减少,衰落</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.一部分; 一份遗产（或赠与的财产）; 嫁妆; 分得的财产 vt. 把…分成份额; 分配; 把…分给(to); 命运注定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 奉献; 把…用于</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 消失; 失踪; 灭绝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 专题讨论会; 研讨班</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 广告（活动），启事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 三倍的，三方的，三部分的 vt&amp;vi 使）增至三倍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.空闲时间; 闲暇; 悠闲; 安逸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 劝说; 使信服</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 社会经济学的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 征兵; 征税 v.征收，索取; 征税，征集</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p23</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>outweigh</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prediction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>practical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>postpone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>basement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>excessive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplementary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>studio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>peer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conformity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>persuasive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>accident</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>convenient</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>section</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stereotype</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mislead</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditorium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>infect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>automatic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>anatomy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>outbreak</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>volcano</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>campus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>registration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eligible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conventional</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>anthropology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>audition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecturer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>motive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>geology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>guidance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>familiar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>circulation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>invasion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>profound</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilemma</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adhere</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>essay</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>regularly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cramp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>problematic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reaction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>olympic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriately</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bibliography</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prior</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>identification</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>row</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>celebrate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>religious</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>behalf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leadership</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>representative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficulty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>degradation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggravate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>format</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpreter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -11780,8 +12858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12908,8 +13986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14083,7 +15161,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14443,7 +15521,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="57">
+    <row r="49" spans="2:4" ht="42.75">
       <c r="B49" t="s">
         <v>1452</v>
       </c>
@@ -14478,10 +15556,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E861"/>
+  <dimension ref="A1:E1047"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A724" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C734" sqref="C734"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17994,10 +19072,10 @@
       </c>
     </row>
     <row r="613" spans="1:3">
-      <c r="B613" t="s">
+      <c r="B613" s="30" t="s">
         <v>1160</v>
       </c>
-      <c r="C613" t="s">
+      <c r="C613" s="33" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -18017,10 +19095,10 @@
       </c>
     </row>
     <row r="617" spans="1:3">
-      <c r="B617" t="s">
+      <c r="B617" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="C617" t="s">
+      <c r="C617" s="33" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -18062,410 +19140,506 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:3">
       <c r="B625" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="626" spans="2:2">
-      <c r="B626" t="s">
+      <c r="C625" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="626" spans="2:3">
+      <c r="B626" s="30" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="627" spans="2:2">
+      <c r="C626" s="33" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="627" spans="2:3">
       <c r="B627" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:3">
       <c r="B628" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:3">
       <c r="B629" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="630" spans="2:2">
-      <c r="B630" t="s">
+    <row r="630" spans="2:3">
+      <c r="B630" s="30" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="631" spans="2:2">
+      <c r="C630" s="33" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="631" spans="2:3">
       <c r="B631" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:3">
       <c r="B632" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:3">
       <c r="B633" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:3">
       <c r="B634" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:3">
       <c r="B635" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:3">
       <c r="B636" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="637" spans="2:2">
-      <c r="B637" t="s">
+    <row r="637" spans="2:3">
+      <c r="B637" s="30" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="638" spans="2:2">
+      <c r="C637" s="33" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="638" spans="2:3">
       <c r="B638" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="639" spans="2:2">
-      <c r="B639" t="s">
+      <c r="C638" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="639" spans="2:3">
+      <c r="B639" s="30" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="640" spans="2:2">
-      <c r="B640" t="s">
+      <c r="C639" s="33" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="640" spans="2:3">
+      <c r="B640" s="33" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="641" spans="2:2">
+      <c r="C640" s="33" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="641" spans="2:3">
       <c r="B641" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="642" spans="2:2">
-      <c r="B642" t="s">
+    <row r="642" spans="2:3">
+      <c r="B642" s="30" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="643" spans="2:2">
+      <c r="C642" s="33" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="643" spans="2:3">
       <c r="B643" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="644" spans="2:2">
+      <c r="C643" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="644" spans="2:3">
       <c r="B644" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="645" spans="2:2">
-      <c r="B645" t="s">
+      <c r="C644" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="645" spans="2:3">
+      <c r="B645" s="30" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="646" spans="2:2">
+      <c r="C645" s="30" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="646" spans="2:3">
       <c r="B646" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:3">
       <c r="B647" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="648" spans="2:2">
-      <c r="B648" t="s">
+    <row r="648" spans="2:3">
+      <c r="B648" s="30" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="649" spans="2:2">
+      <c r="C648" s="30" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="649" spans="2:3">
       <c r="B649" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="650" spans="2:2">
-      <c r="B650" t="s">
+    <row r="650" spans="2:3">
+      <c r="B650" s="30" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="651" spans="2:2">
+      <c r="C650" s="33" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="651" spans="2:3">
       <c r="B651" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="652" spans="2:2">
-      <c r="B652" t="s">
+    <row r="652" spans="2:3">
+      <c r="B652" s="30" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="653" spans="2:2">
+      <c r="C652" s="33" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="653" spans="2:3">
       <c r="B653" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:3">
       <c r="B654" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="655" spans="2:2">
+      <c r="C654" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="655" spans="2:3">
       <c r="B655" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:3">
       <c r="B656" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:3">
       <c r="B657" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="658" spans="1:2">
+      <c r="C657" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
       <c r="B658" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="659" spans="1:2">
+    <row r="659" spans="1:3">
       <c r="B659" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" spans="1:3">
       <c r="B660" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="661" spans="1:2">
+      <c r="C660" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
       <c r="B661" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" spans="1:3">
       <c r="B662" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:3">
       <c r="B663" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:3">
       <c r="B664" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:3">
       <c r="B665" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="1:3">
       <c r="B666" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="667" spans="1:2">
+      <c r="C666" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
       <c r="B667" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="668" spans="1:2">
+    <row r="668" spans="1:3">
       <c r="B668" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="669" spans="1:2">
+      <c r="C668" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
       <c r="B669" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="670" spans="1:2">
+      <c r="C669" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
       <c r="A670" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" spans="1:3">
       <c r="B671" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="672" spans="1:2">
+    <row r="672" spans="1:3">
       <c r="B672" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:3">
       <c r="B673" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:3">
       <c r="B674" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:3">
       <c r="B675" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:3">
       <c r="B676" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:3">
       <c r="B677" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:3">
       <c r="B678" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:3">
       <c r="B679" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:3">
       <c r="B680" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="681" spans="2:2">
+      <c r="C680" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="681" spans="2:3">
       <c r="B681" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:3">
       <c r="B682" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:3">
       <c r="B683" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="684" spans="2:2">
-      <c r="B684" t="s">
+    <row r="684" spans="2:3">
+      <c r="B684" s="30" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="685" spans="2:2">
-      <c r="B685" t="s">
+      <c r="C684" s="33" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="685" spans="2:3">
+      <c r="B685" s="33" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="686" spans="2:2">
-      <c r="B686" t="s">
+      <c r="C685" s="33" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="686" spans="2:3">
+      <c r="B686" s="33" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="687" spans="2:2">
-      <c r="B687" t="s">
+      <c r="C686" s="33" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="687" spans="2:3">
+      <c r="B687" s="33" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="688" spans="2:2">
+      <c r="C687" s="33" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="688" spans="2:3">
       <c r="B688" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:3">
       <c r="B689" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:3">
       <c r="B690" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:3">
       <c r="B691" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:3">
       <c r="B692" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:3">
       <c r="B693" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:3">
       <c r="B694" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:3">
       <c r="B695" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:3">
       <c r="B696" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="697" spans="2:2">
-      <c r="B697" t="s">
+    <row r="697" spans="2:3">
+      <c r="B697" s="30" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="698" spans="2:2">
+      <c r="C697" s="33" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="698" spans="2:3">
       <c r="B698" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:3">
       <c r="B699" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="700" spans="2:2">
-      <c r="B700" t="s">
+    <row r="700" spans="2:3">
+      <c r="B700" s="30" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="701" spans="2:2">
-      <c r="B701" t="s">
+      <c r="C700" s="33" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="701" spans="2:3">
+      <c r="B701" s="33" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="702" spans="2:2">
+      <c r="C701" s="33" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="702" spans="2:3">
       <c r="B702" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="703" spans="2:2">
+      <c r="C702" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="703" spans="2:3">
       <c r="B703" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="704" spans="2:2">
+      <c r="C703" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="704" spans="2:3">
       <c r="B704" t="s">
         <v>1276</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="705" spans="1:3">
       <c r="B705" t="s">
         <v>1277</v>
       </c>
+      <c r="C705" t="s">
+        <v>1549</v>
+      </c>
     </row>
     <row r="706" spans="1:3">
       <c r="B706" t="s">
@@ -18527,7 +19701,7 @@
         <v>1289</v>
       </c>
       <c r="C717" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -18535,7 +19709,7 @@
         <v>1290</v>
       </c>
       <c r="C718" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -18568,7 +19742,7 @@
         <v>1296</v>
       </c>
       <c r="D724" t="s">
-        <v>1547</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="725" spans="2:4">
@@ -18613,7 +19787,7 @@
       <c r="B732" s="30" t="s">
         <v>1304</v>
       </c>
-      <c r="C732" t="s">
+      <c r="C732" s="30" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -18621,7 +19795,7 @@
       <c r="B733" s="30" t="s">
         <v>1305</v>
       </c>
-      <c r="C733" t="s">
+      <c r="C733" s="33" t="s">
         <v>1543</v>
       </c>
       <c r="D733" t="s">
@@ -18671,50 +19845,50 @@
       </c>
     </row>
     <row r="740" spans="2:3">
-      <c r="B740" t="s">
+      <c r="B740" s="30" t="s">
         <v>1312</v>
       </c>
-      <c r="C740" t="s">
+      <c r="C740" s="30" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="741" spans="2:3">
-      <c r="B741" t="s">
+      <c r="B741" s="30" t="s">
         <v>1313</v>
       </c>
-      <c r="C741" t="s">
+      <c r="C741" s="33" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="742" spans="2:3">
-      <c r="B742" t="s">
+      <c r="B742" s="33" t="s">
         <v>1314</v>
       </c>
-      <c r="C742" t="s">
+      <c r="C742" s="33" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="743" spans="2:3">
-      <c r="B743" t="s">
+      <c r="B743" s="33" t="s">
         <v>1315</v>
       </c>
-      <c r="C743" t="s">
+      <c r="C743" s="33" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="744" spans="2:3">
-      <c r="B744" t="s">
+      <c r="B744" s="33" t="s">
         <v>1316</v>
       </c>
-      <c r="C744" t="s">
+      <c r="C744" s="33" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="745" spans="2:3">
-      <c r="B745" t="s">
+      <c r="B745" s="30" t="s">
         <v>1317</v>
       </c>
-      <c r="C745" t="s">
+      <c r="C745" s="33" t="s">
         <v>1533</v>
       </c>
     </row>
@@ -18729,10 +19903,10 @@
       </c>
     </row>
     <row r="748" spans="2:3">
-      <c r="B748" t="s">
+      <c r="B748" s="30" t="s">
         <v>1320</v>
       </c>
-      <c r="C748" t="s">
+      <c r="C748" s="33" t="s">
         <v>1532</v>
       </c>
     </row>
@@ -18742,10 +19916,10 @@
       </c>
     </row>
     <row r="750" spans="2:3">
-      <c r="B750" t="s">
+      <c r="B750" s="30" t="s">
         <v>1322</v>
       </c>
-      <c r="C750" t="s">
+      <c r="C750" s="33" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -18755,18 +19929,18 @@
       </c>
     </row>
     <row r="752" spans="2:3">
-      <c r="B752" t="s">
+      <c r="B752" s="30" t="s">
         <v>1324</v>
       </c>
-      <c r="C752" t="s">
+      <c r="C752" s="33" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="753" spans="1:4">
-      <c r="B753" t="s">
+      <c r="B753" s="33" t="s">
         <v>1325</v>
       </c>
-      <c r="C753" t="s">
+      <c r="C753" s="33" t="s">
         <v>1529</v>
       </c>
     </row>
@@ -18776,10 +19950,10 @@
       </c>
     </row>
     <row r="755" spans="1:4">
-      <c r="B755" t="s">
+      <c r="B755" s="30" t="s">
         <v>1327</v>
       </c>
-      <c r="C755" t="s">
+      <c r="C755" s="33" t="s">
         <v>1527</v>
       </c>
       <c r="D755" t="s">
@@ -18812,10 +19986,10 @@
       </c>
     </row>
     <row r="761" spans="1:4">
-      <c r="B761" t="s">
+      <c r="B761" s="30" t="s">
         <v>1333</v>
       </c>
-      <c r="C761" t="s">
+      <c r="C761" s="33" t="s">
         <v>1526</v>
       </c>
     </row>
@@ -18830,10 +20004,10 @@
       </c>
     </row>
     <row r="764" spans="1:4">
-      <c r="B764" t="s">
+      <c r="B764" s="30" t="s">
         <v>1336</v>
       </c>
-      <c r="C764" t="s">
+      <c r="C764" s="33" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -18843,18 +20017,18 @@
       </c>
     </row>
     <row r="766" spans="1:4">
-      <c r="B766" t="s">
+      <c r="B766" s="30" t="s">
         <v>1338</v>
       </c>
-      <c r="C766" t="s">
+      <c r="C766" s="33" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="767" spans="1:4">
-      <c r="B767" t="s">
+      <c r="B767" s="33" t="s">
         <v>1339</v>
       </c>
-      <c r="C767" t="s">
+      <c r="C767" s="33" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -18875,10 +20049,10 @@
       </c>
     </row>
     <row r="770" spans="2:4">
-      <c r="B770" t="s">
+      <c r="B770" s="30" t="s">
         <v>1342</v>
       </c>
-      <c r="C770" t="s">
+      <c r="C770" s="33" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -18898,18 +20072,18 @@
       </c>
     </row>
     <row r="774" spans="2:4">
-      <c r="B774" t="s">
+      <c r="B774" s="30" t="s">
         <v>1346</v>
       </c>
-      <c r="C774" t="s">
+      <c r="C774" s="33" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="775" spans="2:4">
-      <c r="B775" t="s">
+      <c r="B775" s="33" t="s">
         <v>1347</v>
       </c>
-      <c r="C775" t="s">
+      <c r="C775" s="33" t="s">
         <v>1517</v>
       </c>
       <c r="D775" t="s">
@@ -18917,26 +20091,26 @@
       </c>
     </row>
     <row r="776" spans="2:4">
-      <c r="B776" t="s">
+      <c r="B776" s="33" t="s">
         <v>1348</v>
       </c>
-      <c r="C776" t="s">
+      <c r="C776" s="33" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="777" spans="2:4">
-      <c r="B777" t="s">
+      <c r="B777" s="33" t="s">
         <v>1349</v>
       </c>
-      <c r="C777" t="s">
+      <c r="C777" s="33" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="778" spans="2:4">
-      <c r="B778" t="s">
+      <c r="B778" s="33" t="s">
         <v>1350</v>
       </c>
-      <c r="C778" t="s">
+      <c r="C778" s="33" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -18959,42 +20133,42 @@
       </c>
     </row>
     <row r="782" spans="2:4">
-      <c r="B782" t="s">
+      <c r="B782" s="30" t="s">
         <v>1354</v>
       </c>
-      <c r="C782" t="s">
+      <c r="C782" s="33" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="783" spans="2:4">
-      <c r="B783" t="s">
+      <c r="B783" s="33" t="s">
         <v>1355</v>
       </c>
-      <c r="C783" t="s">
+      <c r="C783" s="33" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="784" spans="2:4">
-      <c r="B784" t="s">
+      <c r="B784" s="33" t="s">
         <v>1356</v>
       </c>
-      <c r="C784" t="s">
+      <c r="C784" s="33" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="785" spans="2:3">
-      <c r="B785" t="s">
+      <c r="B785" s="33" t="s">
         <v>1357</v>
       </c>
-      <c r="C785" t="s">
+      <c r="C785" s="33" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="786" spans="2:3">
-      <c r="B786" t="s">
+      <c r="B786" s="33" t="s">
         <v>1358</v>
       </c>
-      <c r="C786" t="s">
+      <c r="C786" s="33" t="s">
         <v>1508</v>
       </c>
     </row>
@@ -19009,34 +20183,34 @@
       </c>
     </row>
     <row r="789" spans="2:3">
-      <c r="B789" t="s">
+      <c r="B789" s="30" t="s">
         <v>1361</v>
       </c>
-      <c r="C789" t="s">
+      <c r="C789" s="33" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="790" spans="2:3">
-      <c r="B790" t="s">
+      <c r="B790" s="33" t="s">
         <v>1362</v>
       </c>
-      <c r="C790" t="s">
+      <c r="C790" s="33" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="791" spans="2:3">
-      <c r="B791" t="s">
+      <c r="B791" s="33" t="s">
         <v>1363</v>
       </c>
-      <c r="C791" t="s">
+      <c r="C791" s="33" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="792" spans="2:3">
-      <c r="B792" t="s">
+      <c r="B792" s="33" t="s">
         <v>1364</v>
       </c>
-      <c r="C792" t="s">
+      <c r="C792" s="33" t="s">
         <v>1504</v>
       </c>
     </row>
@@ -19056,50 +20230,50 @@
       </c>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" t="s">
+      <c r="B796" s="30" t="s">
         <v>1368</v>
       </c>
-      <c r="C796" t="s">
+      <c r="C796" s="33" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="797" spans="2:3">
-      <c r="B797" t="s">
+      <c r="B797" s="33" t="s">
         <v>1369</v>
       </c>
-      <c r="C797" t="s">
+      <c r="C797" s="33" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="798" spans="2:3">
-      <c r="B798" t="s">
+      <c r="B798" s="33" t="s">
         <v>1370</v>
       </c>
-      <c r="C798" t="s">
+      <c r="C798" s="33" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="799" spans="2:3">
-      <c r="B799" t="s">
+      <c r="B799" s="33" t="s">
         <v>1371</v>
       </c>
-      <c r="C799" t="s">
+      <c r="C799" s="33" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="800" spans="2:3">
-      <c r="B800" t="s">
+      <c r="B800" s="33" t="s">
         <v>1372</v>
       </c>
-      <c r="C800" t="s">
+      <c r="C800" s="33" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="801" spans="1:3">
-      <c r="B801" t="s">
+      <c r="B801" s="33" t="s">
         <v>1373</v>
       </c>
-      <c r="C801" t="s">
+      <c r="C801" s="33" t="s">
         <v>1498</v>
       </c>
     </row>
@@ -19119,10 +20293,10 @@
       </c>
     </row>
     <row r="805" spans="1:3">
-      <c r="B805" t="s">
+      <c r="B805" s="30" t="s">
         <v>1377</v>
       </c>
-      <c r="C805" t="s">
+      <c r="C805" s="33" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -19142,10 +20316,10 @@
       </c>
     </row>
     <row r="809" spans="1:3" ht="28.5">
-      <c r="B809" t="s">
+      <c r="B809" s="30" t="s">
         <v>1381</v>
       </c>
-      <c r="C809" s="2" t="s">
+      <c r="C809" s="36" t="s">
         <v>1496</v>
       </c>
     </row>
@@ -19170,18 +20344,18 @@
       </c>
     </row>
     <row r="814" spans="1:3" ht="28.5">
-      <c r="B814" t="s">
+      <c r="B814" s="30" t="s">
         <v>1386</v>
       </c>
-      <c r="C814" s="2" t="s">
+      <c r="C814" s="36" t="s">
         <v>1495</v>
       </c>
     </row>
     <row r="815" spans="1:3">
-      <c r="B815" t="s">
+      <c r="B815" s="30" t="s">
         <v>1415</v>
       </c>
-      <c r="C815" t="s">
+      <c r="C815" s="33" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -19191,10 +20365,10 @@
       </c>
     </row>
     <row r="817" spans="2:3">
-      <c r="B817" t="s">
+      <c r="B817" s="30" t="s">
         <v>1389</v>
       </c>
-      <c r="C817" t="s">
+      <c r="C817" s="33" t="s">
         <v>1493</v>
       </c>
     </row>
@@ -19204,10 +20378,10 @@
       </c>
     </row>
     <row r="819" spans="2:3" ht="28.5">
-      <c r="B819" t="s">
+      <c r="B819" s="30" t="s">
         <v>1391</v>
       </c>
-      <c r="C819" s="2" t="s">
+      <c r="C819" s="36" t="s">
         <v>1492</v>
       </c>
     </row>
@@ -19222,18 +20396,18 @@
       </c>
     </row>
     <row r="822" spans="2:3">
-      <c r="B822" t="s">
+      <c r="B822" s="30" t="s">
         <v>1394</v>
       </c>
-      <c r="C822" t="s">
+      <c r="C822" s="33" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="823" spans="2:3">
-      <c r="B823" t="s">
+      <c r="B823" s="30" t="s">
         <v>1395</v>
       </c>
-      <c r="C823" t="s">
+      <c r="C823" s="33" t="s">
         <v>1490</v>
       </c>
     </row>
@@ -19243,10 +20417,10 @@
       </c>
     </row>
     <row r="825" spans="2:3">
-      <c r="B825" t="s">
+      <c r="B825" s="30" t="s">
         <v>1397</v>
       </c>
-      <c r="C825" t="s">
+      <c r="C825" s="33" t="s">
         <v>1489</v>
       </c>
     </row>
@@ -19256,10 +20430,10 @@
       </c>
     </row>
     <row r="827" spans="2:3">
-      <c r="B827" t="s">
+      <c r="B827" s="30" t="s">
         <v>1399</v>
       </c>
-      <c r="C827" t="s">
+      <c r="C827" s="33" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -19269,18 +20443,18 @@
       </c>
     </row>
     <row r="829" spans="2:3">
-      <c r="B829" t="s">
+      <c r="B829" s="30" t="s">
         <v>1401</v>
       </c>
-      <c r="C829" t="s">
+      <c r="C829" s="33" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="830" spans="2:3">
-      <c r="B830" t="s">
+      <c r="B830" s="33" t="s">
         <v>1402</v>
       </c>
-      <c r="C830" t="s">
+      <c r="C830" s="33" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19290,10 +20464,10 @@
       </c>
     </row>
     <row r="832" spans="2:3">
-      <c r="B832" t="s">
+      <c r="B832" s="30" t="s">
         <v>1404</v>
       </c>
-      <c r="C832" t="s">
+      <c r="C832" s="33" t="s">
         <v>1479</v>
       </c>
     </row>
@@ -19316,10 +20490,10 @@
       </c>
     </row>
     <row r="836" spans="2:4">
-      <c r="B836" t="s">
+      <c r="B836" s="30" t="s">
         <v>1408</v>
       </c>
-      <c r="C836" t="s">
+      <c r="C836" s="33" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -19329,42 +20503,42 @@
       </c>
     </row>
     <row r="838" spans="2:4">
-      <c r="B838" t="s">
+      <c r="B838" s="30" t="s">
         <v>1410</v>
       </c>
-      <c r="C838" t="s">
+      <c r="C838" s="30" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="839" spans="2:4">
-      <c r="B839" t="s">
+      <c r="B839" s="30" t="s">
         <v>1411</v>
       </c>
-      <c r="C839" t="s">
+      <c r="C839" s="30" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="840" spans="2:4">
-      <c r="B840" t="s">
+      <c r="B840" s="30" t="s">
         <v>1412</v>
       </c>
-      <c r="C840" t="s">
+      <c r="C840" s="30" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="841" spans="2:4">
-      <c r="B841" t="s">
+      <c r="B841" s="30" t="s">
         <v>1413</v>
       </c>
-      <c r="C841" t="s">
+      <c r="C841" s="30" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="842" spans="2:4">
-      <c r="B842" t="s">
+      <c r="B842" s="30" t="s">
         <v>1414</v>
       </c>
-      <c r="C842" t="s">
+      <c r="C842" s="30" t="s">
         <v>1471</v>
       </c>
       <c r="D842" t="s">
@@ -19372,146 +20546,1226 @@
       </c>
     </row>
     <row r="843" spans="2:4">
-      <c r="B843" t="s">
+      <c r="B843" s="30" t="s">
         <v>1415</v>
       </c>
-      <c r="C843" t="s">
+      <c r="C843" s="30" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="844" spans="2:4" ht="28.5">
-      <c r="B844" t="s">
+      <c r="B844" s="30" t="s">
         <v>1416</v>
       </c>
-      <c r="C844" s="2" t="s">
+      <c r="C844" s="36" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="845" spans="2:4" ht="28.5">
-      <c r="B845" t="s">
+      <c r="B845" s="30" t="s">
         <v>1417</v>
       </c>
-      <c r="C845" s="2" t="s">
+      <c r="C845" s="36" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="846" spans="2:4">
-      <c r="B846" t="s">
+      <c r="B846" s="30" t="s">
         <v>1418</v>
       </c>
-      <c r="C846" t="s">
+      <c r="C846" s="30" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="847" spans="2:4" ht="28.5">
-      <c r="B847" t="s">
+      <c r="B847" s="30" t="s">
         <v>1419</v>
       </c>
-      <c r="C847" s="2" t="s">
+      <c r="C847" s="36" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="848" spans="2:4">
-      <c r="B848" t="s">
+      <c r="B848" s="30" t="s">
         <v>1420</v>
       </c>
-      <c r="C848" t="s">
+      <c r="C848" s="30" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="849" spans="2:4">
-      <c r="B849" t="s">
+    <row r="849" spans="1:4">
+      <c r="B849" s="30" t="s">
         <v>1421</v>
       </c>
-      <c r="C849" t="s">
+      <c r="C849" s="30" t="s">
         <v>1463</v>
       </c>
       <c r="D849" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="850" spans="2:4">
-      <c r="B850" t="s">
+    <row r="850" spans="1:4">
+      <c r="B850" s="30" t="s">
         <v>1422</v>
       </c>
-      <c r="C850" t="s">
+      <c r="C850" s="30" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="851" spans="2:4">
-      <c r="B851" t="s">
+    <row r="851" spans="1:4">
+      <c r="B851" s="30" t="s">
         <v>1423</v>
       </c>
-      <c r="C851" t="s">
+      <c r="C851" s="30" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="852" spans="2:4">
-      <c r="B852" t="s">
+    <row r="852" spans="1:4">
+      <c r="B852" s="30" t="s">
         <v>1424</v>
       </c>
-      <c r="C852" t="s">
+      <c r="C852" s="30" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="853" spans="2:4" ht="71.25">
-      <c r="B853" t="s">
+    <row r="853" spans="1:4" ht="71.25">
+      <c r="B853" s="30" t="s">
         <v>1294</v>
       </c>
-      <c r="C853" s="2" t="s">
+      <c r="C853" s="36" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="854" spans="2:4">
-      <c r="B854" t="s">
+    <row r="854" spans="1:4">
+      <c r="B854" s="30" t="s">
         <v>1425</v>
       </c>
-      <c r="C854" t="s">
+      <c r="C854" s="30" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="855" spans="2:4">
+    <row r="855" spans="1:4">
       <c r="B855" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="856" spans="2:4">
-      <c r="B856" t="s">
+    <row r="856" spans="1:4">
+      <c r="B856" s="30" t="s">
         <v>1427</v>
       </c>
-      <c r="C856" t="s">
+      <c r="C856" s="30" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="857" spans="2:4">
+    <row r="857" spans="1:4">
       <c r="B857" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="858" spans="2:4">
-      <c r="B858" t="s">
+    <row r="858" spans="1:4">
+      <c r="B858" s="30" t="s">
         <v>1429</v>
       </c>
-      <c r="C858" t="s">
+      <c r="C858" s="30" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="859" spans="2:4">
+    <row r="859" spans="1:4">
       <c r="B859" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="860" spans="2:4">
+    <row r="860" spans="1:4">
       <c r="B860" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="861" spans="2:4">
+      <c r="D860" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4">
       <c r="B861" t="s">
         <v>1432</v>
       </c>
-      <c r="D861" t="s">
-        <v>1433</v>
+    </row>
+    <row r="862" spans="1:4">
+      <c r="A862" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4">
+      <c r="B863" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4">
+      <c r="B864" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="865" spans="2:3">
+      <c r="B865" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="866" spans="2:3">
+      <c r="B866" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="867" spans="2:3">
+      <c r="B867" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="868" spans="2:3">
+      <c r="B868" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="869" spans="2:3">
+      <c r="B869" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="870" spans="2:3">
+      <c r="B870" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="871" spans="2:3">
+      <c r="B871" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="872" spans="2:3">
+      <c r="B872" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="873" spans="2:3">
+      <c r="B873" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="874" spans="2:3">
+      <c r="B874" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="875" spans="2:3">
+      <c r="B875" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="876" spans="2:3">
+      <c r="B876" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="877" spans="2:3">
+      <c r="B877" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="878" spans="2:3">
+      <c r="B878" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="879" spans="2:3">
+      <c r="B879" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="880" spans="2:3">
+      <c r="B880" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="881" spans="2:4">
+      <c r="B881" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="882" spans="2:4">
+      <c r="B882" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="883" spans="2:4">
+      <c r="B883" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="884" spans="2:4">
+      <c r="B884" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="885" spans="2:4">
+      <c r="B885" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="886" spans="2:4">
+      <c r="B886" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="887" spans="2:4">
+      <c r="B887" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="888" spans="2:4">
+      <c r="B888" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="889" spans="2:4">
+      <c r="B889" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="890" spans="2:4">
+      <c r="B890" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="891" spans="2:4">
+      <c r="B891" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="892" spans="2:4">
+      <c r="B892" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="893" spans="2:4">
+      <c r="B893" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="894" spans="2:4">
+      <c r="B894" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="895" spans="2:4">
+      <c r="B895" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="896" spans="2:4" ht="85.5">
+      <c r="B896" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3">
+      <c r="B897" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="B898" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="B899" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3">
+      <c r="B900" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3">
+      <c r="B901" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="B902" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="B903" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="B904" s="30" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C904" s="30" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" ht="28.5">
+      <c r="B905" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C905" s="2" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="A906" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3">
+      <c r="B907" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3">
+      <c r="B908" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="B909" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3">
+      <c r="B910" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3">
+      <c r="B911" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3">
+      <c r="B912" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="913" spans="2:3">
+      <c r="B913" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="914" spans="2:3">
+      <c r="B914" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="915" spans="2:3">
+      <c r="B915" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="916" spans="2:3">
+      <c r="B916" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="917" spans="2:3">
+      <c r="B917" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="918" spans="2:3">
+      <c r="B918" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="919" spans="2:3">
+      <c r="B919" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="920" spans="2:3">
+      <c r="B920" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="921" spans="2:3">
+      <c r="B921" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="922" spans="2:3">
+      <c r="B922" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="923" spans="2:3">
+      <c r="B923" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="924" spans="2:3">
+      <c r="B924" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="925" spans="2:3" ht="42.75">
+      <c r="B925" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C925" s="2" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="926" spans="2:3">
+      <c r="B926" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="927" spans="2:3">
+      <c r="B927" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="928" spans="2:3">
+      <c r="B928" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="929" spans="2:3">
+      <c r="B929" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="930" spans="2:3">
+      <c r="B930" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="931" spans="2:3">
+      <c r="B931" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="932" spans="2:3">
+      <c r="B932" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="933" spans="2:3">
+      <c r="B933" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C933" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="934" spans="2:3">
+      <c r="B934" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="935" spans="2:3">
+      <c r="B935" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="936" spans="2:3">
+      <c r="B936" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="937" spans="2:3">
+      <c r="B937" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="938" spans="2:3">
+      <c r="B938" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="939" spans="2:3">
+      <c r="B939" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="940" spans="2:3">
+      <c r="B940" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="941" spans="2:3">
+      <c r="B941" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="942" spans="2:3">
+      <c r="B942" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="943" spans="2:3">
+      <c r="B943" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="944" spans="2:3">
+      <c r="B944" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
+      <c r="B945" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c r="B946" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C946" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c r="B947" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C947" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="B948" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="B949" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="B950" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="B951" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="B953" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="B954" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="B955" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="B956" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="B957" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="B958" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="B959" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="B960" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="961" spans="2:2">
+      <c r="B961" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="962" spans="2:2">
+      <c r="B962" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="963" spans="2:2">
+      <c r="B963" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="964" spans="2:2">
+      <c r="B964" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="965" spans="2:2">
+      <c r="B965" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="966" spans="2:2">
+      <c r="B966" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="967" spans="2:2">
+      <c r="B967" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="968" spans="2:2">
+      <c r="B968" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="969" spans="2:2">
+      <c r="B969" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="970" spans="2:2">
+      <c r="B970" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="971" spans="2:2">
+      <c r="B971" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="972" spans="2:2">
+      <c r="B972" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="973" spans="2:2">
+      <c r="B973" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="974" spans="2:2">
+      <c r="B974" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="975" spans="2:2">
+      <c r="B975" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="976" spans="2:2">
+      <c r="B976" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="977" spans="2:2">
+      <c r="B977" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="978" spans="2:2">
+      <c r="B978" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="979" spans="2:2">
+      <c r="B979" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="980" spans="2:2">
+      <c r="B980" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="981" spans="2:2">
+      <c r="B981" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="982" spans="2:2">
+      <c r="B982" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="983" spans="2:2">
+      <c r="B983" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="984" spans="2:2">
+      <c r="B984" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="985" spans="2:2">
+      <c r="B985" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="986" spans="2:2">
+      <c r="B986" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="987" spans="2:2">
+      <c r="B987" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="988" spans="2:2">
+      <c r="B988" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="989" spans="2:2">
+      <c r="B989" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="990" spans="2:2">
+      <c r="B990" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="991" spans="2:2">
+      <c r="B991" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="992" spans="2:2">
+      <c r="B992" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="B993" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="B994" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="B995" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="B996" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="B998" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="B999" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="B1000" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="B1001" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="B1002" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="B1003" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="B1004" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="B1005" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="B1006" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="B1007" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="B1008" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:2">
+      <c r="B1009" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:2">
+      <c r="B1010" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:2">
+      <c r="B1011" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:2">
+      <c r="B1012" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:2">
+      <c r="B1013" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:2">
+      <c r="B1014" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:2">
+      <c r="B1015" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:2">
+      <c r="B1016" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:2">
+      <c r="B1017" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:2">
+      <c r="B1018" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:2">
+      <c r="B1019" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:2">
+      <c r="B1020" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:2">
+      <c r="B1021" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:2">
+      <c r="B1022" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:2">
+      <c r="B1023" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:2">
+      <c r="B1024" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:2">
+      <c r="B1025" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:2">
+      <c r="B1026" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:2">
+      <c r="B1027" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:2">
+      <c r="B1028" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:2">
+      <c r="B1029" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:2">
+      <c r="B1030" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:2">
+      <c r="B1031" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:2">
+      <c r="B1032" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:2">
+      <c r="B1033" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:2">
+      <c r="B1034" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:2">
+      <c r="B1035" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:2">
+      <c r="B1036" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:2">
+      <c r="B1037" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:2">
+      <c r="B1038" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:2">
+      <c r="B1039" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:2">
+      <c r="B1040" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:2">
+      <c r="B1041" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:2">
+      <c r="B1042" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:2">
+      <c r="B1043" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:2">
+      <c r="B1044" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:2">
+      <c r="B1045" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:2">
+      <c r="B1046" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:2">
+      <c r="B1047" t="s">
+        <v>1817</v>
       </c>
     </row>
   </sheetData>
@@ -19525,8 +21779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1821">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -12195,6 +12195,18 @@
   </si>
   <si>
     <t>log</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>57/50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21/15</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -21777,10 +21789,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21916,7 +21928,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3">
-        <v>45326</v>
+        <v>45342</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>14</v>
@@ -21934,16 +21946,16 @@
         <v>18</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>19</v>
+        <v>1820</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>93</v>
+        <v>1818</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>17</v>
+        <v>1819</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>162</v>
@@ -21951,7 +21963,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3">
-        <v>45327</v>
+        <v>45343</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>14</v>
@@ -21986,7 +21998,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3">
-        <v>45328</v>
+        <v>45344</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>14</v>
@@ -22021,7 +22033,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3">
-        <v>45329</v>
+        <v>45345</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>14</v>
@@ -22056,7 +22068,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3">
-        <v>45330</v>
+        <v>45346</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>14</v>
@@ -22091,7 +22103,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3">
-        <v>45331</v>
+        <v>45347</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>14</v>
@@ -22126,7 +22138,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3">
-        <v>45332</v>
+        <v>45348</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>14</v>
@@ -22161,7 +22173,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3">
-        <v>45333</v>
+        <v>45349</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>14</v>
@@ -22196,7 +22208,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3">
-        <v>45334</v>
+        <v>45350</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
@@ -22231,7 +22243,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
-        <v>45335</v>
+        <v>45351</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>14</v>
@@ -22266,7 +22278,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
-        <v>45336</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>14</v>
@@ -22301,7 +22313,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
-        <v>45337</v>
+        <v>45353</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>14</v>
@@ -22336,7 +22348,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
-        <v>45338</v>
+        <v>45354</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>14</v>
@@ -22371,7 +22383,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
-        <v>45339</v>
+        <v>45355</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>14</v>
@@ -22406,7 +22418,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
-        <v>45340</v>
+        <v>45356</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>14</v>
@@ -22441,7 +22453,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
-        <v>45341</v>
+        <v>45357</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>14</v>
@@ -22476,7 +22488,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
-        <v>45342</v>
+        <v>45358</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>14</v>
@@ -22511,7 +22523,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3">
-        <v>45343</v>
+        <v>45359</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>14</v>
@@ -22546,7 +22558,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
-        <v>45344</v>
+        <v>45360</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>14</v>
@@ -22581,7 +22593,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
-        <v>45345</v>
+        <v>45361</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>14</v>
@@ -22616,7 +22628,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3">
-        <v>45346</v>
+        <v>45362</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>14</v>
@@ -22651,7 +22663,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3">
-        <v>45347</v>
+        <v>45363</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>14</v>
@@ -22686,7 +22698,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3">
-        <v>45348</v>
+        <v>45364</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>14</v>
@@ -22721,7 +22733,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3">
-        <v>45349</v>
+        <v>45365</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>14</v>
@@ -22756,7 +22768,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3">
-        <v>45350</v>
+        <v>45366</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>14</v>
@@ -22791,7 +22803,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3">
-        <v>45351</v>
+        <v>45367</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>14</v>
@@ -22826,7 +22838,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3">
-        <v>45352</v>
+        <v>45368</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>14</v>
@@ -22861,7 +22873,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3">
-        <v>45353</v>
+        <v>45369</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>14</v>
@@ -22896,7 +22908,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3">
-        <v>45354</v>
+        <v>45370</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>14</v>
@@ -22931,7 +22943,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3">
-        <v>45355</v>
+        <v>45371</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>14</v>
@@ -22966,7 +22978,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3">
-        <v>45356</v>
+        <v>45372</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>14</v>
@@ -23001,7 +23013,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3">
-        <v>45357</v>
+        <v>45373</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>14</v>
@@ -23036,7 +23048,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3">
-        <v>45358</v>
+        <v>45374</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>14</v>
@@ -23071,7 +23083,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="3">
-        <v>45359</v>
+        <v>45375</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>14</v>
@@ -23106,7 +23118,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3">
-        <v>45360</v>
+        <v>45376</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>14</v>
@@ -23141,7 +23153,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="3">
-        <v>45361</v>
+        <v>45377</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>14</v>
@@ -23176,7 +23188,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="3">
-        <v>45362</v>
+        <v>45378</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>14</v>
@@ -23211,7 +23223,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="3">
-        <v>45363</v>
+        <v>45379</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>14</v>
@@ -23246,7 +23258,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="3">
-        <v>45364</v>
+        <v>45380</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>14</v>
@@ -23281,7 +23293,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="3">
-        <v>45365</v>
+        <v>45381</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>14</v>
@@ -23316,7 +23328,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>14</v>
@@ -23346,566 +23358,6 @@
         <v>17</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="3">
-        <v>45367</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="3">
-        <v>45368</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="3">
-        <v>45369</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="3">
-        <v>45370</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="3">
-        <v>45371</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="3">
-        <v>45372</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="3">
-        <v>45373</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="3">
-        <v>45374</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3">
-        <v>45375</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="3">
-        <v>45376</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="3">
-        <v>45377</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="3">
-        <v>45378</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="3">
-        <v>45379</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="3">
-        <v>45380</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="3">
-        <v>45381</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="3">
-        <v>45382</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61" s="23" t="s">
         <v>162</v>
       </c>
     </row>

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WFD" sheetId="1" r:id="rId1"/>
     <sheet name="WFD 生词本" sheetId="3" r:id="rId2"/>
-    <sheet name="分组记忆单词" sheetId="5" r:id="rId3"/>
-    <sheet name="高阶单词本1k" sheetId="4" r:id="rId4"/>
-    <sheet name="打卡" sheetId="2" r:id="rId5"/>
+    <sheet name="完全陌生的单词" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="分组记忆单词" sheetId="5" r:id="rId5"/>
+    <sheet name="高阶单词本1k" sheetId="4" r:id="rId6"/>
+    <sheet name="打卡" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">高阶单词本1k!$B$1:$B$1257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">高阶单词本1k!$B$1:$B$1257</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="2214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="2300">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -13823,6 +13825,411 @@
   </si>
   <si>
     <t>n. 哺乳动物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>demography</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 人口统计学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 合作,协助,配合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jargon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 术语,黑话
+technical/business ~ 技术术语,行业黑话</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>slang n. 俚语,黑话
+meme n. 文化基因,梗</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天文地理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>marine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshwater</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>off-road</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 淡水的 n. 内河,淡水湖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquatic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 水生的,水产的,水上的
+~ sports 水上运动
+~ plants</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 海洋的; 海产的; 海军的; 海船的
+n. 海军陆战队士兵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.（车辆设计等）越野的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cliff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. (尤指海边的)悬崖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境化学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydrogen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 氢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oxygen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.氧</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 碳,复写纸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>disposable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 一次性的,可任意处理的; 用后就抛弃的; 免洗的; 可供使用的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>parliament</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>congress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 议会；国会；英国议会（包括下议院和上议院）；一届议会的会期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>republic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>military</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 代表大会; 国会，议会</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 国家的主权; 君权，最高统治权; 独立自主; 主权国家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sovereignty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 参议员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>senator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 共和国; 共和政体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 军队的，军事的
+n. 军人，军队，武装力量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbohydrate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 碳水化合物,糖类,淀粉质食物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuroscience</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 神经科学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>midday</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 中午,正午
+adj. 正午的
+~ meal 午餐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dioxide</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 二氧化物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyewash</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[n] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">空话；假话；口惠
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洗眼水；洗眼器；眼药水</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraordinary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacume</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 真空；真空状态；空虚；空白
+[adj] 真空的；用以产生真空的；利用真空的
+[v] 用真空吸尘器清扫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>autonomy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 自治；自主；自主权；自治权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bacteria</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 细菌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>representative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 代表；销售代表；销售代理；代销人
+[adj] 典型的；有代表性的；代表各类人（或事物）的；可作为典型（或示例）的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nitrogen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 氮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consensus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 一致的意见；共识</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emirate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 酋长国；酋长职位；酋长的统治</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>the United Arab Emirates</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平洋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>北冰洋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>南极洲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地中海</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>atlantic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pacific</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediterrain sea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极大的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的,平凡的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞凡的,卓越的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 极小的；极少的；最小的
+[n] 最简单派艺术作品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamics</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 动力学</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -13830,7 +14237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13936,6 +14343,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -14078,7 +14498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14190,6 +14610,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14211,10 +14637,7 @@
     <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14510,7 +14933,7 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15637,8 +16060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16809,10 +17232,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34.5">
+      <c r="A1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57">
+      <c r="A2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17005,7 +17492,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="38" t="s">
         <v>1760</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -17013,7 +17500,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="38" t="s">
         <v>1793</v>
       </c>
       <c r="C24" t="s">
@@ -17021,431 +17508,750 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="34"/>
+      <c r="B25" s="38" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2215</v>
+      </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>343</v>
+      <c r="B26" s="38" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2256</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" t="s">
-        <v>1883</v>
+      <c r="B27" s="38" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2299</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" t="s">
-        <v>344</v>
-      </c>
+      <c r="B28" s="34"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="42.75">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1822</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="42.75">
       <c r="B33" t="s">
-        <v>348</v>
+        <v>1821</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>350</v>
-      </c>
-      <c r="C35" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>362</v>
-      </c>
-      <c r="C39" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>617</v>
-      </c>
-      <c r="C40" t="s">
-        <v>616</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>620</v>
+        <v>360</v>
       </c>
       <c r="C41" t="s">
-        <v>622</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>621</v>
+        <v>362</v>
       </c>
       <c r="C42" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="57">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1480</v>
+        <v>617</v>
+      </c>
+      <c r="C43" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>1396</v>
+        <v>620</v>
       </c>
       <c r="C44" t="s">
-        <v>1481</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
+        <v>621</v>
+      </c>
+      <c r="C45" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="57">
+      <c r="B46" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
         <v>1819</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
         <v>1482</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="28.5">
-      <c r="B47" t="s">
+    <row r="50" spans="1:3" ht="28.5">
+      <c r="B50" t="s">
         <v>1823</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="42.75">
-      <c r="B48" t="s">
+    <row r="51" spans="1:3" ht="42.75">
+      <c r="B51" t="s">
         <v>1824</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>1434</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>1439</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>1440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="B53" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="C54" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C55" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="C56" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="99.75">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="B57" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>1843</v>
+        <v>1832</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="C58" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="C59" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="57">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="99.75">
       <c r="B60" t="s">
-        <v>1869</v>
+        <v>1835</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1870</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
-        <v>1435</v>
+        <v>1836</v>
       </c>
       <c r="C61" t="s">
-        <v>1436</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
-        <v>1445</v>
+        <v>1845</v>
       </c>
       <c r="C62" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="57">
       <c r="B63" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1438</v>
+        <v>1869</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="C64" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C65" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="B66" t="s">
-        <v>1446</v>
+        <v>1146</v>
       </c>
       <c r="C66" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="42.75">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="B67" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="C67" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="C68" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="42.75">
+      <c r="B70" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" t="s">
         <v>1827</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>1828</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="B70" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" t="s">
-        <v>1851</v>
+        <v>1453</v>
       </c>
       <c r="C73" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="57">
-      <c r="B74" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="42.75">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>1848</v>
+      </c>
       <c r="B75" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>1876</v>
+        <v>1849</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="B76" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="C76" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="28.5">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="57">
       <c r="B77" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>1880</v>
+        <v>1853</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="42.75">
       <c r="B78" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="28.5">
+      <c r="B80" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="42.75">
+      <c r="B81" t="s">
         <v>1879</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+    <row r="82" spans="1:4">
+      <c r="B82" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="42.75">
+      <c r="B83" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="71.25">
+      <c r="B84" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>2133</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B86" t="s">
         <v>2134</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>2135</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
-      <c r="B81" t="s">
+    <row r="87" spans="1:4">
+      <c r="B87" t="s">
         <v>2136</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C87" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
+    <row r="88" spans="1:4">
+      <c r="B88" t="s">
         <v>2034</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C88" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
-      <c r="B83" t="s">
+    <row r="89" spans="1:4">
+      <c r="B89" t="s">
         <v>2139</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C89" t="s">
         <v>2140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="28.5">
+      <c r="B95" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="28.5">
+      <c r="B96" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="42.75">
+      <c r="A98" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="42.75">
+      <c r="B99" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="42.75">
+      <c r="B103" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="B104" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="C107" s="2" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="C108" s="2" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="B114" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="42.75">
+      <c r="B115" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="B122" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="C123" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="C124" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="28.5">
+      <c r="B125" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="B126" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2293</v>
       </c>
     </row>
   </sheetData>
@@ -17455,13 +18261,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A1223" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1256" sqref="B1256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20948,7 +21754,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="593" spans="2:3">
+    <row r="593" spans="2:3" ht="28.5">
       <c r="B593" s="30" t="s">
         <v>1135</v>
       </c>
@@ -22927,7 +23733,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="85.5" hidden="1">
+    <row r="897" spans="1:4" ht="57" hidden="1">
       <c r="B897" t="s">
         <v>1612</v>
       </c>
@@ -23116,7 +23922,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="924" spans="2:3" ht="28.5">
+    <row r="924" spans="2:3">
       <c r="B924" s="34" t="s">
         <v>1639</v>
       </c>
@@ -23378,7 +24184,7 @@
       <c r="B963" s="34" t="s">
         <v>1728</v>
       </c>
-      <c r="C963" s="44" t="s">
+      <c r="C963" s="37" t="s">
         <v>1866</v>
       </c>
     </row>
@@ -23465,7 +24271,7 @@
       <c r="B978" t="s">
         <v>1743</v>
       </c>
-      <c r="C978" s="44" t="s">
+      <c r="C978" s="37" t="s">
         <v>1865</v>
       </c>
     </row>
@@ -23708,7 +24514,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="1019" spans="2:3" ht="57">
+    <row r="1019" spans="2:3" ht="42.75">
       <c r="B1019" s="34" t="s">
         <v>1784</v>
       </c>
@@ -24369,7 +25175,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="1136" spans="2:3" ht="42.75">
+    <row r="1136" spans="2:3" ht="28.5">
       <c r="B1136" s="30" t="s">
         <v>1984</v>
       </c>
@@ -24585,7 +25391,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="1174" spans="2:4" ht="42.75">
+    <row r="1174" spans="2:4" ht="28.5">
       <c r="B1174" s="30" t="s">
         <v>2044</v>
       </c>
@@ -24839,7 +25645,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="1216" spans="1:4" ht="42.75">
+    <row r="1216" spans="1:4" ht="28.5">
       <c r="B1216" s="30" t="s">
         <v>2087</v>
       </c>
@@ -25081,7 +25887,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="1256" spans="2:4" ht="71.25">
+    <row r="1256" spans="2:4" ht="42.75">
       <c r="B1256" s="30" t="s">
         <v>2126</v>
       </c>
@@ -25109,7 +25915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -25127,21 +25933,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="43"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10" t="s">

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WFD" sheetId="1" r:id="rId1"/>
     <sheet name="WFD 生词本" sheetId="3" r:id="rId2"/>
     <sheet name="完全陌生的单词" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
-    <sheet name="分组记忆单词" sheetId="5" r:id="rId5"/>
-    <sheet name="高阶单词本1k" sheetId="4" r:id="rId6"/>
-    <sheet name="打卡" sheetId="2" r:id="rId7"/>
+    <sheet name="分组记忆单词" sheetId="5" r:id="rId4"/>
+    <sheet name="高阶单词本1k" sheetId="4" r:id="rId5"/>
+    <sheet name="打卡" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">高阶单词本1k!$B$1:$B$1257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">高阶单词本1k!$B$1:$B$1257</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="2300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="2346">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -13941,10 +13940,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>parliament</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>congress</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -14188,14 +14183,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>mediterrain sea</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>最小值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -14231,6 +14218,208 @@
   <si>
     <t>n. 动力学</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥地利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mediterrain sea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euroupe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活场景</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>drill</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 钻孔；训练；练习；条播
+[n] 演习；电钻；练习；条播作物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] (人/车)流；溪；小河；（液）流;一连串,接二连三
+[v] 流；流动；流出；飘扬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 守旧派；保守主义者；保守的人；守旧的人
+[adj] 保守的；守旧的；因循守旧的；(式样等) 保守的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eradicate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 根除</t>
+  </si>
+  <si>
+    <t>bigotry</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 顽固盲从；偏执</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 佣金；回扣；犯罪；（通常为政府管控或调查某事的）委员会
+[v] 正式委托（谱写、制作、创作或完成）；任命…为军官</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>extracurricular</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 学校课程以外的; 课外</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>weed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 杂草; 水草; 烟草
+v. 给…除杂草</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 蒸汽；水蒸气；水汽；蒸汽动力
+[v] 蒸发；散发蒸汽；冒水汽；蒸（食物）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>basin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 盆地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>watershed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 流域</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>catchment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.流域；集水；排水；贮水池</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 量子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>药店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>phamercy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lounge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 休息室；酒吧；闲逛；躺椅
+[v] 闲逛；懒洋洋地靠[躺]；吊儿郎当地混日子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 最大限度；最大量；最高限度
+[adj] 最高的；最多的；最大极限的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>committee</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 委员会</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>anaesthesia</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 麻醉；麻木；感觉缺失</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>numb adj. 麻木的; 迟钝的 v. 使麻木</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>brackish</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 咸的；太咸的</t>
   </si>
 </sst>
 </file>
@@ -14616,6 +14805,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14636,9 +14828,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17232,10 +17421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17245,34 +17434,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34.5">
       <c r="A1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>2261</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="57">
+    </row>
+    <row r="2" spans="1:2" ht="42.75">
       <c r="A2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2266</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B3" t="s">
         <v>2276</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B4" t="s">
         <v>2278</v>
       </c>
-      <c r="B4" t="s">
-        <v>2279</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2314</v>
       </c>
     </row>
   </sheetData>
@@ -17283,33 +17480,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" ht="28.5">
       <c r="A1" t="s">
         <v>1433</v>
       </c>
@@ -17319,24 +17504,45 @@
       <c r="C1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75">
       <c r="B2" t="s">
         <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42.75">
       <c r="B3" t="s">
         <v>1476</v>
       </c>
       <c r="C3" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" t="s">
+        <v>2335</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>333</v>
       </c>
@@ -17344,7 +17550,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>566</v>
       </c>
@@ -17352,906 +17558,1053 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
         <v>409</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
         <v>411</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
         <v>335</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
         <v>862</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
         <v>337</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
         <v>339</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
         <v>358</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>357</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
         <v>355</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
         <v>341</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
         <v>364</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C16" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>568</v>
+        <v>367</v>
       </c>
       <c r="C18" t="s">
-        <v>569</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>1018</v>
+        <v>568</v>
       </c>
       <c r="C19" t="s">
-        <v>1019</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>1383</v>
+        <v>1018</v>
       </c>
       <c r="C20" t="s">
-        <v>1490</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>1132</v>
+        <v>1383</v>
       </c>
       <c r="C21" t="s">
-        <v>1172</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>1855</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>1856</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="38" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="38" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1894</v>
+        <v>1760</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="38" t="s">
-        <v>2214</v>
+        <v>1793</v>
       </c>
       <c r="C25" t="s">
-        <v>2215</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="38" t="s">
-        <v>2255</v>
+        <v>2214</v>
       </c>
       <c r="C26" t="s">
-        <v>2256</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="38" t="s">
-        <v>2298</v>
+        <v>2254</v>
       </c>
       <c r="C27" t="s">
-        <v>2299</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="34"/>
+      <c r="B28" s="38" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2296</v>
+      </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" t="s">
-        <v>343</v>
-      </c>
+      <c r="B29" s="34"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>1883</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>344</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="42.75">
-      <c r="B33" t="s">
+    <row r="34" spans="2:3" ht="42.75">
+      <c r="B34" t="s">
         <v>1821</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>1822</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>350</v>
-      </c>
-      <c r="C38" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+      <c r="C39" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>617</v>
+        <v>362</v>
       </c>
       <c r="C43" t="s">
-        <v>616</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C44" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
+        <v>620</v>
+      </c>
+      <c r="C45" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
         <v>621</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="57">
-      <c r="B46" t="s">
+    <row r="47" spans="2:3" ht="57">
+      <c r="B47" t="s">
         <v>1397</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>1480</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>1819</v>
+        <v>1396</v>
       </c>
       <c r="C48" t="s">
-        <v>1820</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
         <v>1482</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.5">
-      <c r="B50" t="s">
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.5">
+      <c r="B52" t="s">
         <v>1823</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="42.75">
-      <c r="B51" t="s">
+    <row r="53" spans="1:3" ht="42.75">
+      <c r="B53" t="s">
         <v>1824</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>1434</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>1439</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>1440</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C56" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="C57" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C58" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="C59" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="99.75">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="B60" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>1843</v>
+        <v>1833</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="99.75">
+      <c r="B62" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
         <v>1836</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>1844</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="57">
-      <c r="B63" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" t="s">
-        <v>1435</v>
+        <v>1845</v>
       </c>
       <c r="C64" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="57">
       <c r="B65" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1437</v>
+        <v>1869</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="B66" t="s">
-        <v>1146</v>
+        <v>1435</v>
       </c>
       <c r="C66" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="B67" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="C67" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" t="s">
-        <v>1443</v>
+        <v>1146</v>
       </c>
       <c r="C68" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="C69" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="42.75">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="C70" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="B71" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="C71" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="B72" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="42.75">
+      <c r="B73" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" t="s">
         <v>1827</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>1828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="B73" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="B76" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" t="s">
         <v>1851</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C80" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="57">
-      <c r="B77" t="s">
+    <row r="81" spans="1:4" ht="57">
+      <c r="B81" t="s">
         <v>1853</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="42.75">
-      <c r="B78" t="s">
+    <row r="82" spans="1:4" ht="42.75">
+      <c r="B82" t="s">
         <v>1873</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="B79" t="s">
+    <row r="83" spans="1:4">
+      <c r="B83" t="s">
         <v>1874</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C83" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="28.5">
-      <c r="B80" t="s">
+    <row r="84" spans="1:4" ht="28.5">
+      <c r="B84" t="s">
         <v>1877</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C84" t="s">
         <v>1878</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="42.75">
-      <c r="B81" t="s">
+    <row r="85" spans="1:4" ht="42.75">
+      <c r="B85" t="s">
         <v>1879</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="B82" t="s">
+    <row r="86" spans="1:4">
+      <c r="B86" t="s">
         <v>2216</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="42.75">
-      <c r="B83" t="s">
+    <row r="87" spans="1:4" ht="42.75">
+      <c r="B87" t="s">
         <v>2218</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>2219</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="71.25">
-      <c r="B84" t="s">
+    <row r="88" spans="1:4" ht="71.25">
+      <c r="B88" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>2272</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>2273</v>
-      </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>2133</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B90" t="s">
         <v>2134</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C90" t="s">
         <v>2135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="B87" t="s">
-        <v>2136</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="B88" t="s">
-        <v>2034</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="B89" t="s">
-        <v>2139</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="B90" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="B91" t="s">
-        <v>2248</v>
+        <v>2136</v>
       </c>
       <c r="C91" t="s">
-        <v>2247</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="B92" t="s">
-        <v>2242</v>
+        <v>2034</v>
       </c>
       <c r="C92" t="s">
-        <v>2246</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="B93" t="s">
-        <v>2250</v>
+        <v>2139</v>
       </c>
       <c r="C93" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="71.25">
+      <c r="B94" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" t="s">
+        <v>834</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
         <v>2249</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="B94" t="s">
-        <v>2244</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="28.5">
-      <c r="B95" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="28.5">
-      <c r="B96" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="42.75">
-      <c r="A98" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2222</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="42.75">
-      <c r="B99" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>2227</v>
+      <c r="C99" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="B100" t="s">
-        <v>2223</v>
+        <v>2243</v>
       </c>
       <c r="C100" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.5">
       <c r="B101" t="s">
-        <v>2224</v>
+        <v>2244</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2229</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="B102" t="s">
-        <v>2230</v>
+        <v>2315</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="42.75">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="57">
       <c r="B103" t="s">
-        <v>2257</v>
+        <v>2311</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.5">
       <c r="B104" t="s">
-        <v>2281</v>
+        <v>2267</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="B105" t="s">
-        <v>2287</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="42.75">
+      <c r="A106" t="s">
+        <v>2221</v>
+      </c>
       <c r="B106" t="s">
-        <v>2288</v>
+        <v>2222</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="42.75">
+      <c r="B107" t="s">
+        <v>2226</v>
+      </c>
       <c r="C107" s="2" t="s">
-        <v>2284</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="C108" s="2" t="s">
-        <v>2285</v>
+      <c r="B108" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2225</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="42.75">
+      <c r="B110" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="42.75">
+      <c r="B116" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="C120" s="2" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="C121" s="2" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="28.5">
+      <c r="B127" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="B130" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="B131" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="42.75">
+      <c r="B132" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="B133" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="B135" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="B136" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="57">
+      <c r="B140" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="C141" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="28.5">
+      <c r="B142" t="s">
         <v>2289</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="B113" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="B114" t="s">
-        <v>2234</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="42.75">
-      <c r="B115" t="s">
-        <v>2239</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="B116" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="B117" t="s">
-        <v>2259</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="B118" t="s">
-        <v>2270</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="B119" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>2263</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2264</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="B122" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="C123" t="s">
+      <c r="C142" s="2" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="B143" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C143" t="s">
         <v>2290</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="C124" t="s">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="28.5">
-      <c r="B125" t="s">
-        <v>2292</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="B126" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C126" t="s">
-        <v>2293</v>
       </c>
     </row>
   </sheetData>
@@ -18261,7 +18614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D1257"/>
@@ -25915,7 +26268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -25933,21 +26286,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="45"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10" t="s">

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WFD" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="高阶单词本1k" sheetId="4" r:id="rId5"/>
     <sheet name="练习打卡" sheetId="2" r:id="rId6"/>
     <sheet name="FIB_RW阅读" sheetId="8" r:id="rId7"/>
-    <sheet name="高阶单词背诵" sheetId="7" r:id="rId8"/>
+    <sheet name="FIB_R阅读" sheetId="9" r:id="rId8"/>
+    <sheet name="高阶单词背诵" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">高阶单词本1k!$B$1:$B$1257</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="2759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="3007">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -14878,9 +14879,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[v] 取代</t>
-  </si>
-  <si>
     <t>supersede</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -14946,11 +14944,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[adj] 光滑的；光亮的；线条流畅的；造型优美的
-[v] 使（头发等）发油光；使平整光亮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>sleek</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -14969,14 +14962,6 @@
   <si>
     <t>clot</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 泥团；(血等的)凝块；(人,动物等的)聚集；〈侮辱〉笨蛋
-[v] (使)群集；(使)凝结；(使)结块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[v] 阻碍；阻止</t>
   </si>
   <si>
     <t>impede</t>
@@ -15048,18 +15033,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[adj] 细心的；小心翼翼的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>meticulous</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[v] 使全神贯注；占去（某人的）全部注意力和时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>engross</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -15072,15 +15049,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[adj] 平和美丽的；完美无瑕的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>idyllic</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] （剧院或旅馆的）门厅；（私宅或公寓的）前厅</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -15606,142 +15575,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>监督</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>增生</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>严密</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼吸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇敢</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>词汇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>指手画脚的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文盲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>同情</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法匹敌的，没有对手的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>聪明的，精巧的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>昏暗的，暗淡的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻佻，肤浅的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母表顺序的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚊子</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业家</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装修，清理装修</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>降级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵制</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>民间故事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼容的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆地的，地球上的，两栖的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛痘</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>特别的，特定的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>摔跤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>引出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不长进，停滞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>contra</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -15907,15 +15740,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>deride</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[v] 构成…的基础；作为…的原因</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentious</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -15928,15 +15753,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>uncanny</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[n] 冷漠；淡漠,不关心</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apathy</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -15961,10 +15778,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>sabotage</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[n] 叙述；讲故事；叙事技巧 adj. 叙述的,故事体的,善于叙述的</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -15974,10 +15787,6 @@
   </si>
   <si>
     <t>n. 金发女郎 adj. 金黄色的,头发金黄的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>striate</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -15990,10 +15799,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>abstemious</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[adj] 饮食有度的；有节制的
 a ~ life 简朴的生活</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -16016,19 +15821,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>exploitative</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>exploitation n. 开发,利用,剥削</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>[v] 支吾搪塞；闪烁其词；吞吞吐吐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prevaricate</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -16131,6 +15928,1858 @@
 abruptly 突然地,唐突地 radically 根本地,彻底地,激进地 disruptive adj. 引起混乱的,破坏性的
 nexus 练习 hinge 枢纽
 simultaneously 同时地 hypocritically 虚假地 spontaneously 自然地 condescendingly 居高临下地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平稳的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>球体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>白蚁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前任</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>马车</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 光滑的；光亮的；线条流畅的；造型优美的
+[v] 使（头发等）发油光；使平整光亮 
+~ black hair 乌黑油亮的头发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 泥团；(血等的)凝块；(人,动物等的)聚集；〈侮辱〉笨蛋
+[v] (使)群集；(使)凝结；(使)结块
+a blood ~ in brain 大脑中的血块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 细心的；小心翼翼的
+He's too ~. 谨小慎微,一丝不苟 ~ clean 一尘不染</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 使全神贯注；占去（某人的）全部注意力和时间
+~ oneself in sth 全神贯注某事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 平和美丽的；完美无瑕的 ；田园牧歌般的
+an ~ life in countryside 乡下诗情画意的生活</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] （剧院或旅馆的）门厅；（私宅或公寓的）前厅，休息室</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>transparent adj. 透明的,易懂的,易识破的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 住宿,住处,和解</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>allergy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[n] 变态反应；过敏反应 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>allergic adj. 过敏的,反感的,厌恶的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer n. 整数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 综合的；可以并合的；可以结合的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 惊吓；使厌恶；恐吓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>horrify</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>horrible adj.讨厌的; 令人震惊的; 极严重的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>concern n. 担心; 令人担心的事; 关心（的事）; 分内之事; 公司
+v. 影响,涉及,担忧,对…感兴趣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare v. 准备</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 通风；通风装置；发泄；(问题的)公开讨论</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronological</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 按发生时间顺序排列的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronology n. 年代学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 技术的；技能的；工艺的；专门技术的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 促使；驱策；迫使</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>impel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 区分；区别；辨别；表明…间的差别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>differentiate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>difference/different</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather-beaten</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] （因风吹日晒）粗糙的 n.破旧的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 起源；发源；创立；发端于</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>originate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin n.起源</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgeon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 外科医生 neurosurgeon 神经外科医生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 氮；氮气</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nitrogen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>agrarian party 农业政党 peasant 农民,庄稼人 peasantry 农民(统称)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm up 变暖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughout 自始至终 through 通过 enact 颁布</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>inadvertently 无意地 stingily 吝啬地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reassuring 让人安心 heralding 预示 concluding 总结</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>abundance 丰富 equivalence 对应物 acquaintance 相识
+illusionary 错觉的 visionary 远见的 exterritorial 治外法权的 picturesque 风景如画的
+expedition 远征,探险 emporium 商业中心</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribute 致敬 retribution 惩罚 turbulence 动乱 vessel 轮船,容器 shuttle 来往于两地的航班/火车/班车
+ditched 摆脱 settled 定居 detoured 绕行 inadvertently 无意地 inherent 固有的 intractable 棘手的
+improvisational 即性的 compositional 组合的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lead in 引领 raise up 提升 set off 出发 go on 发生,进行 gloss 注释,掩盖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>heralded 预示 innovated 创新 dissemination 传播,散播 democratizing 大众化的 leapfrogging 跳跃,提升 sweeping 扫
+separate from 区别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>in part 部分地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>build on 以…为基础 roundabout 环岛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stir 搅动 provoke 激起</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniature bulb 迷你灯泡 engagement 参与度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>film sets 电影布置/场景 cinema 电影院</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>make decision 做决定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction and collaboration 互动和合作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>have your say 说出你的想法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>episode 插曲,情节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb is incompetent 不胜任,无能的 sth is ignored 被忽视</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestige 声望 symptoms 症状</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The program must be conducted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(in abidance)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>conduct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>within a an the abidence and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>general regulations</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>regulation</t>
+    </r>
+  </si>
+  <si>
+    <t>abidance 遵守</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The research results will</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>would</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>be shared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(with the)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>internal and external</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(stakeholders)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The ability to act on your own is called</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(autonomy)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the atonamy</t>
+    </r>
+  </si>
+  <si>
+    <t>autonomy 自治 anatomy 解剖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(theme)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>fame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of the course is to encourage students to develop their creativity</t>
+    </r>
+  </si>
+  <si>
+    <t>theme</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The car accident</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>happend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>happened on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Saturday)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Saturaday Satuday Satorday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>outside the school gate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Social media has grown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(enormously)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>enormeously</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in recent years</t>
+    </r>
+  </si>
+  <si>
+    <t>enormously 巨量地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(An)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>adviser can help</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>manufacturer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>manufacturers</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>manufacture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>to ensure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(that)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>their product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(are)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>safe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(eventual)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>eventural</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>winners will be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(the graduates)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>who adapt</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>to adapot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>best</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The company was established</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in London by two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(former colleagues)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>formal colleages collages colleges</t>
+    </r>
+  </si>
+  <si>
+    <t>colleagues 同事 college 大学,专科大学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>41/50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增生的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反，违背</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细，缜密</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空余</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱指手画脚的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文盲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同情</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光滑的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无可匹敌的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏暗的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前厅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外的，补充的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻佻，轻浮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母顺序的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合约，对手</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修，革新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>降级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>民间故事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆生的，地球上的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛痘</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑，思量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>摔跤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是…基础</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金发的，金发女郎</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可开发利用的，剥削的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸润，浸湿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>过敏的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通风</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时间顺序的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制，驱使</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使…不同</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱经风霜的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>起源</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>氮气</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外科医生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 取代</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 阻碍；阻止
+nothing can ~ his progress. 没有什么能够阻挡他的进步</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 环境宜人的；清洁而有益健康的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] （传唤证人出庭的）传票 v. 以传票传唤证人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 半透明的；微微透明的；有光泽的；透光的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dull</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 减轻；（使）变麻木；使迟钝；使不活泼
+[adj] 枯燥无味的；沉闷的；无聊的；不明亮的
+life is ~ and boring.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>boorish</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 粗鲁讨厌的；粗野的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 崭新的；清新的；未开发的；处于原始状态的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pristine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 嘲笑；表示轻蔑的言行
+[v] 无视（法律等）to ~ the law 藐视法律</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>intimate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 知己；密友；至交
+[v] 暗示；透露；（间接）表示
+[adj] 亲密的；密切的；个人隐私的（常指性方面的）；宜于密切关系的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 四方院子（四周有建筑，常见于校园）四合院</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>revive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 复活；重新使用；使重做；重新上演</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>replenish</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 补充；重新装满</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 短暂的；瞬息的
+[n] 生命短暂的事物；短生植物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 合并；融合；混合；联合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 东拉西扯的；离题的；不着边际的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 多面性；多才多艺；易变性；反复无常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 可锻造的；可轧压的；易成型的；可塑的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 耻辱；羞耻；（花的）柱头,污名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 礼堂；观众席；会堂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 传令官的；纹章官的；纹章学的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>discern</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 识别；觉察出；了解；听出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 准备好的状态；愿意</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 咸的；太咸的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 策略；战术</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>craft</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 工艺；船；手艺；飞行器
+bamboo ~ 竹子工艺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hubcap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] （轮）毂盖,车轮盖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 关节；发音；（思想感情的）表达；说话</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 长久的；持续的；反复出现的；多年生的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy n. 战略,策略</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 查明；弄清</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 华而不实的；浮夸的；不切实际的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 大使馆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>embassy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 黑猩猩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 不和谐；不协和和弦；不协调；不一致</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 装饰；点缀</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 加强；增强；巩固</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strengthen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 真空；真空状态；空虚；空白 adj. 真空的,用以产生真空的,利用真空的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 双方的；双边的；（身体部位）双侧的；（大脑）两半球的
+n. 双边会议</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilateral</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 偏离；分歧；分叉；岔开</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>diverge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 小偷；贼；窃贼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>thief</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 发生率；发生范围；影响程度；入射（角）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>incidence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 先前的；较早的；在前的；优先的
+[n] （小隐修院）院长；（隐修院）会长
+[adv] 居先</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prior</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] (使)内向爆炸；(使)压破；【语言学】用内破裂音发(音)；虚幻缥渺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>implode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 吹拂；（随风）飘荡；使飘荡
+[n] 一阵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 超过；胜过；优于</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>surpass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 〈正式〉讨厌的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 建议；法律顾问；律师
+[v] 提供专业咨询；建议</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>counsel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>counsellor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 顾问,律师,夏令营负责人辅导</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 凿；敲（某人）的竹杠；诈骗钱财；漫天要价
+[n] 凿子；凿成的槽（或孔、洞）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gouge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contradiction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 矛盾；反驳；驳斥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 修女
+[adj] 宗教信仰的；宗教的；笃信宗教的；虔诚的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>religious</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 舒适；礼仪；快事；优雅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>platinum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 铂；白金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 不妥协</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>intransigence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 郊外；外边</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>outskirt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 范例；〈正式〉模型；〈正式〉模范；【语】词形变化表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 不情愿的；勉强的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reluctant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 不理智的；无道理的；无法控制的；病态的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathological</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 节俭；俭朴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaflet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 传单；散页印刷品；（宣传或广告）小册子 v. 发传单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 丰腴的；微胖的；松软的；丰满的
+[adv] 噗通地；蓦地；直接了当地
+[n] 队；沉重的坠落；〈英〉阵雨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>plump</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>probability</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 概率；可能性；几率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 仔细检查；认真彻底的审查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 弯曲；漫谈；曲曲折折的路；闲聊
+[v] 蜿蜒而行；迂回曲折；漫步；闲逛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 核；核心；细胞核；原子核</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nucleus</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 不守规章的；不服从指挥的；桀骜不驯的；难以控制的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 稀奇古怪的；异国风味的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlandish</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 单调乏味的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>quadrangle [ˈkwɑdræ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gl]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ephemeral [ɪˈfɛmərəl]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>amalgamate [əˈmælɡəˌmet]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatility  [ˌvɜsə'tɪlətɪ]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>malleable [ˈmæliəbl]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stigma [ˈstɪɡmə]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>auditorium [ˌɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dɪˈtɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>riəm]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>heraldic [həˈrældɪk]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparedness  [prɪˈperdnəs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>brackish [ˈbrækɪʃ]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ventilation [ˌvɛntəˈleɪʃən]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>articulation [ɑrˌtɪkjuˈleɪʃn]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>perennial [pəˈreniəl]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascertain  [ˌæsərˈteɪn]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandiose  [ˈgrændioʊs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>chimpanzee  [ˌtʃɪmpænˈzi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissonance [ˈdɪsənəns]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ornamentation  [ˌɔrnəmenˈteɪʃn]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>premium [ˈpri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miəm]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 保险费；额外费用；奖金；津贴
+[adj] 优质的；昂贵的；价格更高的 Amazon ~ 亚马逊优选</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>waft [wɑft]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>repugnant [rɪˈpʌɡnənt]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>amenity [əˈmenəti]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm [ˈpærədaɪm]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>frugality [fruˈɡælətɪ]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>scrutiny  [ˈskru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>təni]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>meander  [miˈændər]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>recalcitrant  [rɪˈkælsɪtrənt]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>monotonous [məˈnɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tənəs]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sabotage [ˈsæbəˌtɑʒ]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apathy  [ˈæpəθi]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncanny  [ʌnˈkæni]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentious [kənˈtɛnʃəs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>deride [dɪˈraɪd]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>striate [ˈstraɪˌet]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstemious [əbˈsti:miəs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exploitative  [ɪkˈsplɔɪtətɪv]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevaricate [prɪˈværɪˌket]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>salubrious [səˈlubriəs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>subpoena  [səˈpinə]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>translucent [trænzˈlu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>snt]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>flout  [flaʊt]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -16138,7 +17787,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16263,6 +17912,21 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -16418,7 +18082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16560,6 +18224,12 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16581,14 +18251,23 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16880,10 +18559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17997,6 +19676,120 @@
       </c>
       <c r="G89" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.25">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.25">
+      <c r="A91">
+        <v>45</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17.25">
+      <c r="A92">
+        <v>683</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.25">
+      <c r="A93">
+        <v>556</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.25">
+      <c r="A94">
+        <v>550</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17.25">
+      <c r="A95">
+        <v>469</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17.25">
+      <c r="A96">
+        <v>450</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17.25">
+      <c r="A97">
+        <v>418</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17.25">
+      <c r="A98">
+        <v>225</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2802</v>
       </c>
     </row>
   </sheetData>
@@ -19175,38 +20968,38 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="9" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="9" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="9" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="9" t="s">
-        <v>2518</v>
+        <v>2510</v>
       </c>
       <c r="C86" t="s">
-        <v>2519</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="9" t="s">
-        <v>2562</v>
+        <v>2554</v>
       </c>
       <c r="C87" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="9" t="s">
-        <v>2564</v>
+        <v>2556</v>
       </c>
     </row>
   </sheetData>
@@ -19751,10 +21544,10 @@
         <v>687</v>
       </c>
       <c r="C1" t="s">
-        <v>2536</v>
+        <v>2528</v>
       </c>
       <c r="D1" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -19765,7 +21558,7 @@
         <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>2540</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -19795,7 +21588,7 @@
         <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -19822,7 +21615,7 @@
         <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19838,15 +21631,15 @@
         <v>887</v>
       </c>
       <c r="C10" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C11" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -19857,7 +21650,7 @@
         <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>2541</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19884,7 +21677,7 @@
         <v>564</v>
       </c>
       <c r="D15" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -19895,7 +21688,7 @@
         <v>1013</v>
       </c>
       <c r="D16" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -19922,7 +21715,7 @@
         <v>2248</v>
       </c>
       <c r="D19" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -19941,7 +21734,7 @@
         <v>353</v>
       </c>
       <c r="D21" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -19952,7 +21745,7 @@
         <v>331</v>
       </c>
       <c r="D22" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -19971,7 +21764,7 @@
         <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -19982,7 +21775,7 @@
         <v>337</v>
       </c>
       <c r="D25" t="s">
-        <v>2545</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -19993,7 +21786,7 @@
         <v>1166</v>
       </c>
       <c r="D26" t="s">
-        <v>2549</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -20004,29 +21797,29 @@
         <v>1875</v>
       </c>
       <c r="D27" t="s">
-        <v>2548</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="32" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="C28" t="s">
-        <v>2521</v>
+        <v>2513</v>
       </c>
       <c r="D28" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="32" t="s">
-        <v>2535</v>
+        <v>2527</v>
       </c>
       <c r="C29" t="s">
-        <v>2534</v>
+        <v>2526</v>
       </c>
       <c r="D29" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -20037,18 +21830,18 @@
         <v>339</v>
       </c>
       <c r="D30" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>2677</v>
+        <v>2635</v>
       </c>
       <c r="C31" t="s">
-        <v>2678</v>
+        <v>2636</v>
       </c>
       <c r="D31" t="s">
-        <v>2679</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -20074,7 +21867,7 @@
         <v>344</v>
       </c>
       <c r="C37" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="42.75">
@@ -20229,7 +22022,7 @@
     </row>
     <row r="60" spans="1:3" ht="27.75">
       <c r="A60" s="41" t="s">
-        <v>2617</v>
+        <v>2609</v>
       </c>
       <c r="B60" t="s">
         <v>1432</v>
@@ -20360,10 +22153,10 @@
     </row>
     <row r="76" spans="2:4" ht="28.5">
       <c r="B76" t="s">
-        <v>2615</v>
+        <v>2607</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>2616</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -20662,10 +22455,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -20673,7 +22466,7 @@
         <v>452</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>2567</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42.75">
@@ -20859,18 +22652,18 @@
     </row>
     <row r="139" spans="1:3">
       <c r="B139" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="B140" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -20945,10 +22738,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="B150" t="s">
-        <v>2751</v>
+        <v>2700</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2752</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="27.75">
@@ -21039,7 +22832,7 @@
         <v>2342</v>
       </c>
       <c r="C164" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -21047,7 +22840,7 @@
         <v>2341</v>
       </c>
       <c r="C165" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -21055,149 +22848,149 @@
         <v>2345</v>
       </c>
       <c r="C166" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="B167" t="s">
-        <v>2624</v>
+        <v>2616</v>
       </c>
       <c r="C167" t="s">
-        <v>2623</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="27.75">
       <c r="A169" s="41" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
       <c r="B169" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="C169" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="B170" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="C170" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="B171" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="C171" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="B172" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="C172" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="B173" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="C173" t="s">
-        <v>2528</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="B174" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="C174" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="B175" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="C175" t="s">
-        <v>2530</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="B176" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="C176" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="27.75">
       <c r="A177" s="41" t="s">
-        <v>2688</v>
+        <v>2646</v>
       </c>
       <c r="B177" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="C177" t="s">
-        <v>2532</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="B178" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
       <c r="C178" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="B179" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="27.75">
       <c r="A180" s="41" t="s">
-        <v>2689</v>
+        <v>2647</v>
       </c>
       <c r="B180" t="s">
-        <v>2690</v>
+        <v>2648</v>
       </c>
       <c r="C180" t="s">
-        <v>2699</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" t="s">
-        <v>2691</v>
+        <v>2649</v>
       </c>
       <c r="C181" t="s">
-        <v>2698</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="B182" t="s">
-        <v>2692</v>
+        <v>2650</v>
       </c>
       <c r="C182" t="s">
-        <v>2697</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="B183" t="s">
-        <v>2693</v>
+        <v>2651</v>
       </c>
       <c r="C183" t="s">
-        <v>2696</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="B184" t="s">
-        <v>2694</v>
+        <v>2652</v>
       </c>
       <c r="C184" t="s">
-        <v>2695</v>
+        <v>2653</v>
       </c>
     </row>
   </sheetData>
@@ -21212,8 +23005,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D1257"/>
   <sheetViews>
-    <sheetView topLeftCell="A312" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView topLeftCell="A385" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C446" sqref="C446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28863,10 +30656,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28879,21 +30672,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10" t="s">
@@ -28962,7 +30755,7 @@
         <v>92</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -28997,7 +30790,7 @@
         <v>163</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -29032,7 +30825,7 @@
         <v>1808</v>
       </c>
       <c r="K5" s="44" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -29067,7 +30860,7 @@
         <v>1811</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -29093,16 +30886,16 @@
         <v>19</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>2569</v>
+        <v>2561</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -29128,7 +30921,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>19</v>
+        <v>2708</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>93</v>
@@ -29137,47 +30930,47 @@
         <v>17</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>2740</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3">
+      <c r="A9" s="42">
         <v>45357</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="14" t="s">
+      <c r="G9" s="43" t="s">
+        <v>2788</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>2774</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>2803</v>
+      </c>
+      <c r="J9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>2570</v>
+      <c r="K9" s="44" t="s">
+        <v>2689</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3">
-        <v>45358</v>
+        <v>45364</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>14</v>
@@ -29207,12 +31000,12 @@
         <v>17</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3">
-        <v>45359</v>
+        <v>45365</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>14</v>
@@ -29242,12 +31035,12 @@
         <v>17</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3">
-        <v>45360</v>
+        <v>45366</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
@@ -29277,12 +31070,12 @@
         <v>17</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3">
-        <v>45361</v>
+        <v>45367</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>14</v>
@@ -29312,12 +31105,12 @@
         <v>17</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>14</v>
@@ -29347,12 +31140,12 @@
         <v>17</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3">
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>14</v>
@@ -29382,12 +31175,12 @@
         <v>17</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
-        <v>45364</v>
+        <v>45370</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>14</v>
@@ -29417,12 +31210,12 @@
         <v>17</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
-        <v>45365</v>
+        <v>45371</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>14</v>
@@ -29452,12 +31245,12 @@
         <v>17</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
-        <v>45366</v>
+        <v>45372</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>14</v>
@@ -29487,12 +31280,12 @@
         <v>17</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
-        <v>45367</v>
+        <v>45373</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>14</v>
@@ -29522,12 +31315,12 @@
         <v>17</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
-        <v>45368</v>
+        <v>45374</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>14</v>
@@ -29557,12 +31350,12 @@
         <v>17</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>14</v>
@@ -29592,12 +31385,12 @@
         <v>17</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3">
-        <v>45370</v>
+        <v>45376</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>14</v>
@@ -29627,12 +31420,12 @@
         <v>17</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
-        <v>45371</v>
+        <v>45377</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>14</v>
@@ -29662,12 +31455,12 @@
         <v>17</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
-        <v>45372</v>
+        <v>45378</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>14</v>
@@ -29697,12 +31490,12 @@
         <v>17</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3">
-        <v>45373</v>
+        <v>45379</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>14</v>
@@ -29732,12 +31525,12 @@
         <v>17</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3">
-        <v>45374</v>
+        <v>45380</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>14</v>
@@ -29767,12 +31560,12 @@
         <v>17</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3">
-        <v>45375</v>
+        <v>45381</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>14</v>
@@ -29802,12 +31595,12 @@
         <v>17</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>14</v>
@@ -29837,217 +31630,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3">
-        <v>45377</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3">
-        <v>45378</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="3">
-        <v>45379</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="3">
-        <v>45380</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="3">
-        <v>45381</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="3">
-        <v>45382</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
     </row>
   </sheetData>
@@ -30064,10 +31647,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30082,7 +31665,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>98</v>
@@ -30094,7 +31677,7 @@
     <row r="2" spans="1:4">
       <c r="D2" s="19">
         <f>AVERAGE(D3:D220)</f>
-        <v>0.68333333333333346</v>
+        <v>0.65742296918767518</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="42.75">
@@ -30102,7 +31685,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2571</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75">
@@ -30110,12 +31693,12 @@
         <v>70</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>2572</v>
+        <v>2564</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2577</v>
-      </c>
-      <c r="D4" s="56">
+        <v>2569</v>
+      </c>
+      <c r="D4" s="48">
         <f>2/4</f>
         <v>0.5</v>
       </c>
@@ -30125,10 +31708,10 @@
         <v>258</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="D5" s="19">
         <f>3/4</f>
@@ -30140,10 +31723,10 @@
         <v>251</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>2575</v>
+        <v>2567</v>
       </c>
       <c r="D6" s="19">
         <f>4/4</f>
@@ -30155,10 +31738,10 @@
         <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2578</v>
+        <v>2570</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="D7" s="19">
         <f>4/5</f>
@@ -30170,7 +31753,7 @@
         <v>232</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.75">
@@ -30178,12 +31761,12 @@
         <v>203</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D9" s="56">
+        <v>2573</v>
+      </c>
+      <c r="D9" s="48">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
@@ -30193,10 +31776,10 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="D10" s="19">
         <f>4/5</f>
@@ -30208,12 +31791,12 @@
         <v>186</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="47">
         <f>0/3</f>
         <v>0</v>
       </c>
@@ -30223,10 +31806,10 @@
         <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="D12" s="19">
         <v>0.75</v>
@@ -30237,10 +31820,10 @@
         <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="D13" s="19">
         <v>0.8</v>
@@ -30251,12 +31834,12 @@
         <v>168</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D14" s="56">
+        <v>2581</v>
+      </c>
+      <c r="D14" s="48">
         <f>2/5</f>
         <v>0.4</v>
       </c>
@@ -30266,10 +31849,10 @@
         <v>156</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="D15" s="19">
         <v>0.8</v>
@@ -30280,10 +31863,10 @@
         <v>155</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="D16" s="19">
         <v>0.75</v>
@@ -30294,10 +31877,10 @@
         <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="D17" s="19">
         <f>5/6</f>
@@ -30309,10 +31892,10 @@
         <v>898</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2741</v>
+        <v>2690</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>2742</v>
+        <v>2691</v>
       </c>
       <c r="D18" s="19">
         <f>3/3</f>
@@ -30324,7 +31907,7 @@
         <v>884</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>2742</v>
+        <v>2691</v>
       </c>
       <c r="D19" s="19">
         <f>3/3</f>
@@ -30336,10 +31919,10 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2744</v>
+        <v>2693</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>2743</v>
+        <v>2692</v>
       </c>
       <c r="D20" s="19">
         <f>2/4</f>
@@ -30351,10 +31934,10 @@
         <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2745</v>
+        <v>2694</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>2746</v>
+        <v>2695</v>
       </c>
       <c r="D21" s="19">
         <f>3/4</f>
@@ -30366,12 +31949,12 @@
         <v>142</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>2747</v>
+        <v>2696</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>2743</v>
-      </c>
-      <c r="D22" s="56">
+        <v>2692</v>
+      </c>
+      <c r="D22" s="48">
         <f>2/4</f>
         <v>0.5</v>
       </c>
@@ -30381,10 +31964,10 @@
         <v>137</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2748</v>
+        <v>2697</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2746</v>
+        <v>2695</v>
       </c>
       <c r="D23" s="19">
         <v>0.75</v>
@@ -30395,10 +31978,10 @@
         <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2749</v>
+        <v>2698</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>2742</v>
+        <v>2691</v>
       </c>
       <c r="D24" s="19">
         <f>3/3</f>
@@ -30410,12 +31993,12 @@
         <v>105</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>2750</v>
+        <v>2699</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>2743</v>
-      </c>
-      <c r="D25" s="56">
+        <v>2692</v>
+      </c>
+      <c r="D25" s="48">
         <f>2/4</f>
         <v>0.5</v>
       </c>
@@ -30425,12 +32008,12 @@
         <v>93</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>2754</v>
+        <v>2703</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>2753</v>
-      </c>
-      <c r="D26" s="56">
+        <v>2702</v>
+      </c>
+      <c r="D26" s="48">
         <f>1/4</f>
         <v>0.25</v>
       </c>
@@ -30440,10 +32023,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2756</v>
+        <v>2705</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>2755</v>
+        <v>2704</v>
       </c>
       <c r="D27" s="19">
         <f>5/6</f>
@@ -30455,14 +32038,162 @@
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2758</v>
+        <v>2707</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>2757</v>
+        <v>2706</v>
       </c>
       <c r="D28" s="19">
         <f>4/5</f>
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="28">
+        <v>56</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D29" s="48">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>43</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D30" s="19">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="28">
+        <v>37</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="26" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D31" s="48">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D32" s="19">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="28">
+        <v>34</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D33" s="48">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D34" s="19">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="42.75">
+      <c r="A35" s="28">
+        <v>26</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D35" s="48">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="42.75">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D36" s="19">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="29">
+        <v>111</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D37" s="19">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5">
+      <c r="A38" s="28">
+        <v>106</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D38" s="48">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -30474,830 +32205,1819 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="44.75" customWidth="1"/>
-    <col min="3" max="3" width="34.25" style="28" customWidth="1"/>
+    <col min="2" max="2" width="57.625" customWidth="1"/>
+    <col min="3" max="3" width="9" style="60"/>
+    <col min="4" max="4" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="D2" s="19">
+        <f>AVERAGE(D3:D220)</f>
+        <v>0.70384615384615379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>863</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D3" s="19">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>860</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D4" s="19">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>485</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D5" s="19">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>387</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D7" s="19">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>343</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D8" s="19">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D9" s="19">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D10" s="19">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>338</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D11" s="19">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>326</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D12" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>310</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D13" s="19">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D14" s="19">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>301</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D15" s="19">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="46.75" style="30" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="29" t="s">
         <v>2432</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="58" t="s">
         <v>2435</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="29" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="29" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5">
+      <c r="A3" s="31" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" ht="28.5">
+      <c r="A4" s="30" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="29" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="34" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="30" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="34" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="34" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5">
+      <c r="A11" s="34" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="29" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="29" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.75">
+      <c r="A14" s="29" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="34" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="29" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5">
+      <c r="A18" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5">
+      <c r="A19" s="29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5">
+      <c r="A22" s="30" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="30" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="42.75">
+      <c r="A24" s="34" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="29" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5">
+      <c r="A26" s="30" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="34" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="42.75">
+      <c r="A28" s="30" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="29" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57">
+      <c r="A30" s="30" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5">
+      <c r="A31" s="34" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="30" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="29" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5">
+      <c r="A34" s="34" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5">
+      <c r="A35" s="34" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="29" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5">
+      <c r="A37" s="34" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5">
+      <c r="A38" s="30" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="29" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="56" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="29" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="29" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="34" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="34" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="29" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="29" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="29" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2434</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D47" s="29" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="29" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="34" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="29" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="29" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B51" s="58" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.5">
+      <c r="A52" s="29" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B52" s="58" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="29" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.5">
+      <c r="A54" s="34" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="29" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B55" s="58" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.5">
+      <c r="A56" s="34" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="30" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="29" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B58" s="58" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="28.5">
+      <c r="A59" s="34" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="34" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.5">
+      <c r="A61" s="29" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B61" s="58" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="28" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D61" s="29" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="34" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.5">
+      <c r="A63" s="34" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="29" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="34" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28.5">
+      <c r="A67" s="34" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="34" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="28.5">
+      <c r="A69" s="34" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C69" s="58" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="57" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B70" s="58" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="34" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="34" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="28.5">
+      <c r="A73" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="57" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B74" s="58" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="28.5">
+      <c r="A75" s="34" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B75" s="34" t="s">
         <v>2675</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C75" s="58" t="s">
         <v>2676</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="28" t="s">
-        <v>2438</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2437</v>
-      </c>
-      <c r="C4" s="32" t="s">
+    <row r="76" spans="1:4" ht="28.5">
+      <c r="A76" s="34" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.5">
+      <c r="A77" s="57" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B77" s="58" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="57" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B78" s="58" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="34" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="56" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B80" s="58" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="34" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="34" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="34" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="42.75">
+      <c r="A84" s="34" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="29" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="29" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="29" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="34" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="34" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="28.5">
+      <c r="A90" s="34" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="57">
+      <c r="A91" s="34" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="28.5">
+      <c r="A92" s="34" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="34" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="34" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="28.5">
+      <c r="A95" s="34" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="34" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="34" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="34" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="29" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="34" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="34" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="34" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="34" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="42.75">
+      <c r="A104" s="34" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C104" s="58" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="34" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="34" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="34" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="29" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="29" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B109" s="30" t="s">
         <v>2739</v>
       </c>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2440</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>2441</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2513</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="28" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2443</v>
-      </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="28" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2444</v>
-      </c>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="28" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2445</v>
-      </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2447</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5">
-      <c r="A11" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2449</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2450</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>2453</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2452</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42.75">
-      <c r="A14" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2454</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="28" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="28" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>2460</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2459</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.5">
-      <c r="A18" s="28" t="s">
-        <v>515</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5">
-      <c r="A19" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2462</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>809</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2463</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2464</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.5">
-      <c r="A22" s="28" t="s">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2465</v>
-      </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="28" t="s">
-        <v>2334</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42.75">
-      <c r="A24" s="28" t="s">
-        <v>2466</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2467</v>
-      </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2468</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.5">
-      <c r="A26" s="28" t="s">
-        <v>1935</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2469</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="28" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.5">
-      <c r="A28" s="28" t="s">
-        <v>2474</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>2476</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>2477</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="42.75">
-      <c r="A30" s="28" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="28" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="28" t="s">
-        <v>2483</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>2485</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>2484</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>2486</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="28" t="s">
-        <v>2499</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="28" t="s">
-        <v>2501</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>2503</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2502</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="28" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="28" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2508</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>2509</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="40" t="s">
-        <v>2510</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2512</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>2511</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>2595</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>2596</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>2598</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="28" t="s">
-        <v>2665</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="28" t="s">
-        <v>2666</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>2600</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>2601</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>2602</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>2604</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>2603</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>2672</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>2606</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>2605</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>2608</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="28" t="s">
-        <v>2667</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>2610</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>2613</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.5">
-      <c r="A52" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>2681</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>2616</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.5">
-      <c r="A54" s="28" t="s">
-        <v>2671</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>2618</v>
-      </c>
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>2620</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>2619</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.5">
-      <c r="A56" t="s">
-        <v>2621</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>2622</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="28" t="s">
-        <v>2669</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>2682</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>2626</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.5">
-      <c r="A59" s="28" t="s">
-        <v>2668</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>2684</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="28" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.5">
-      <c r="A61" t="s">
-        <v>2629</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>2630</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>2686</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="28.5">
-      <c r="A63" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="28.5">
-      <c r="A67" s="54" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="54" t="s">
-        <v>2710</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.5">
-      <c r="A69" s="54" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>2711</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="54" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="54" t="s">
-        <v>2716</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="54" t="s">
-        <v>2718</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="28.5">
-      <c r="A73" s="54" t="s">
-        <v>869</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="54" t="s">
-        <v>2720</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.5">
-      <c r="A75" s="54" t="s">
-        <v>2722</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>2723</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="28.5">
-      <c r="A76" s="54" t="s">
-        <v>2725</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="28.5">
-      <c r="A77" s="54" t="s">
-        <v>2728</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>2727</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="54" t="s">
-        <v>2731</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="54" t="s">
-        <v>2734</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>2733</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="40" t="s">
-        <v>2736</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>2738</v>
+      <c r="C109" s="30" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="29" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="29" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="29" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="28.5">
+      <c r="A113" s="34" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="34" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="29" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="34" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="29" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="34" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="29" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="56" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="29" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="29" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="29" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="29" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="29" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="29" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="29" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="29" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="42.75">
+      <c r="A129" s="29" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B129" s="58" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="42.75">
+      <c r="A130" s="29" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B130" s="58" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="29" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="29" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="29" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="42.75">
+      <c r="A134" s="29" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B134" s="58" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="29" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="28.5">
+      <c r="A136" s="29" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B136" s="58" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="29" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="29" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="28.5">
+      <c r="A139" s="29" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B139" s="58" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="29" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="28.5">
+      <c r="A141" s="29" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B141" s="58" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="29" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="28.5">
+      <c r="A143" s="29" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B143" s="58" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="29" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="29" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="29" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="29" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="29" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="29" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="29" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="29" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="29" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="42.75">
+      <c r="A153" s="29" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B153" s="58" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="29" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="29" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="28.5">
+      <c r="A156" s="29" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B156" s="58" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="29" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="29" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="29" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="59" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>2964</v>
       </c>
     </row>
   </sheetData>

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -23,6 +23,7 @@
     <sheet name="高阶单词背诵" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">高阶单词背诵!$A$1:$A$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">高阶单词本1k!$B$1:$B$1257</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="3007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="3091">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -15770,15 +15771,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>impermeable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>n./v. 人为破坏；故意妨碍；捣乱；刻意阻碍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 叙述；讲故事；叙事技巧 adj. 叙述的,故事体的,善于叙述的</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -15935,10 +15928,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>平稳的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>球体</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -16802,10 +16791,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单词的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>空余</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -16883,14 +16868,6 @@
   </si>
   <si>
     <t>文字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合约，对手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -17709,10 +17686,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>sabotage [ˈsæbəˌtɑʒ]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>apathy  [ˈæpəθi]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -17726,10 +17699,6 @@
   </si>
   <si>
     <t>deride [dɪˈraɪd]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>striate [ˈstraɪˌet]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -17780,6 +17749,416 @@
   </si>
   <si>
     <t>flout  [flaʊt]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 叙述；讲故事；叙事技巧 adj. 叙述的,故事体的,善于叙述的 memecoin ~ meme币的叙事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>impermeable [ɪmˈpɜrmiəbl]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>impede vt. 阻止阻碍妨碍 permit v. 允许许可 n. 许可证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sabotage [ˈsæbəˌtɑʒ] ta-xi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>striate [ˈstraɪˌet] trai-et</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫穷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢，华丽，盛装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分歧的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻碍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心翼翼的，一尘不染的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使…全神贯注,占据..时间精力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平和的，宁静的，风景优美的，田园牧歌的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴郁的，闷闷不乐的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法和解的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕吐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>引出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷涌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷漠</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可渗透的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄意破坏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>叙事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>给…加条纹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节俭的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 圣人；智者；鼠尾草
+[adj] 贤明的；明智的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] （人）适于拍摄电视的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>telegenic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 独角戏；滔滔不绝的讲话；个人的长篇大论；（戏剧、电影等的）独白</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>monologue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 巨大的；强大的；极端重要的；四价钛的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>titanic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymmetrical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymmetric adj. 不对称的
+symmetric adj. 对称的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj.] 不对称的；非对称的；不均匀的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 少量；少许；贫乏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">paucity /'pɔsəti/ </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>coagulate  /kəʊ'ægjuleɪt/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] (使)凝结；(使)成一体；凝聚；使…凝固
+[n] 凝块；凝聚体
+the blood began to ~around the edge of the wound. 伤口边缘的血还是凝结</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 负债；债务；义务；惹麻烦的人（或事）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 简要的；简短生硬的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>terse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adv] 认真地；恳切地；起劲地；一本正经地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>earnestly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 振动；振荡；摆动；（情感或行为）摇摆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oscillate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 挽歌；挽诗；哀歌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>elegy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 服装；衣服
+[v] 打扮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 有道理的；可信的；巧言令色的；花言巧语的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>plausible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 渴望；热切；热衷于；热情的
+[n] 恸哭；(号哭着唱出的)挽歌
+[v] （为死者）恸哭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>keen /kin/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 典范；完人
+[v] 〈诗〉比较；强过；〈古〉与…竞争</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>paragon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 自由基；激进分子；游离基
+[adj] 根本的；彻底的；完全的；全新的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 敷衍的；例行公事般的；潦草的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>perfunctory /pər'fʌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kt(ə)ri/ t不发音</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 绝望；失去希望；丧失信心
+[n] 绝望</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>desperate wife 绝望的主妇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>despair [dɪˈsper]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 乡下人；乡巴佬
+[adj] 乡村（人）的；乡村（人）特色的；淳朴的；用粗糙木材做成的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rustic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 无法分辨的；无法区分的；不清楚的；无法识别的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>indistinguishable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 女神；极受崇拜（或敬慕）的女人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>goddess</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 摆阔的；铺张的；浮华的；炫耀的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ostentatious /.ɑsten'teɪʃəs/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mudguard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mud n. 泥土 guard n. 守卫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 挡泥板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 充满；弥漫；厚的；粗的
+[n] 最厚[粗]的部分；〈口〉笨蛋；〈俚〉可可粉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 中世纪的（约公元 1000 到 1450 年）
+[网络] 中古的；中世纪战争；仿中世纪的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>medieval /.medi'iv(ə)l/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 只有内行才懂的；难领略的
+[n] 受秘传的人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>esoteric</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 互相关联；相关物
+[v] 相互关联影响；显示…的紧密联系
+[adj] 关联的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>correlate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 掺假
+[adj] 搀假的；伪的；通奸的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adulterate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adult n. 成人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 支撑；支柱；撑杆；支杆
+[v] 趾高气扬地走；高视阔步</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strut</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 仔细查看；认真检查；细致审查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">scrutinize  /'skrut(ə)n.aɪz/ </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrutiny n. 细看,审阅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 虔诚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>piety</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.国家的主权; 君权，最高统治权; 独立自主; 主权国家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign adj.外国的,异质的 a ~ object in your nose 鼻子里有个异物
+rein v. 缰绳,统治
+long may she rein 风中的女王台词</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -18230,6 +18609,24 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -18250,24 +18647,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19683,13 +20062,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.25">
@@ -19697,7 +20076,7 @@
         <v>45</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -19708,13 +20087,13 @@
         <v>683</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.25">
@@ -19722,13 +20101,13 @@
         <v>556</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.25">
@@ -19736,7 +20115,7 @@
         <v>550</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -19747,13 +20126,13 @@
         <v>469</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.25">
@@ -19761,7 +20140,7 @@
         <v>450</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -19772,7 +20151,7 @@
         <v>418</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
@@ -19783,13 +20162,13 @@
         <v>225</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
     </row>
   </sheetData>
@@ -22738,10 +23117,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="B150" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="27.75">
@@ -30672,21 +31051,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="55"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10" t="s">
@@ -30921,7 +31300,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>93</v>
@@ -30930,7 +31309,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -30953,19 +31332,19 @@
         <v>18</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="J9" s="43" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31892,10 +32271,10 @@
         <v>898</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="D18" s="19">
         <f>3/3</f>
@@ -31907,7 +32286,7 @@
         <v>884</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="D19" s="19">
         <f>3/3</f>
@@ -31919,10 +32298,10 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="D20" s="19">
         <f>2/4</f>
@@ -31934,10 +32313,10 @@
         <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="D21" s="19">
         <f>3/4</f>
@@ -31949,10 +32328,10 @@
         <v>142</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="D22" s="48">
         <f>2/4</f>
@@ -31964,10 +32343,10 @@
         <v>137</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="D23" s="19">
         <v>0.75</v>
@@ -31978,10 +32357,10 @@
         <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="D24" s="19">
         <f>3/3</f>
@@ -31993,10 +32372,10 @@
         <v>105</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="D25" s="48">
         <f>2/4</f>
@@ -32008,10 +32387,10 @@
         <v>93</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="D26" s="48">
         <f>1/4</f>
@@ -32023,10 +32402,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="D27" s="19">
         <f>5/6</f>
@@ -32038,10 +32417,10 @@
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="D28" s="19">
         <f>4/5</f>
@@ -32053,10 +32432,10 @@
         <v>56</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="D29" s="48">
         <f>2/5</f>
@@ -32068,10 +32447,10 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="D30" s="19">
         <f>3/4</f>
@@ -32084,7 +32463,7 @@
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="26" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="D31" s="48">
         <f>3/7</f>
@@ -32096,10 +32475,10 @@
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="D32" s="19">
         <f>3/4</f>
@@ -32111,10 +32490,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="D33" s="48">
         <f>2/4</f>
@@ -32126,10 +32505,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="D34" s="19">
         <f>3/5</f>
@@ -32141,10 +32520,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="D35" s="48">
         <f>2/4</f>
@@ -32156,10 +32535,10 @@
         <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="D36" s="19">
         <f>6/7</f>
@@ -32171,10 +32550,10 @@
         <v>111</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="D37" s="19">
         <f>4/4</f>
@@ -32186,10 +32565,10 @@
         <v>106</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="D38" s="48">
         <f>1/6</f>
@@ -32214,7 +32593,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="57.625" customWidth="1"/>
-    <col min="3" max="3" width="9" style="60"/>
+    <col min="3" max="3" width="9" style="53"/>
     <col min="4" max="4" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -32225,7 +32604,7 @@
       <c r="B1" t="s">
         <v>2579</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="54" t="s">
         <v>98</v>
       </c>
       <c r="D1" s="19" t="s">
@@ -32243,9 +32622,9 @@
         <v>863</v>
       </c>
       <c r="B3" t="s">
-        <v>2775</v>
-      </c>
-      <c r="C3" s="60" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>2568</v>
       </c>
       <c r="D3" s="19">
@@ -32258,9 +32637,9 @@
         <v>860</v>
       </c>
       <c r="B4" t="s">
-        <v>2776</v>
-      </c>
-      <c r="C4" s="60" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>2568</v>
       </c>
       <c r="D4" s="19">
@@ -32273,10 +32652,10 @@
         <v>485</v>
       </c>
       <c r="B5" t="s">
-        <v>2778</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>2777</v>
+        <v>2775</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>2774</v>
       </c>
       <c r="D5" s="19">
         <f>3/5</f>
@@ -32288,9 +32667,9 @@
         <v>387</v>
       </c>
       <c r="B6" t="s">
-        <v>2779</v>
-      </c>
-      <c r="C6" s="60" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>2568</v>
       </c>
       <c r="D6" s="19">
@@ -32302,10 +32681,10 @@
         <v>385</v>
       </c>
       <c r="B7" t="s">
-        <v>2781</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>2780</v>
+        <v>2778</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>2777</v>
       </c>
       <c r="D7" s="19">
         <f>2/3</f>
@@ -32316,7 +32695,7 @@
       <c r="A8">
         <v>343</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="53" t="s">
         <v>2567</v>
       </c>
       <c r="D8" s="19">
@@ -32329,9 +32708,9 @@
         <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>2782</v>
-      </c>
-      <c r="C9" s="60" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>2569</v>
       </c>
       <c r="D9" s="19">
@@ -32344,9 +32723,9 @@
         <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>2783</v>
-      </c>
-      <c r="C10" s="60" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>2571</v>
       </c>
       <c r="D10" s="19">
@@ -32359,9 +32738,9 @@
         <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>2784</v>
-      </c>
-      <c r="C11" s="60" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>2567</v>
       </c>
       <c r="D11" s="19">
@@ -32374,9 +32753,9 @@
         <v>326</v>
       </c>
       <c r="B12" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C12" s="60" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>2573</v>
       </c>
       <c r="D12" s="19">
@@ -32388,7 +32767,7 @@
       <c r="A13">
         <v>310</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="53" t="s">
         <v>2567</v>
       </c>
       <c r="D13" s="19">
@@ -32401,10 +32780,10 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>2786</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>2777</v>
+        <v>2783</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>2774</v>
       </c>
       <c r="D14" s="19">
         <f>3/5</f>
@@ -32416,9 +32795,9 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>2787</v>
-      </c>
-      <c r="C15" s="60" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C15" s="53" t="s">
         <v>2581</v>
       </c>
       <c r="D15" s="19">
@@ -32434,10 +32813,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A2:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -32448,1579 +32827,1909 @@
     <col min="4" max="4" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>2804</v>
-      </c>
-    </row>
     <row r="2" spans="1:4">
       <c r="A2" s="29" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="29" t="s">
         <v>2433</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B3" s="30" t="s">
         <v>2434</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>2805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="31" t="s">
+      <c r="D3" s="29" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5">
+      <c r="A4" s="31" t="s">
         <v>2436</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B4" s="34" t="s">
         <v>2633</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C4" s="31" t="s">
         <v>2634</v>
       </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="30" t="s">
+      <c r="D4" s="29" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5">
+      <c r="A5" s="30" t="s">
         <v>2438</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B5" s="30" t="s">
         <v>2437</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>2688</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>2806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="29" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>2440</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>2441</v>
+      <c r="C5" s="51" t="s">
+        <v>2686</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="29" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="29" t="s">
         <v>1268</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B7" s="30" t="s">
         <v>2505</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="34" t="s">
+      <c r="D7" s="29" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34" t="s">
         <v>2442</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B8" s="34" t="s">
         <v>2443</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="30" t="s">
         <v>1583</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>2444</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="34" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>2445</v>
-      </c>
       <c r="D9" s="29" t="s">
-        <v>2709</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="34" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="34" t="s">
         <v>2448</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B11" s="34" t="s">
         <v>2447</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5">
-      <c r="A11" s="34" t="s">
+      <c r="D11" s="29" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5">
+      <c r="A12" s="34" t="s">
         <v>1926</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B12" s="34" t="s">
         <v>2449</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="29" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>2450</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>2811</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="29" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="29" t="s">
         <v>2453</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B14" s="30" t="s">
         <v>2452</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>2812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42.75">
-      <c r="A14" s="29" t="s">
+      <c r="D14" s="29" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42.75">
+      <c r="A15" s="29" t="s">
         <v>1727</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B15" s="51" t="s">
         <v>2454</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="34" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>2455</v>
+      <c r="D15" s="29" t="s">
+        <v>2809</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="34" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="34" t="s">
         <v>2457</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>2861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="29" t="s">
+      <c r="B17" s="34" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B18" s="30" t="s">
         <v>2458</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.5">
-      <c r="A18" s="34" t="s">
+      <c r="D18" s="29" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5">
+      <c r="A19" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B19" s="34" t="s">
         <v>2460</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5">
-      <c r="A19" s="29" t="s">
+      <c r="D19" s="29" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.5">
+      <c r="A20" s="29" t="s">
         <v>1214</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B20" s="51" t="s">
         <v>2461</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>2462</v>
-      </c>
       <c r="D20" s="29" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B22" s="30" t="s">
         <v>2463</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D22" s="29" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5">
+      <c r="A23" s="30" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="30" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="42.75">
+      <c r="A25" s="34" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="29" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5">
+      <c r="A27" s="30" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="42.75">
+      <c r="A29" s="30" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="29" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="57">
+      <c r="A31" s="30" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>2818</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5">
-      <c r="A22" s="30" t="s">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>2464</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="30" t="s">
-        <v>2334</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>2335</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42.75">
-      <c r="A24" s="34" t="s">
-        <v>2465</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="29" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>2467</v>
-      </c>
-      <c r="D25" s="29" t="s">
+    <row r="32" spans="1:4" ht="28.5">
+      <c r="A32" s="34" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="30" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>2819</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5">
-      <c r="A26" s="30" t="s">
-        <v>1935</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>2468</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="34" t="s">
-        <v>2471</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="42.75">
-      <c r="A28" s="30" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>2717</v>
-      </c>
-      <c r="D28" s="29" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="29" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>2820</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="29" t="s">
-        <v>2474</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>2473</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>2475</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="57">
-      <c r="A30" s="30" t="s">
-        <v>2476</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>2718</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5">
-      <c r="A31" s="34" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>2862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="30" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>2478</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="29" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>2480</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.5">
-      <c r="A34" s="34" t="s">
-        <v>2494</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>2719</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.5">
       <c r="A35" s="34" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5">
+      <c r="A36" s="34" t="s">
         <v>2495</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="29" t="s">
+      <c r="B36" s="34" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="29" t="s">
         <v>2497</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B37" s="51" t="s">
         <v>2496</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.5">
-      <c r="A37" s="34" t="s">
+      <c r="D37" s="29" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5">
+      <c r="A38" s="34" t="s">
         <v>2498</v>
       </c>
-      <c r="B37" s="34" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.5">
-      <c r="A38" s="30" t="s">
+      <c r="B38" s="34" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5">
+      <c r="A39" s="30" t="s">
         <v>2499</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>2722</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="29" t="s">
+      <c r="B39" s="51" t="s">
+        <v>2719</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="29" t="s">
         <v>1720</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B40" s="51" t="s">
         <v>2500</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C40" s="30" t="s">
         <v>2501</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>2827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="56" t="s">
+      <c r="D40" s="29" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="49" t="s">
         <v>2502</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B41" s="51" t="s">
         <v>2504</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C41" s="30" t="s">
         <v>2503</v>
       </c>
-      <c r="D40" s="29" t="s">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="29" t="s">
-        <v>2587</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>2588</v>
-      </c>
       <c r="D41" s="29" t="s">
-        <v>2829</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="29" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="29" t="s">
         <v>2589</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B43" s="51" t="s">
         <v>2590</v>
       </c>
-      <c r="D42" s="29" t="s">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="34" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>2591</v>
-      </c>
       <c r="D43" s="29" t="s">
-        <v>2831</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="34" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="34" t="s">
         <v>2624</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>2592</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C45" s="30" t="s">
         <v>2638</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="29" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B45" s="58" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>2833</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="29" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>2630</v>
+        <v>2593</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>2594</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>2834</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="29" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>2597</v>
+        <v>2596</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>2595</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>2835</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="29" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="29" t="s">
         <v>2600</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B49" s="51" t="s">
         <v>2599</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>2836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="34" t="s">
+      <c r="D49" s="29" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="34" t="s">
         <v>2625</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B50" s="34" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="29" t="s">
-        <v>2602</v>
-      </c>
-      <c r="B50" s="58" t="s">
-        <v>2603</v>
-      </c>
       <c r="D50" s="29" t="s">
-        <v>2837</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="29" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="29" t="s">
         <v>2605</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B52" s="51" t="s">
         <v>2604</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.5">
-      <c r="A52" s="29" t="s">
+      <c r="D52" s="29" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.5">
+      <c r="A53" s="29" t="s">
         <v>2606</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B53" s="51" t="s">
         <v>2639</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="29" t="s">
+      <c r="D53" s="29" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="29" t="s">
         <v>2607</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B54" s="51" t="s">
         <v>2608</v>
       </c>
-      <c r="D53" s="29" t="s">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.5">
-      <c r="A54" s="34" t="s">
+      <c r="D54" s="29" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.5">
+      <c r="A55" s="34" t="s">
         <v>2629</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>2610</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="29" t="s">
+      <c r="D55" s="29" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="29" t="s">
         <v>2612</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B56" s="51" t="s">
         <v>2611</v>
       </c>
-      <c r="D55" s="29" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.5">
-      <c r="A56" s="34" t="s">
+      <c r="D56" s="29" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.5">
+      <c r="A57" s="34" t="s">
         <v>2613</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B57" s="34" t="s">
         <v>2614</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="30" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="30" t="s">
         <v>2627</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B58" s="51" t="s">
         <v>2640</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C58" s="30" t="s">
         <v>2641</v>
       </c>
-      <c r="D57" s="29" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="29" t="s">
+      <c r="D58" s="29" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="29" t="s">
         <v>2618</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B59" s="51" t="s">
         <v>2617</v>
       </c>
-      <c r="D58" s="29" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.5">
-      <c r="A59" s="34" t="s">
+      <c r="D59" s="29" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="28.5">
+      <c r="A60" s="34" t="s">
         <v>2626</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B60" s="34" t="s">
         <v>2642</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C60" s="30" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="34" t="s">
+      <c r="D60" s="29" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="34" t="s">
         <v>2628</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B61" s="34" t="s">
         <v>2619</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.5">
-      <c r="A61" s="29" t="s">
+    <row r="62" spans="1:4" ht="28.5">
+      <c r="A62" s="29" t="s">
         <v>2621</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B62" s="51" t="s">
         <v>2620</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C62" s="30" t="s">
         <v>2632</v>
       </c>
-      <c r="D61" s="29" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="34" t="s">
+      <c r="D62" s="29" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="34" t="s">
         <v>2622</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B63" s="34" t="s">
         <v>2644</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="28.5">
-      <c r="A63" s="34" t="s">
+      <c r="D63" s="29" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.5">
+      <c r="A64" s="34" t="s">
         <v>2645</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B64" s="34" t="s">
         <v>2658</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="29" t="s">
+      <c r="D64" s="29" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="29" t="s">
         <v>2660</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B65" s="51" t="s">
         <v>2659</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C65" s="30" t="s">
         <v>2661</v>
       </c>
-      <c r="D64" s="29" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="34" t="s">
-        <v>2998</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>2662</v>
+      <c r="D65" s="29" t="s">
+        <v>2711</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="34" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="34" t="s">
         <v>1226</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B67" s="34" t="s">
         <v>2663</v>
       </c>
-      <c r="D66" s="29" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="28.5">
-      <c r="A67" s="34" t="s">
-        <v>2997</v>
-      </c>
-      <c r="B67" s="34" t="s">
+      <c r="D67" s="29" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="28.5">
+      <c r="A68" s="34" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B68" s="34" t="s">
         <v>2664</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="34" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B68" s="34" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="34" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B69" s="34" t="s">
         <v>2665</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.5">
-      <c r="A69" s="34" t="s">
-        <v>2995</v>
-      </c>
-      <c r="B69" s="34" t="s">
+    <row r="70" spans="1:4" ht="28.5">
+      <c r="A70" s="34" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B70" s="34" t="s">
         <v>2666</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C70" s="51" t="s">
         <v>2667</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="57" t="s">
+      <c r="D70" s="29" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="50" t="s">
         <v>1731</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B71" s="51" t="s">
         <v>2668</v>
       </c>
-      <c r="D70" s="29" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="34" t="s">
-        <v>2670</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>2669</v>
+      <c r="D71" s="29" t="s">
+        <v>2712</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
-        <v>2994</v>
+        <v>3000</v>
       </c>
       <c r="B72" s="34" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="34" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28.5">
+      <c r="A74" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="50" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="28.5">
-      <c r="A73" s="34" t="s">
-        <v>869</v>
-      </c>
-      <c r="B73" s="34" t="s">
+      <c r="B75" s="51" t="s">
         <v>2672</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="57" t="s">
-        <v>2673</v>
-      </c>
-      <c r="B74" s="58" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="28.5">
-      <c r="A75" s="34" t="s">
-        <v>2999</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>2675</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>2676</v>
+      <c r="D75" s="29" t="s">
+        <v>2839</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="28.5">
       <c r="A76" s="34" t="s">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="B76" s="34" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.5">
+      <c r="A77" s="34" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="28.5">
+      <c r="A78" s="50" t="s">
         <v>2677</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="28.5">
-      <c r="A77" s="57" t="s">
+      <c r="B78" s="51" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="50" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B79" s="51" t="s">
         <v>2679</v>
       </c>
-      <c r="B77" s="58" t="s">
-        <v>2678</v>
-      </c>
-      <c r="C77" s="30" t="s">
+      <c r="C79" s="30" t="s">
         <v>2680</v>
       </c>
-      <c r="D77" s="29" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="57" t="s">
-        <v>3001</v>
-      </c>
-      <c r="B78" s="58" t="s">
+      <c r="D79" s="29" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="34" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B80" s="34" t="s">
         <v>2681</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C80" s="30" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="49" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B81" s="51" t="s">
         <v>2682</v>
       </c>
-      <c r="D78" s="29" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="34" t="s">
-        <v>3002</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>2683</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="56" t="s">
+      <c r="C81" s="30" t="s">
         <v>2685</v>
       </c>
-      <c r="B80" s="58" t="s">
-        <v>2684</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>2687</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="34" t="s">
-        <v>3003</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>2863</v>
+      <c r="D81" s="29" t="s">
+        <v>2841</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="34" t="s">
-        <v>3004</v>
+        <v>2995</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>2864</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="34" t="s">
-        <v>3005</v>
+        <v>2996</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="42.75">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="34" t="s">
-        <v>2866</v>
+        <v>2997</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="29" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>2725</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>2848</v>
+        <v>2859</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="42.75">
+      <c r="A85" s="34" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>2861</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="29" t="s">
-        <v>2726</v>
+        <v>2721</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>2727</v>
-      </c>
-      <c r="C86" s="30" t="s">
-        <v>2728</v>
+        <v>2722</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>2849</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="29" t="s">
-        <v>2729</v>
+        <v>2723</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>2731</v>
+        <v>2724</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>2730</v>
+        <v>2725</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>2850</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="34" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>2869</v>
+      <c r="A88" s="29" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>2844</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="34" t="s">
-        <v>2871</v>
+        <v>2862</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="28.5">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="34" t="s">
-        <v>3006</v>
+        <v>2865</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="57">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="28.5">
       <c r="A91" s="34" t="s">
-        <v>2873</v>
+        <v>2998</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>2874</v>
-      </c>
-      <c r="D91" s="29" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="28.5">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="57">
       <c r="A92" s="34" t="s">
-        <v>2965</v>
+        <v>2867</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>2875</v>
+        <v>2868</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>2845</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="34" t="s">
-        <v>2876</v>
+        <v>2959</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>2877</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="34" t="s">
-        <v>2878</v>
+        <v>2870</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="28.5">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="34" t="s">
-        <v>2966</v>
+        <v>2872</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="28.5">
       <c r="A96" s="34" t="s">
-        <v>2967</v>
+        <v>2960</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>2881</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="34" t="s">
-        <v>1579</v>
+        <v>2961</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>2882</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="34" t="s">
-        <v>2968</v>
+        <v>1579</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>2883</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="29" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>2734</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>2851</v>
+      <c r="A99" s="34" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>2877</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="34" t="s">
-        <v>2969</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>2884</v>
+      <c r="A100" s="29" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>2845</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="34" t="s">
-        <v>2970</v>
+        <v>2963</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>2885</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="34" t="s">
-        <v>2971</v>
+        <v>2964</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>2886</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="34" t="s">
-        <v>2972</v>
+        <v>2965</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="42.75">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="34" t="s">
-        <v>2888</v>
+        <v>2966</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C104" s="58" t="s">
-        <v>2735</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="42.75">
       <c r="A105" s="34" t="s">
-        <v>2973</v>
+        <v>2882</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>2890</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>2736</v>
+        <v>2883</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>2732</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="34" t="s">
-        <v>2974</v>
+        <v>2967</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>2891</v>
+        <v>2884</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>2733</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="34" t="s">
-        <v>2892</v>
+        <v>2968</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>2893</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>2900</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="29" t="s">
-        <v>2975</v>
-      </c>
-      <c r="B108" s="30" t="s">
-        <v>2737</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>2852</v>
+      <c r="A108" s="34" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>2894</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="29" t="s">
-        <v>2738</v>
+        <v>2969</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>2739</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>2740</v>
+        <v>2734</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>2853</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="29" t="s">
-        <v>2742</v>
+        <v>2735</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>2741</v>
+        <v>2736</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>2737</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>2854</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="29" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>2743</v>
+        <v>2738</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>2855</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="29" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="29" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="28.5">
+      <c r="A114" s="34" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="34" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="29" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B116" s="30" t="s">
         <v>2746</v>
       </c>
-      <c r="B112" s="30" t="s">
-        <v>2745</v>
-      </c>
-      <c r="C112" s="30" t="s">
+      <c r="D116" s="29" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="34" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="29" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B118" s="30" t="s">
         <v>2747</v>
       </c>
-      <c r="D112" s="29" t="s">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="28.5">
-      <c r="A113" s="34" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B113" s="34" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="34" t="s">
-        <v>2896</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="29" t="s">
-        <v>2748</v>
-      </c>
-      <c r="B115" s="30" t="s">
+      <c r="C118" s="30" t="s">
         <v>2749</v>
       </c>
-      <c r="D115" s="29" t="s">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="34" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="29" t="s">
+      <c r="D118" s="29" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="34" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="29" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B120" s="30" t="s">
         <v>2751</v>
       </c>
-      <c r="B117" s="30" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C117" s="30" t="s">
+      <c r="D120" s="29" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="49" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B121" s="30" t="s">
         <v>2752</v>
       </c>
-      <c r="D117" s="29" t="s">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="34" t="s">
-        <v>2977</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="29" t="s">
-        <v>2753</v>
-      </c>
-      <c r="B119" s="30" t="s">
-        <v>2754</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>2860</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="56" t="s">
-        <v>2756</v>
-      </c>
-      <c r="B120" s="30" t="s">
-        <v>2755</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>2859</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="29" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B121" s="30" t="s">
-        <v>2901</v>
+      <c r="D121" s="29" t="s">
+        <v>2853</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="29" t="s">
-        <v>2979</v>
+        <v>2972</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>2902</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="29" t="s">
-        <v>2904</v>
+        <v>2973</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>2903</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="29" t="s">
-        <v>2980</v>
+        <v>2898</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>2905</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="29" t="s">
-        <v>2981</v>
+        <v>2974</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>2906</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="29" t="s">
-        <v>2982</v>
+        <v>2975</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>2907</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="29" t="s">
-        <v>2909</v>
+        <v>2976</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>2908</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="29" t="s">
-        <v>2911</v>
+        <v>2903</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="42.75">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" s="29" t="s">
-        <v>2913</v>
-      </c>
-      <c r="B129" s="58" t="s">
-        <v>2912</v>
+        <v>2905</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>2904</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="42.75">
       <c r="A130" s="29" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B130" s="58" t="s">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>2907</v>
+      </c>
+      <c r="B130" s="51" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="42.75">
       <c r="A131" s="29" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B131" s="30" t="s">
-        <v>2914</v>
+        <v>2977</v>
+      </c>
+      <c r="B131" s="51" t="s">
+        <v>2978</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="29" t="s">
-        <v>2917</v>
+        <v>2909</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>2916</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="29" t="s">
-        <v>2919</v>
+        <v>2911</v>
       </c>
       <c r="B133" s="30" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="29" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="42.75">
+      <c r="A135" s="29" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B135" s="51" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="29" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="28.5">
+      <c r="A137" s="29" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B137" s="51" t="s">
         <v>2918</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="42.75">
-      <c r="A134" s="29" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B134" s="58" t="s">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="29" t="s">
-        <v>2923</v>
-      </c>
-      <c r="B135" s="30" t="s">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="28.5">
-      <c r="A136" s="29" t="s">
-        <v>2985</v>
-      </c>
-      <c r="B136" s="58" t="s">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="29" t="s">
-        <v>2926</v>
-      </c>
-      <c r="B137" s="30" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="29" t="s">
-        <v>2986</v>
+        <v>2920</v>
       </c>
       <c r="B138" s="30" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="29" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="28.5">
+      <c r="A140" s="29" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B140" s="51" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="29" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="28.5">
+      <c r="A142" s="29" t="s">
         <v>2927</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="28.5">
-      <c r="A139" s="29" t="s">
+      <c r="B142" s="51" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="29" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B143" s="30" t="s">
         <v>2929</v>
       </c>
-      <c r="B139" s="58" t="s">
-        <v>2928</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="29" t="s">
+    </row>
+    <row r="144" spans="1:2" ht="28.5">
+      <c r="A144" s="29" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B144" s="51" t="s">
         <v>2930</v>
-      </c>
-      <c r="B140" s="30" t="s">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="28.5">
-      <c r="A141" s="29" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B141" s="58" t="s">
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="29" t="s">
-        <v>2934</v>
-      </c>
-      <c r="B142" s="30" t="s">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="28.5">
-      <c r="A143" s="29" t="s">
-        <v>2937</v>
-      </c>
-      <c r="B143" s="58" t="s">
-        <v>2936</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="29" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B144" s="30" t="s">
-        <v>2938</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="29" t="s">
-        <v>2939</v>
+        <v>2981</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>2940</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="29" t="s">
-        <v>2942</v>
+        <v>2933</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>2941</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="29" t="s">
-        <v>2944</v>
+        <v>2936</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>2943</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="29" t="s">
-        <v>2988</v>
+        <v>2938</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>2945</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="29" t="s">
-        <v>2947</v>
+        <v>2982</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>2946</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="29" t="s">
-        <v>2949</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>2948</v>
+        <v>2941</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>2940</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="29" t="s">
-        <v>2989</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>2950</v>
+        <v>2943</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>2942</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="29" t="s">
-        <v>2951</v>
+        <v>2983</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="42.75">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" s="29" t="s">
-        <v>2954</v>
-      </c>
-      <c r="B153" s="58" t="s">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>2945</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="42.75">
       <c r="A154" s="29" t="s">
-        <v>2955</v>
-      </c>
-      <c r="B154" s="30" t="s">
-        <v>2956</v>
+        <v>2948</v>
+      </c>
+      <c r="B154" s="51" t="s">
+        <v>2947</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="29" t="s">
-        <v>2990</v>
+        <v>2949</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="28.5">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="29" t="s">
-        <v>2991</v>
-      </c>
-      <c r="B156" s="58" t="s">
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>2984</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="28.5">
       <c r="A157" s="29" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B157" s="30" t="s">
-        <v>2959</v>
+        <v>2985</v>
+      </c>
+      <c r="B157" s="51" t="s">
+        <v>2952</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="29" t="s">
-        <v>2992</v>
+        <v>2954</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>2961</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="29" t="s">
-        <v>2963</v>
+        <v>2986</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>2962</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="59" t="s">
-        <v>2993</v>
+      <c r="A160" s="29" t="s">
+        <v>2957</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>2964</v>
-      </c>
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="52" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="28.5">
+      <c r="A162" s="29" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B162" s="51" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="29" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="29" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="29" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="28.5">
+      <c r="A166" s="29" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B166" s="51" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C166" s="51" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="29" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="57">
+      <c r="A168" s="29" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B168" s="51" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="29" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="29" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="29" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="29" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="29" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="28.5">
+      <c r="A174" s="29" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B174" s="51" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="29" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="42.75">
+      <c r="A176" s="29" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B176" s="51" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="28.5">
+      <c r="A177" s="29" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B177" s="51" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="28.5">
+      <c r="A178" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="B178" s="51" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="29" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="28.5">
+      <c r="A180" s="29" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B180" s="51" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="42.75">
+      <c r="A181" s="29" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B181" s="51" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="29" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="29" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="29" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="29" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="28.5">
+      <c r="A186" s="29" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B186" s="51" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="28.5">
+      <c r="A187" s="29" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B187" s="51" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="28.5">
+      <c r="A188" s="29" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B188" s="51" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="42.75">
+      <c r="A189" s="29" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B189" s="51" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="28.5">
+      <c r="A190" s="29" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B190" s="51" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="28.5">
+      <c r="A191" s="29" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B191" s="51" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="29" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B192" s="30" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C192" s="30" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="29" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B193" s="30" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="57">
+      <c r="A194" s="29" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B194" s="51" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C194" s="51" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="52"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A201"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PTE练习打卡.xlsx
+++ b/PTE练习打卡.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="3091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="3283">
   <si>
     <r>
       <t>(Contemporary critics dismissed)</t>
@@ -14892,11 +14892,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[n] 习惯；程序；仪规；礼节
-[adj] 仪式上的；庆典的；习惯的；老套的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[n] 婴儿；幼儿；四岁到七岁之间的学童
 [adj] 供婴幼儿用的；初期的；初创期的</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -15928,34 +15923,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>球体</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>食堂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>白蚁</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>前任</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>马车</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[adj] 光滑的；光亮的；线条流畅的；造型优美的
 [v] 使（头发等）发油光；使平整光亮 
 ~ black hair 乌黑油亮的头发</t>
@@ -16767,222 +16734,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>监督的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>增生的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反，违背</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细，缜密</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼吸</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>一致</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空余</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱指手画脚的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文盲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>婴儿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>同情</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>光滑的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无可匹敌的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要地</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>聪明的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>昏暗的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>前厅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外的，补充的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻佻，轻浮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母顺序的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业家</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修，革新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>降级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵制</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>民间故事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼容的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆生的，地球上的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛痘</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定地</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑，思量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>摔跤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是…基础</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>金发的，金发女郎</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可开发利用的，剥削的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>浸润，浸湿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>过敏的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐吓</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通风</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>按时间顺序的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制，驱使</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使…不同</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱经风霜的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>起源</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>氮气</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>外科医生</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>[v] 取代</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -17417,8 +17168,28 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>quadrangle [ˈkwɑdræ</t>
+    <t>ephemeral [ɪˈfɛmərəl]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>amalgamate [əˈmælɡəˌmet]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>versatility  [ˌvɜsə'tɪlətɪ]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>malleable [ˈmæliəbl]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stigma [ˈstɪɡmə]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>auditorium [ˌɔ</t>
     </r>
     <r>
       <rPr>
@@ -17429,7 +17200,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ŋ</t>
+      <t>ː</t>
     </r>
     <r>
       <rPr>
@@ -17438,33 +17209,7 @@
         <rFont val="等线"/>
         <scheme val="minor"/>
       </rPr>
-      <t>gl]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ephemeral [ɪˈfɛmərəl]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>amalgamate [əˈmælɡəˌmet]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>versatility  [ˌvɜsə'tɪlətɪ]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>malleable [ˈmæliəbl]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>stigma [ˈstɪɡmə]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>auditorium [ˌɔ</t>
+      <t>dɪˈtɔ</t>
     </r>
     <r>
       <rPr>
@@ -17484,7 +17229,200 @@
         <rFont val="等线"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dɪˈtɔ</t>
+      <t>riəm]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>heraldic [həˈrældɪk]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparedness  [prɪˈperdnəs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>brackish [ˈbrækɪʃ]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ventilation [ˌvɛntəˈleɪʃən]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>articulation [ɑrˌtɪkjuˈleɪʃn]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>perennial [pəˈreniəl]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascertain  [ˌæsərˈteɪn]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandiose  [ˈgrændioʊs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>chimpanzee  [ˌtʃɪmpænˈzi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissonance [ˈdɪsənəns]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ornamentation  [ˌɔrnəmenˈteɪʃn]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>premium [ˈpri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miəm]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 保险费；额外费用；奖金；津贴
+[adj] 优质的；昂贵的；价格更高的 Amazon ~ 亚马逊优选</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>waft [wɑft]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>repugnant [rɪˈpʌɡnənt]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>amenity [əˈmenəti]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm [ˈpærədaɪm]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>frugality [fruˈɡælətɪ]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>scrutiny  [ˈskru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>təni]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>meander  [miˈændər]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>recalcitrant  [rɪˈkælsɪtrənt]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apathy  [ˈæpəθi]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncanny  [ʌnˈkæni]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentious [kənˈtɛnʃəs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>deride [dɪˈraɪd]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstemious [əbˈsti:miəs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exploitative  [ɪkˈsplɔɪtətɪv]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevaricate [prɪˈværɪˌket]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>salubrious [səˈlubriəs]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>subpoena  [səˈpinə]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>translucent [trænzˈlu</t>
     </r>
     <r>
       <rPr>
@@ -17504,226 +17442,757 @@
         <rFont val="等线"/>
         <scheme val="minor"/>
       </rPr>
-      <t>riəm]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>heraldic [həˈrældɪk]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>preparedness  [prɪˈperdnəs]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>brackish [ˈbrækɪʃ]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ventilation [ˌvɛntəˈleɪʃən]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>articulation [ɑrˌtɪkjuˈleɪʃn]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>perennial [pəˈreniəl]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ascertain  [ˌæsərˈteɪn]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>grandiose  [ˈgrændioʊs]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>chimpanzee  [ˌtʃɪmpænˈzi</t>
+      <t>snt]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>flout  [flaʊt]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 叙述；讲故事；叙事技巧 adj. 叙述的,故事体的,善于叙述的 memecoin ~ meme币的叙事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>impermeable [ɪmˈpɜrmiəbl]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>impede vt. 阻止阻碍妨碍 permit v. 允许许可 n. 许可证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sabotage [ˈsæbəˌtɑʒ] ta-xi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>striate [ˈstraɪˌet] trai-et</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 圣人；智者；鼠尾草
+[adj] 贤明的；明智的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] （人）适于拍摄电视的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>telegenic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 独角戏；滔滔不绝的讲话；个人的长篇大论；（戏剧、电影等的）独白</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>monologue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 巨大的；强大的；极端重要的；四价钛的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>titanic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymmetrical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymmetric adj. 不对称的
+symmetric adj. 对称的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj.] 不对称的；非对称的；不均匀的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 少量；少许；贫乏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">paucity /'pɔsəti/ </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>coagulate  /kəʊ'ægjuleɪt/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] (使)凝结；(使)成一体；凝聚；使…凝固
+[n] 凝块；凝聚体
+the blood began to ~around the edge of the wound. 伤口边缘的血还是凝结</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 负债；债务；义务；惹麻烦的人（或事）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>liability</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 简要的；简短生硬的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>terse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adv] 认真地；恳切地；起劲地；一本正经地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>earnestly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 振动；振荡；摆动；（情感或行为）摇摆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oscillate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 挽歌；挽诗；哀歌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>elegy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 服装；衣服
+[v] 打扮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 有道理的；可信的；巧言令色的；花言巧语的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>plausible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 渴望；热切；热衷于；热情的
+[n] 恸哭；(号哭着唱出的)挽歌
+[v] （为死者）恸哭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>keen /kin/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 典范；完人
+[v] 〈诗〉比较；强过；〈古〉与…竞争</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>paragon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 自由基；激进分子；游离基
+[adj] 根本的；彻底的；完全的；全新的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 敷衍的；例行公事般的；潦草的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 绝望；失去希望；丧失信心
+[n] 绝望</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>desperate wife 绝望的主妇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>despair [dɪˈsper]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 乡下人；乡巴佬
+[adj] 乡村（人）的；乡村（人）特色的；淳朴的；用粗糙木材做成的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>rustic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 无法分辨的；无法区分的；不清楚的；无法识别的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>indistinguishable</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 女神；极受崇拜（或敬慕）的女人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>goddess</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 摆阔的；铺张的；浮华的；炫耀的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ostentatious /.ɑsten'teɪʃəs/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mudguard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mud n. 泥土 guard n. 守卫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 挡泥板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 充满；弥漫；厚的；粗的
+[n] 最厚[粗]的部分；〈口〉笨蛋；〈俚〉可可粉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 中世纪的（约公元 1000 到 1450 年）
+[网络] 中古的；中世纪战争；仿中世纪的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>medieval /.medi'iv(ə)l/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 只有内行才懂的；难领略的
+[n] 受秘传的人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>esoteric</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 互相关联；相关物
+[v] 相互关联影响；显示…的紧密联系
+[adj] 关联的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>correlate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 掺假
+[adj] 搀假的；伪的；通奸的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adulterate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adult n. 成人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 支撑；支柱；撑杆；支杆
+[v] 趾高气扬地走；高视阔步</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>strut</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 仔细查看；认真检查；细致审查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">scrutinize  /'skrut(ə)n.aɪz/ </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrutiny n. 细看,审阅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 虔诚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>piety</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.国家的主权; 君权，最高统治权; 独立自主; 主权国家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign adj.外国的,异质的 a ~ object in your nose 鼻子里有个异物
+rein v. 缰绳,统治
+long may she rein 风中的女王台词</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫穷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾越</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>缜密</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢，盛装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空缺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱指手画脚的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻碍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>文盲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同情</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>球体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分歧的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>光滑的，油亮的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无可匹敌的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精巧的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使…全神贯注,占据…时间精力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏暗的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平和的，乡村美丽的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前厅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻佻，轻浮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按字母顺序的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>降级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次装修，革新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴郁的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>民间故事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆生的，地球上的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛痘</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法和解的，不饶人的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞，不前进</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>白蚁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>思虑，考量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕吐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食虫性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>摔跤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>引出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷涌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前任</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是…基础,构成…条件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷漠，不关心</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄意破坏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>叙事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金发女郎，金发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>加…条纹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可开发的，可利用的，可剥削的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸润，浸湿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始的，质朴的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲近的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>四合院</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通风</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时间顺序的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>强迫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使…不同</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱经风霜的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>起源于</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外科医生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>氮气</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大使馆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大猩猩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽真空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓越的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分歧</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小偷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…之前</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕过，越过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询师，分析师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>矛盾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细审视，审查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的，泰坦尼克号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不对称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>真诚地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中世纪的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>和…相关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>掺假</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审视，仔细检查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主权，主权国家</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 习惯；程序；仪规；礼节
+[adj] 仪式上的；庆典的；习惯的；老套的
+unwarranted ritual 繁琐的礼节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚊子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>quadrangle [ˈkwɑdræ</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ː</t>
+      <t>ŋ</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dissonance [ˈdɪsənəns]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ornamentation  [ˌɔrnəmenˈteɪʃn]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>premium [ˈpri</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>miəm]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 保险费；额外费用；奖金；津贴
-[adj] 优质的；昂贵的；价格更高的 Amazon ~ 亚马逊优选</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>waft [wɑft]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>repugnant [rɪˈpʌɡnənt]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>amenity [əˈmenəti]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>paradigm [ˈpærədaɪm]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>frugality [fruˈɡælətɪ]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>scrutiny  [ˈskru</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>təni]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>meander  [miˈændər]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>recalcitrant  [rɪˈkælsɪtrənt]</t>
+      <t>gl]</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>monotonous [məˈnɑ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tənəs]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apathy  [ˈæpəθi]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncanny  [ʌnˈkæni]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentious [kənˈtɛnʃəs]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>deride [dɪˈraɪd]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>abstemious [əbˈsti:miəs]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>exploitative  [ɪkˈsplɔɪtətɪv]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prevaricate [prɪˈværɪˌket]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>salubrious [səˈlubriəs]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>subpoena  [səˈpinə]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>translucent [trænzˈlu</t>
     </r>
     <r>
       <rPr>
@@ -17743,253 +18212,8 @@
         <rFont val="等线"/>
         <scheme val="minor"/>
       </rPr>
-      <t>snt]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>flout  [flaʊt]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 叙述；讲故事；叙事技巧 adj. 叙述的,故事体的,善于叙述的 memecoin ~ meme币的叙事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>impermeable [ɪmˈpɜrmiəbl]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>impede vt. 阻止阻碍妨碍 permit v. 允许许可 n. 许可证</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sabotage [ˈsæbəˌtɑʒ] ta-xi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>striate [ˈstraɪˌet] trai-et</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>贫穷</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇敢，华丽，盛装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分歧的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻碍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小心翼翼的，一尘不染的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使…全神贯注,占据..时间精力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>平和的，宁静的，风景优美的，田园牧歌的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴郁的，闷闷不乐的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法和解的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕吐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>引出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷涌</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷漠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可渗透的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄意破坏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>叙事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>给…加条纹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>节俭的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sage</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 圣人；智者；鼠尾草
-[adj] 贤明的；明智的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] （人）适于拍摄电视的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>telegenic</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 独角戏；滔滔不绝的讲话；个人的长篇大论；（戏剧、电影等的）独白</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>monologue</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 巨大的；强大的；极端重要的；四价钛的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>titanic</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>asymmetrical</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>asymmetric adj. 不对称的
-symmetric adj. 对称的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj.] 不对称的；非对称的；不均匀的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 少量；少许；贫乏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">paucity /'pɔsəti/ </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>coagulate  /kəʊ'ægjuleɪt/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[v] (使)凝结；(使)成一体；凝聚；使…凝固
-[n] 凝块；凝聚体
-the blood began to ~around the edge of the wound. 伤口边缘的血还是凝结</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 负债；债务；义务；惹麻烦的人（或事）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>liability</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 简要的；简短生硬的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>terse</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adv] 认真地；恳切地；起劲地；一本正经地</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>earnestly</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[v] 振动；振荡；摆动；（情感或行为）摇摆</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>oscillate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 挽歌；挽诗；哀歌</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>elegy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 服装；衣服
-[v] 打扮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>attire</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 有道理的；可信的；巧言令色的；花言巧语的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>plausible</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 渴望；热切；热衷于；热情的
-[n] 恸哭；(号哭着唱出的)挽歌
-[v] （为死者）恸哭</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>keen /kin/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 典范；完人
-[v] 〈诗〉比较；强过；〈古〉与…竞争</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>paragon</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 自由基；激进分子；游离基
-[adj] 根本的；彻底的；完全的；全新的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 敷衍的；例行公事般的；潦草的</t>
+      <t>tənəs]</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -17999,6 +18223,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
@@ -18009,9 +18234,8 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>kt(ə)ri/ t不发音</t>
@@ -18019,146 +18243,2251 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[v] 绝望；失去希望；丧失信心
-[n] 绝望</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>desperate wife 绝望的主妇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>despair [dɪˈsper]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 乡下人；乡巴佬
-[adj] 乡村（人）的；乡村（人）特色的；淳朴的；用粗糙木材做成的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rustic</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 无法分辨的；无法区分的；不清楚的；无法识别的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>indistinguishable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 女神；极受崇拜（或敬慕）的女人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>goddess</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 摆阔的；铺张的；浮华的；炫耀的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ostentatious /.ɑsten'teɪʃəs/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mudguard</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mud n. 泥土 guard n. 守卫</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 挡泥板</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 充满；弥漫；厚的；粗的
-[n] 最厚[粗]的部分；〈口〉笨蛋；〈俚〉可可粉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 中世纪的（约公元 1000 到 1450 年）
-[网络] 中古的；中世纪战争；仿中世纪的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>medieval /.medi'iv(ə)l/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[adj] 只有内行才懂的；难领略的
-[n] 受秘传的人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>esoteric</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 互相关联；相关物
-[v] 相互关联影响；显示…的紧密联系
-[adj] 关联的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>correlate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[v] 掺假
-[adj] 搀假的；伪的；通奸的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>adulterate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>adult n. 成人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 支撑；支柱；撑杆；支杆
-[v] 趾高气扬地走；高视阔步</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>strut</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[v] 仔细查看；认真检查；细致审查</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">scrutinize  /'skrut(ə)n.aɪz/ </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>scrutiny n. 细看,审阅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[n] 虔诚</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>piety</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.国家的主权; 君权，最高统治权; 独立自主; 主权国家</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign adj.外国的,异质的 a ~ object in your nose 鼻子里有个异物
-rein v. 缰绳,统治
-long may she rein 风中的女王台词</t>
+    <t>lucid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 清楚的，明白的; 神志清醒的; 清澈的，透明的; [动，植]光滑的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 征收；征（税）
+[n] 征收额；（尤指）税款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>levy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 游击队员；坚定的支持者；铁杆拥护者
+[adj] （对个别人、团体或思想）过分支持的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>partisan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>party n. 党</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 拐弯抹角的；含混不清的；冗长费解的；弯弯曲曲的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tortuous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 警觉的；警惕的；警戒的；谨慎</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vigilant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 简明的；言简意赅的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>succinct</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 淹没；溺死；浸透；浸泡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>drown</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 在…上雕刻（字或图案）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>engrave</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 责骂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vituperative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 流行；时髦；风尚；风行
+[adj] 时髦的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vogue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 震荡的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>concussive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 无神论的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>atheistic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 展览；展出；表演；（一批）展览品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 遵从；顺从；服从</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 沿海的；靠近海岸的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>coastal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 专利；专利权；专利证
+[adj] 专利(的)；显然；明摆着的 v 取得专利权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>patent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 归纳；概括；笼统地讲；概括地谈论</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>generalize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 管理的；行政的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrative</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 任命；委任；确定（时间、地点）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 迂回的；间接的；兜圈子的
+[n] （交通）环岛；（游乐设施）旋转平台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundabout</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 接待；招待会；欢迎；欢迎会</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 辐射；放射线；辐射的热（或能量等）；放射疗法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 驼鹿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>elk</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nestle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. 安居，舒适地居住; 偎依，贴靠; 半隐半现地处于; [古语] 筑巢
+vt. 满意地依偎或紧贴; 抱，放; 安置
+Nestle coffe 雀巢咖啡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 临床的；临床诊断的；冷淡的；无动于衷的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinical</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinic n. 诊所</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 取回；索回；数据检索</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>retrieval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 帝国的; 皇帝的; （度量衡）英制的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradoxically</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adv] 反论; 荒谬; 自相矛盾; 似非而可能是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 连续不断的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>consecutive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 加强；改善
+[n] 垫枕（长而厚）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolster</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] （使）稳定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stabilize</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 持不同意见者；独行其是者；言行与众不同者
+[v] 迷路</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>maverick</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oyster</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 生蚝；鸡背肉；极少开口的人；〈俚〉守秘密的人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房餐桌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 生蚝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 虾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrimp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>花椰菜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cucumber</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lettuce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>broccoli</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>onion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>celery</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 平底锅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 炉子,炉灶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stove</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 煤气,燃气</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>oven</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 烤箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>microwave oven</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 微波炉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 有说服力的；令人信服的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cogent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 迷惑；使困惑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>perplex</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>噪音控制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>noise abatement</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>abatement n. 减轻,减少,废除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 羞怯；谦虚；缺乏自信；猜疑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffidence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cunning</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 狡猾；诡诈；狡黠
+[adj] 狡猾的；奸诈的；诡诈的；灵巧的
+Chinese are ~ 美外交官发言人说的话</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 取代；置换；转移；替代</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>displace</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 声音的；录音的 ~ and video 音视频</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v] 蒸馏；用蒸馏法提取；蒸馏出 (off； out)；提取…的精华</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>distill</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 建议；提议；动议；求婚</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 赔偿；补偿；归还（真正物主）；归还（赃物等）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>restitution</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 调解的；抚慰的；意在和解的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>conciliatory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[adj] 巨大的；极大的；极好的；精彩的
+[adv] 非常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tremendous</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[n] 桨；船桨；（机具的）桨状部分；（尤指）食物搅拌器的桨叶
+[v] 用桨划船；蹚水；赤足涉水；狗爬式游泳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>paddle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(An)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>architect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(is required of)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>requires a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>problem</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>solving</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>problem-solving</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>skills and an eye of design</t>
+    </r>
+  </si>
+  <si>
+    <t>architect 建筑师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>artist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>rules of politics</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>a an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(artists and conservative politicians earn their)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Certain scientific principles must be</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>learn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>learned by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(a logical)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>verborlly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>verbally or</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>by biological conduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>deduction</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A celebrated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(theory)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ceremony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is still</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>a an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the source of great controversy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Students requiring</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>require a the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>an extension should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(apply)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>sooner rather than later</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>He landed his job in a very</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(prestigious)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>prestige</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>law firm</t>
+    </r>
+  </si>
+  <si>
+    <t>prestigious [adj] 有威望的；声誉高的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意单复数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(archeologist's)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>archaeologist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(discoveries)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>stand out in previously</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>overlook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>overlooked foundations</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Lectures are</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the oldest and the most</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(formal)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>teaching method at university</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Most</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>scientists believe that the climate change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(threatens)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>threaten threatening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>lives</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>lifes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>earth</t>
+    </r>
+  </si>
+  <si>
+    <t>注意时态单复数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Remember</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(prestigious election)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(stewardship has)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the lecture of have strictest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>strict</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>expert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>eligibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(criteria)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of critera criteras</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>criteria n. 标准(复数) criterion n. 单数 prestigious adj. 受尊敬的, 有声望的  stewardship n. 管事之人职位/管理工作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stewardship</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.管事人之职位及职责; 管理工作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>criteria</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 评判标准</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(curriculum)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>curricular need</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>needed to be adjusted for the current development</t>
+    </r>
+  </si>
+  <si>
+    <t>curriculum n. 课程表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Radio is a popular form of entertainment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(throughout)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>throught</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the world</t>
+    </r>
+  </si>
+  <si>
+    <t>throughout</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(Studies show)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Study shows that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>there is</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>there's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(positive)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>possible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>correlation between</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>two variables</t>
+    </r>
+  </si>
+  <si>
+    <t>注意单复数，回忆的时候记错了 positive 记成了 possible</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>city</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>city's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(founders)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>funder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>have has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>created</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(a set of)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>several</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>rules</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>became</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>become law</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>laws</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The course helps students to improve their</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(pronunciation)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>pounciation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>skills</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ponuncation</t>
+    </r>
+  </si>
+  <si>
+    <t>pronunciation n. 发音</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronounce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gush</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 喷涌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 发音 pronunciation n. 发音（noun是动词, nun是名词）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(plight)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>pilot plant plenty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(wildlife)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>wild lifes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>been ignored by local developers</t>
+    </r>
+  </si>
+  <si>
+    <t>plight n.困境 wildlife n. 野生动物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The director of the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(gallery)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>galary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(grateful)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>greatful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>for the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(anonymous)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>anumrous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>donation</t>
+    </r>
+  </si>
+  <si>
+    <t>gallery n. 画廊 anonymous adj. 匿名的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The professor took a year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(off)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>and a half</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>on her</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>his</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>book</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The vocabulary that has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(peculiar meanings)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>special meaning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is called jargon</t>
+    </r>
+  </si>
+  <si>
+    <t>peculiar adj. 奇异的,独特的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>His appointment as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Minister)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ministor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>culture was</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(seen as)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>sign sing of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>demotion</t>
+    </r>
+  </si>
+  <si>
+    <t>Minister 大写</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(Continuing)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Continous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>students will be sent necessary application forms</t>
+    </r>
+  </si>
+  <si>
+    <t>continuing adj.连续的 continuous adj. 连续的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(cooperator)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>opeator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>operates a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(continuous)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>contining</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>assessment</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>continous</t>
+    </r>
+  </si>
+  <si>
+    <t>continuous adj. 连续的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>University</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Universities should invest in new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(technologies)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>technology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>designed for learning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(reception)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>staff can give advice</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>advise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>about renting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(private)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>accommodation</t>
+    </r>
+  </si>
+  <si>
+    <t>reception n. 接待处</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>opening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(hours)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>openning areas area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of the library are</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF12D3BF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>reduced during summer</t>
+    </r>
+  </si>
+  <si>
+    <t>hours 回忆不起来</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -18166,7 +20495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18307,6 +20636,26 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -18461,7 +20810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18615,9 +20964,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -18626,6 +20972,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18647,6 +21005,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18938,19 +21299,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="133.375" customWidth="1"/>
+    <col min="2" max="2" width="123.75" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20062,13 +22423,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>2786</v>
+        <v>2778</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>2787</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.25">
@@ -20076,7 +22437,7 @@
         <v>45</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2788</v>
+        <v>2780</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -20087,13 +22448,13 @@
         <v>683</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2789</v>
+        <v>2781</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>2790</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.25">
@@ -20101,13 +22462,13 @@
         <v>556</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2791</v>
+        <v>2783</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>2792</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.25">
@@ -20115,7 +22476,7 @@
         <v>550</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2793</v>
+        <v>2785</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -20126,13 +22487,13 @@
         <v>469</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2794</v>
+        <v>2786</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>2795</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.25">
@@ -20140,7 +22501,7 @@
         <v>450</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2796</v>
+        <v>2788</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -20151,7 +22512,7 @@
         <v>418</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2797</v>
+        <v>2789</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
@@ -20162,14 +22523,343 @@
         <v>225</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2798</v>
+        <v>2790</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>2799</v>
-      </c>
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17.25">
+      <c r="A99">
+        <v>56</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17.25">
+      <c r="A101">
+        <v>81</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17.25">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="17.25">
+      <c r="A103">
+        <v>310</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="17.25">
+      <c r="A104">
+        <v>136</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17.25">
+      <c r="A105">
+        <v>333</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17.25">
+      <c r="A106">
+        <v>179</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="17.25">
+      <c r="A107">
+        <v>201</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="17.25">
+      <c r="A108">
+        <v>267</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17.25">
+      <c r="A109">
+        <v>374</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="17.25">
+      <c r="A110">
+        <v>258</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="17.25">
+      <c r="A111">
+        <v>317</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="17.25">
+      <c r="A112">
+        <v>361</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="17.25">
+      <c r="A113">
+        <v>370</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17.25">
+      <c r="A114">
+        <v>439</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="17.25">
+      <c r="A115">
+        <v>382</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="17.25">
+      <c r="A116">
+        <v>441</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17.25">
+      <c r="A117">
+        <v>494</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17.25">
+      <c r="A118">
+        <v>186</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="17.25">
+      <c r="A119">
+        <v>600</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17.25">
+      <c r="A120">
+        <v>644</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17.25">
+      <c r="A121">
+        <v>675</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="17.25">
+      <c r="A122">
+        <v>690</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="17.25">
+      <c r="A123">
+        <v>695</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="16.5">
+      <c r="B124" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -20180,10 +22870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F88"/>
+  <dimension ref="B1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21347,38 +24037,54 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="9" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="9" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="9" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="9" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C86" t="s">
         <v>2510</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="9" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C87" t="s">
         <v>2554</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2555</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="9" t="s">
-        <v>2556</v>
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="9" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="9" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3250</v>
       </c>
     </row>
   </sheetData>
@@ -21898,10 +24604,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView topLeftCell="A181" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21923,10 +24629,10 @@
         <v>687</v>
       </c>
       <c r="C1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -21937,7 +24643,7 @@
         <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21967,7 +24673,7 @@
         <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -21994,7 +24700,7 @@
         <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -22010,15 +24716,15 @@
         <v>887</v>
       </c>
       <c r="C10" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C11" t="s">
         <v>2546</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2547</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -22029,7 +24735,7 @@
         <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -22056,7 +24762,7 @@
         <v>564</v>
       </c>
       <c r="D15" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -22067,7 +24773,7 @@
         <v>1013</v>
       </c>
       <c r="D16" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22094,7 +24800,7 @@
         <v>2248</v>
       </c>
       <c r="D19" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22113,7 +24819,7 @@
         <v>353</v>
       </c>
       <c r="D21" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22124,7 +24830,7 @@
         <v>331</v>
       </c>
       <c r="D22" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -22143,7 +24849,7 @@
         <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -22154,7 +24860,7 @@
         <v>337</v>
       </c>
       <c r="D25" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -22165,7 +24871,7 @@
         <v>1166</v>
       </c>
       <c r="D26" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -22176,29 +24882,29 @@
         <v>1875</v>
       </c>
       <c r="D27" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="32" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C28" t="s">
         <v>2512</v>
       </c>
-      <c r="C28" t="s">
-        <v>2513</v>
-      </c>
       <c r="D28" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="32" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C29" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D29" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -22209,18 +24915,18 @@
         <v>339</v>
       </c>
       <c r="D30" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C31" t="s">
         <v>2635</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>2636</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2637</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -22246,7 +24952,7 @@
         <v>344</v>
       </c>
       <c r="C37" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="42.75">
@@ -22401,7 +25107,7 @@
     </row>
     <row r="60" spans="1:3" ht="27.75">
       <c r="A60" s="41" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B60" t="s">
         <v>1432</v>
@@ -22532,10 +25238,10 @@
     </row>
     <row r="76" spans="2:4" ht="28.5">
       <c r="B76" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>2607</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -22834,10 +25540,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>2557</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -22845,7 +25551,7 @@
         <v>452</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="42.75">
@@ -23031,18 +25737,18 @@
     </row>
     <row r="139" spans="1:3">
       <c r="B139" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>2549</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="B140" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>2552</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -23117,10 +25823,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="B150" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>2698</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>2699</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="27.75">
@@ -23179,36 +25885,47 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="27.75">
-      <c r="A161" s="41" t="s">
+    <row r="159" spans="1:3">
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3" ht="27.75">
+      <c r="A160" s="41" t="s">
         <v>2299</v>
       </c>
+      <c r="B160" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="B161" t="s">
-        <v>2300</v>
+        <v>2316</v>
       </c>
       <c r="C161" t="s">
-        <v>2301</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="B162" t="s">
-        <v>2316</v>
+        <v>2328</v>
       </c>
       <c r="C162" t="s">
-        <v>2317</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="B163" t="s">
-        <v>2328</v>
+        <v>2342</v>
       </c>
       <c r="C163" t="s">
-        <v>2329</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="B164" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C164" t="s">
         <v>2515</v>
@@ -23216,37 +25933,37 @@
     </row>
     <row r="165" spans="1:3">
       <c r="B165" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
       <c r="C165" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="B166" t="s">
-        <v>2345</v>
+        <v>2615</v>
       </c>
       <c r="C166" t="s">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="B167" t="s">
-        <v>2616</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="27.75">
-      <c r="A169" s="41" t="s">
-        <v>2551</v>
-      </c>
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="27.75">
+      <c r="A168" s="41" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="B169" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="C169" t="s">
-        <v>2490</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -23297,18 +26014,18 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" ht="27.75">
+      <c r="A176" s="41" t="s">
+        <v>2645</v>
+      </c>
       <c r="B176" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="C176" t="s">
         <v>2523</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="27.75">
-      <c r="A177" s="41" t="s">
-        <v>2646</v>
-      </c>
+    <row r="177" spans="1:3">
       <c r="B177" t="s">
         <v>2491</v>
       </c>
@@ -23320,24 +26037,24 @@
       <c r="B178" t="s">
         <v>2492</v>
       </c>
-      <c r="C178" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+    </row>
+    <row r="179" spans="1:3" ht="27.75">
+      <c r="A179" s="41" t="s">
+        <v>2646</v>
+      </c>
       <c r="B179" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="27.75">
-      <c r="A180" s="41" t="s">
         <v>2647</v>
       </c>
+      <c r="C179" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="B180" t="s">
         <v>2648</v>
       </c>
       <c r="C180" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -23345,7 +26062,7 @@
         <v>2649</v>
       </c>
       <c r="C181" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -23353,7 +26070,7 @@
         <v>2650</v>
       </c>
       <c r="C182" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -23361,15 +26078,133 @@
         <v>2651</v>
       </c>
       <c r="C183" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="B184" t="s">
         <v>2652</v>
       </c>
-      <c r="C184" t="s">
-        <v>2653</v>
+    </row>
+    <row r="186" spans="1:3" ht="27.75">
+      <c r="A186" s="41" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="B187" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="B188" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="B189" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="B191" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="B192" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="B193" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="B196" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="B197" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="27.75">
+      <c r="A200" s="41" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="B201" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3263</v>
       </c>
     </row>
   </sheetData>
@@ -31051,21 +33886,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="61"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10" t="s">
@@ -31134,7 +33969,7 @@
         <v>92</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -31169,7 +34004,7 @@
         <v>163</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -31204,7 +34039,7 @@
         <v>1808</v>
       </c>
       <c r="K5" s="44" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31239,7 +34074,7 @@
         <v>1811</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -31265,16 +34100,16 @@
         <v>19</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="I7" s="43" t="s">
+        <v>2559</v>
+      </c>
+      <c r="J7" s="43" t="s">
         <v>2560</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="K7" s="44" t="s">
         <v>2561</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>2562</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -31300,7 +34135,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>93</v>
@@ -31309,7 +34144,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31332,19 +34167,19 @@
         <v>18</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>2785</v>
+        <v>2777</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>2771</v>
+        <v>2763</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>2800</v>
+        <v>2792</v>
       </c>
       <c r="J9" s="43" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -31379,7 +34214,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -31414,7 +34249,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -31449,7 +34284,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -31484,7 +34319,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -31519,7 +34354,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -31554,7 +34389,7 @@
         <v>17</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -31589,7 +34424,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -31624,7 +34459,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -31659,7 +34494,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -31694,7 +34529,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -31729,7 +34564,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -31764,7 +34599,7 @@
         <v>17</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -31799,7 +34634,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -31834,7 +34669,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -31869,7 +34704,7 @@
         <v>17</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -31904,7 +34739,7 @@
         <v>17</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -31939,7 +34774,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -31974,7 +34809,7 @@
         <v>17</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -32009,7 +34844,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
   </sheetData>
@@ -32044,7 +34879,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>98</v>
@@ -32064,7 +34899,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75">
@@ -32072,10 +34907,10 @@
         <v>70</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D4" s="48">
         <f>2/4</f>
@@ -32087,10 +34922,10 @@
         <v>258</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D5" s="19">
         <f>3/4</f>
@@ -32102,10 +34937,10 @@
         <v>251</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>2566</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2567</v>
       </c>
       <c r="D6" s="19">
         <f>4/4</f>
@@ -32117,10 +34952,10 @@
         <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>2570</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>2571</v>
       </c>
       <c r="D7" s="19">
         <f>4/5</f>
@@ -32132,7 +34967,7 @@
         <v>232</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42.75">
@@ -32140,10 +34975,10 @@
         <v>203</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D9" s="48">
         <f>1/3</f>
@@ -32155,10 +34990,10 @@
         <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D10" s="19">
         <f>4/5</f>
@@ -32170,7 +35005,7 @@
         <v>186</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>15</v>
@@ -32185,10 +35020,10 @@
         <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D12" s="19">
         <v>0.75</v>
@@ -32199,10 +35034,10 @@
         <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D13" s="19">
         <v>0.8</v>
@@ -32213,10 +35048,10 @@
         <v>168</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>2580</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>2581</v>
       </c>
       <c r="D14" s="48">
         <f>2/5</f>
@@ -32228,10 +35063,10 @@
         <v>156</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D15" s="19">
         <v>0.8</v>
@@ -32242,10 +35077,10 @@
         <v>155</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D16" s="19">
         <v>0.75</v>
@@ -32256,10 +35091,10 @@
         <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D17" s="19">
         <f>5/6</f>
@@ -32271,10 +35106,10 @@
         <v>898</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>2688</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>2689</v>
       </c>
       <c r="D18" s="19">
         <f>3/3</f>
@@ -32286,7 +35121,7 @@
         <v>884</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D19" s="19">
         <f>3/3</f>
@@ -32298,10 +35133,10 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D20" s="19">
         <f>2/4</f>
@@ -32313,10 +35148,10 @@
         <v>143</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>2692</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>2693</v>
       </c>
       <c r="D21" s="19">
         <f>3/4</f>
@@ -32328,10 +35163,10 @@
         <v>142</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D22" s="48">
         <f>2/4</f>
@@ -32343,10 +35178,10 @@
         <v>137</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D23" s="19">
         <v>0.75</v>
@@ -32357,10 +35192,10 @@
         <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D24" s="19">
         <f>3/3</f>
@@ -32372,10 +35207,10 @@
         <v>105</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D25" s="48">
         <f>2/4</f>
@@ -32387,10 +35222,10 @@
         <v>93</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D26" s="48">
         <f>1/4</f>
@@ -32402,10 +35237,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D27" s="19">
         <f>5/6</f>
@@ -32417,10 +35252,10 @@
         <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D28" s="19">
         <f>4/5</f>
@@ -32432,10 +35267,10 @@
         <v>56</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>2755</v>
+        <v>2747</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>2754</v>
+        <v>2746</v>
       </c>
       <c r="D29" s="48">
         <f>2/5</f>
@@ -32447,10 +35282,10 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2757</v>
+        <v>2749</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>2756</v>
+        <v>2748</v>
       </c>
       <c r="D30" s="19">
         <f>3/4</f>
@@ -32463,7 +35298,7 @@
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="26" t="s">
-        <v>2758</v>
+        <v>2750</v>
       </c>
       <c r="D31" s="48">
         <f>3/7</f>
@@ -32475,10 +35310,10 @@
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2759</v>
+        <v>2751</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>2756</v>
+        <v>2748</v>
       </c>
       <c r="D32" s="19">
         <f>3/4</f>
@@ -32490,10 +35325,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>2761</v>
+        <v>2753</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>2760</v>
+        <v>2752</v>
       </c>
       <c r="D33" s="48">
         <f>2/4</f>
@@ -32505,10 +35340,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2763</v>
+        <v>2755</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>2762</v>
+        <v>2754</v>
       </c>
       <c r="D34" s="19">
         <f>3/5</f>
@@ -32520,10 +35355,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>2764</v>
+        <v>2756</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>2760</v>
+        <v>2752</v>
       </c>
       <c r="D35" s="48">
         <f>2/4</f>
@@ -32535,10 +35370,10 @@
         <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2765</v>
+        <v>2757</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>2766</v>
+        <v>2758</v>
       </c>
       <c r="D36" s="19">
         <f>6/7</f>
@@ -32550,10 +35385,10 @@
         <v>111</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>2767</v>
+        <v>2759</v>
       </c>
       <c r="D37" s="19">
         <f>4/4</f>
@@ -32565,10 +35400,10 @@
         <v>106</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>2770</v>
+        <v>2762</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>2769</v>
+        <v>2761</v>
       </c>
       <c r="D38" s="48">
         <f>1/6</f>
@@ -32593,7 +35428,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="57.625" customWidth="1"/>
-    <col min="3" max="3" width="9" style="53"/>
+    <col min="3" max="3" width="9" style="52"/>
     <col min="4" max="4" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -32602,9 +35437,9 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2579</v>
-      </c>
-      <c r="C1" s="54" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>98</v>
       </c>
       <c r="D1" s="19" t="s">
@@ -32622,10 +35457,10 @@
         <v>863</v>
       </c>
       <c r="B3" t="s">
-        <v>2772</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>2568</v>
+        <v>2764</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>2567</v>
       </c>
       <c r="D3" s="19">
         <f>3/4</f>
@@ -32637,10 +35472,10 @@
         <v>860</v>
       </c>
       <c r="B4" t="s">
-        <v>2773</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>2568</v>
+        <v>2765</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>2567</v>
       </c>
       <c r="D4" s="19">
         <f>3/4</f>
@@ -32652,10 +35487,10 @@
         <v>485</v>
       </c>
       <c r="B5" t="s">
-        <v>2775</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>2774</v>
+        <v>2767</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>2766</v>
       </c>
       <c r="D5" s="19">
         <f>3/5</f>
@@ -32667,10 +35502,10 @@
         <v>387</v>
       </c>
       <c r="B6" t="s">
-        <v>2776</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>2568</v>
+        <v>2768</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>2567</v>
       </c>
       <c r="D6" s="19">
         <v>0.75</v>
@@ -32681,10 +35516,10 @@
         <v>385</v>
       </c>
       <c r="B7" t="s">
-        <v>2778</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>2777</v>
+        <v>2770</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>2769</v>
       </c>
       <c r="D7" s="19">
         <f>2/3</f>
@@ -32695,8 +35530,8 @@
       <c r="A8">
         <v>343</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>2567</v>
+      <c r="C8" s="52" t="s">
+        <v>2566</v>
       </c>
       <c r="D8" s="19">
         <f>4/4</f>
@@ -32708,10 +35543,10 @@
         <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>2779</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>2569</v>
+        <v>2771</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>2568</v>
       </c>
       <c r="D9" s="19">
         <f>2/4</f>
@@ -32723,10 +35558,10 @@
         <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>2780</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>2571</v>
+        <v>2772</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>2570</v>
       </c>
       <c r="D10" s="19">
         <f>4/5</f>
@@ -32738,10 +35573,10 @@
         <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>2781</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>2567</v>
+        <v>2773</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>2566</v>
       </c>
       <c r="D11" s="19">
         <f>4/4</f>
@@ -32753,10 +35588,10 @@
         <v>326</v>
       </c>
       <c r="B12" t="s">
-        <v>2782</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>2573</v>
+        <v>2774</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>2572</v>
       </c>
       <c r="D12" s="19">
         <f>1/3</f>
@@ -32767,8 +35602,8 @@
       <c r="A13">
         <v>310</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>2567</v>
+      <c r="C13" s="52" t="s">
+        <v>2566</v>
       </c>
       <c r="D13" s="19">
         <f>4/4</f>
@@ -32780,10 +35615,10 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>2783</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>2774</v>
+        <v>2775</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>2766</v>
       </c>
       <c r="D14" s="19">
         <f>3/5</f>
@@ -32795,10 +35630,10 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>2784</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>2581</v>
+        <v>2776</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>2580</v>
       </c>
       <c r="D15" s="19">
         <f>2/5</f>
@@ -32813,17 +35648,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D201"/>
+  <dimension ref="A2:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="46.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="34.25" style="30" customWidth="1"/>
+    <col min="2" max="2" width="46.75" style="55" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="55" customWidth="1"/>
     <col min="4" max="4" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -32831,82 +35666,82 @@
       <c r="A2" s="29" t="s">
         <v>2432</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>2435</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>2801</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="29" t="s">
         <v>2433</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="55" t="s">
         <v>2434</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>2802</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="54" t="s">
         <v>2436</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="54" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>2633</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>2634</v>
-      </c>
       <c r="D4" s="29" t="s">
-        <v>3004</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5">
       <c r="A5" s="30" t="s">
         <v>2438</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="55" t="s">
         <v>2437</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>2686</v>
+      <c r="C5" s="54" t="s">
+        <v>2685</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>2803</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="29" t="s">
         <v>2439</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="55" t="s">
         <v>2440</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="55" t="s">
         <v>2441</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>2804</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="29" t="s">
         <v>1268</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>2505</v>
+      <c r="B7" s="55" t="s">
+        <v>2504</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>2805</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="34" t="s">
         <v>2442</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="54" t="s">
         <v>2443</v>
       </c>
     </row>
@@ -32914,78 +35749,81 @@
       <c r="A9" s="30" t="s">
         <v>1583</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="55" t="s">
         <v>2444</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>2806</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="34" t="s">
         <v>2446</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="54" t="s">
         <v>2445</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="54" t="s">
         <v>2448</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="54" t="s">
         <v>2447</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>3005</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.5">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="54" t="s">
         <v>1926</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="54" t="s">
         <v>2449</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>3016</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="29" t="s">
         <v>2451</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="55" t="s">
         <v>2450</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>2807</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="29" t="s">
         <v>2453</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="55" t="s">
         <v>2452</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>2808</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="42.75">
       <c r="A15" s="29" t="s">
         <v>1727</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="54" t="s">
         <v>2454</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>2809</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="34" t="s">
         <v>2456</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="54" t="s">
         <v>2455</v>
       </c>
     </row>
@@ -32993,1740 +35831,2168 @@
       <c r="A17" s="34" t="s">
         <v>2457</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>2855</v>
+      <c r="B17" s="54" t="s">
+        <v>2793</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="29" t="s">
         <v>2459</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="55" t="s">
         <v>2458</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>2810</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42.75">
       <c r="A19" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>2460</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>2811</v>
+      <c r="B19" s="54" t="s">
+        <v>3106</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5">
       <c r="A20" s="29" t="s">
         <v>1214</v>
       </c>
-      <c r="B20" s="51" t="s">
-        <v>2461</v>
+      <c r="B20" s="54" t="s">
+        <v>2460</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>2812</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>2462</v>
+      <c r="B21" s="55" t="s">
+        <v>2461</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>2813</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>2463</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>2814</v>
+      <c r="B22" s="55" t="s">
+        <v>2462</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.5">
       <c r="A23" s="30" t="s">
         <v>2021</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>2464</v>
+      <c r="B23" s="54" t="s">
+        <v>2463</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>2707</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="30" t="s">
         <v>2334</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="54" t="s">
         <v>2335</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>2708</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="42.75">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="54" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>2465</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>2466</v>
-      </c>
       <c r="D25" s="29" t="s">
-        <v>3006</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="29" t="s">
         <v>2020</v>
       </c>
-      <c r="B26" s="51" t="s">
-        <v>2467</v>
+      <c r="B26" s="54" t="s">
+        <v>2466</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>2815</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5">
       <c r="A27" s="30" t="s">
         <v>1935</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="54" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>2468</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>2469</v>
-      </c>
       <c r="D27" s="29" t="s">
-        <v>2709</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="34" t="s">
-        <v>2471</v>
-      </c>
-      <c r="B28" s="34" t="s">
         <v>2470</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>2469</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="42.75">
       <c r="A29" s="30" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>2714</v>
+        <v>2471</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>2706</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>2816</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="29" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>2474</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>2473</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>2475</v>
-      </c>
       <c r="D30" s="29" t="s">
-        <v>2817</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="57">
       <c r="A31" s="30" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5">
+      <c r="A32" s="54" t="s">
         <v>2476</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>2715</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>2818</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5">
-      <c r="A32" s="34" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>2856</v>
+      <c r="B32" s="54" t="s">
+        <v>2794</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>3007</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B33" s="51" t="s">
         <v>2478</v>
       </c>
-      <c r="D33" s="29" t="s">
-        <v>2819</v>
+      <c r="B33" s="54" t="s">
+        <v>2477</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="29" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C34" s="55" t="s">
         <v>2481</v>
       </c>
-      <c r="B34" s="51" t="s">
-        <v>2480</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>2482</v>
-      </c>
       <c r="D34" s="29" t="s">
-        <v>2820</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.5">
       <c r="A35" s="34" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5">
+      <c r="A36" s="54" t="s">
         <v>2494</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>2716</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.5">
-      <c r="A36" s="34" t="s">
-        <v>2495</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>2717</v>
+      <c r="B36" s="54" t="s">
+        <v>2709</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>3009</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="29" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5">
+      <c r="A38" s="54" t="s">
         <v>2497</v>
       </c>
-      <c r="B37" s="51" t="s">
-        <v>2496</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.5">
-      <c r="A38" s="34" t="s">
-        <v>2498</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>2718</v>
+      <c r="B38" s="54" t="s">
+        <v>2710</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>3010</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.5">
       <c r="A39" s="30" t="s">
-        <v>2499</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>2719</v>
+        <v>2498</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>2711</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>2822</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="29" t="s">
         <v>1720</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="54" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C40" s="55" t="s">
         <v>2500</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>2501</v>
-      </c>
       <c r="D40" s="29" t="s">
-        <v>2823</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="49" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C41" s="55" t="s">
         <v>2502</v>
       </c>
-      <c r="B41" s="51" t="s">
-        <v>2504</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>2503</v>
-      </c>
       <c r="D41" s="29" t="s">
-        <v>2824</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="29" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B42" s="54" t="s">
         <v>2587</v>
       </c>
-      <c r="B42" s="51" t="s">
-        <v>2588</v>
-      </c>
       <c r="D42" s="29" t="s">
-        <v>2825</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="29" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B43" s="54" t="s">
         <v>2589</v>
       </c>
-      <c r="B43" s="51" t="s">
-        <v>2590</v>
-      </c>
       <c r="D43" s="29" t="s">
-        <v>2826</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="34" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>2591</v>
+        <v>2622</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>2590</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="34" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>2592</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>2638</v>
+        <v>2623</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>2637</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="29" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B46" s="54" t="s">
         <v>2593</v>
       </c>
-      <c r="B46" s="51" t="s">
-        <v>2594</v>
-      </c>
       <c r="D46" s="29" t="s">
-        <v>2827</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="29" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B47" s="51" t="s">
         <v>2595</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>2630</v>
+      <c r="B47" s="54" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>2629</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>2828</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="29" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B48" s="51" t="s">
         <v>2597</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>2631</v>
+      <c r="B48" s="54" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>2630</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>2829</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="29" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="54" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B50" s="54" t="s">
         <v>2600</v>
       </c>
-      <c r="B49" s="51" t="s">
-        <v>2599</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="34" t="s">
-        <v>2625</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>2601</v>
-      </c>
       <c r="D50" s="29" t="s">
-        <v>3011</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="29" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B51" s="54" t="s">
         <v>2602</v>
       </c>
-      <c r="B51" s="51" t="s">
-        <v>2603</v>
-      </c>
       <c r="D51" s="29" t="s">
-        <v>2831</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="29" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B52" s="51" t="s">
         <v>2604</v>
       </c>
+      <c r="B52" s="54" t="s">
+        <v>2603</v>
+      </c>
       <c r="D52" s="29" t="s">
-        <v>2832</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.5">
       <c r="A53" s="29" t="s">
-        <v>2606</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>2639</v>
+        <v>2605</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>2638</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>2833</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="29" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B54" s="54" t="s">
         <v>2607</v>
       </c>
-      <c r="B54" s="51" t="s">
-        <v>2608</v>
-      </c>
       <c r="D54" s="29" t="s">
-        <v>2834</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.5">
-      <c r="A55" s="34" t="s">
-        <v>2629</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>2610</v>
+      <c r="A55" s="54" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>2609</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>3012</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="29" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.5">
+      <c r="A57" s="54" t="s">
         <v>2612</v>
       </c>
-      <c r="B56" s="51" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.5">
-      <c r="A57" s="34" t="s">
+      <c r="B57" s="54" t="s">
         <v>2613</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>2614</v>
+      <c r="D57" s="29" t="s">
+        <v>3051</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="30" t="s">
-        <v>2627</v>
-      </c>
-      <c r="B58" s="51" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C58" s="55" t="s">
         <v>2640</v>
       </c>
-      <c r="C58" s="30" t="s">
-        <v>2641</v>
-      </c>
       <c r="D58" s="29" t="s">
-        <v>2710</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="29" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="28.5">
+      <c r="A60" s="54" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="54" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B61" s="54" t="s">
         <v>2618</v>
       </c>
-      <c r="B59" s="51" t="s">
-        <v>2617</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>2836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="28.5">
-      <c r="A60" s="34" t="s">
-        <v>2626</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>2643</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="34" t="s">
-        <v>2628</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>2619</v>
+      <c r="D61" s="29" t="s">
+        <v>3055</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.5">
       <c r="A62" s="29" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C62" s="55" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="54" t="s">
         <v>2621</v>
       </c>
-      <c r="B62" s="51" t="s">
-        <v>2620</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>2632</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="34" t="s">
-        <v>2622</v>
-      </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="54" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="28.5">
+      <c r="A64" s="54" t="s">
         <v>2644</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="28.5">
-      <c r="A64" s="34" t="s">
-        <v>2645</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>2658</v>
+      <c r="B64" s="54" t="s">
+        <v>2657</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>3015</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="29" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C65" s="55" t="s">
         <v>2660</v>
       </c>
-      <c r="B65" s="51" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>2661</v>
-      </c>
       <c r="D65" s="29" t="s">
-        <v>2711</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="34" t="s">
-        <v>2991</v>
-      </c>
-      <c r="B66" s="34" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="54" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B67" s="54" t="s">
         <v>2662</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="34" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>2663</v>
-      </c>
       <c r="D67" s="29" t="s">
-        <v>2838</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="28.5">
       <c r="A68" s="34" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>2664</v>
+        <v>2926</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>2663</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="34" t="s">
-        <v>2989</v>
-      </c>
-      <c r="B69" s="34" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="28.5">
+      <c r="A70" s="54" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B70" s="54" t="s">
         <v>2665</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="28.5">
-      <c r="A70" s="34" t="s">
-        <v>2988</v>
-      </c>
-      <c r="B70" s="34" t="s">
+      <c r="C70" s="54" t="s">
         <v>2666</v>
       </c>
-      <c r="C70" s="51" t="s">
-        <v>2667</v>
-      </c>
       <c r="D70" s="29" t="s">
-        <v>3016</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="50" t="s">
         <v>1731</v>
       </c>
-      <c r="B71" s="51" t="s">
-        <v>2668</v>
+      <c r="B71" s="54" t="s">
+        <v>2667</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>2712</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
-        <v>3000</v>
-      </c>
-      <c r="B72" s="34" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="54" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B73" s="54" t="s">
         <v>2669</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>3001</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>3017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="34" t="s">
-        <v>3002</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>2670</v>
-      </c>
       <c r="D73" s="29" t="s">
-        <v>3018</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="28.5">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="54" t="s">
         <v>869</v>
       </c>
-      <c r="B74" s="34" t="s">
-        <v>2999</v>
+      <c r="B74" s="54" t="s">
+        <v>2935</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>3019</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="50" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B75" s="54" t="s">
         <v>2671</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="D75" s="29" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.5">
+      <c r="A76" s="54" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B76" s="54" t="s">
         <v>2672</v>
       </c>
-      <c r="D75" s="29" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="28.5">
-      <c r="A76" s="34" t="s">
-        <v>3003</v>
-      </c>
-      <c r="B76" s="34" t="s">
+      <c r="C76" s="54" t="s">
         <v>2673</v>
       </c>
-      <c r="C76" s="51" t="s">
-        <v>2674</v>
-      </c>
       <c r="D76" s="29" t="s">
-        <v>3020</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="28.5">
       <c r="A77" s="34" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>2675</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>3021</v>
+        <v>2928</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>2674</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="28.5">
       <c r="A78" s="50" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C78" s="55" t="s">
         <v>2677</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>2676</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>2678</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>2713</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="50" t="s">
-        <v>2993</v>
-      </c>
-      <c r="B79" s="51" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C79" s="55" t="s">
         <v>2679</v>
       </c>
-      <c r="C79" s="30" t="s">
-        <v>2680</v>
-      </c>
       <c r="D79" s="29" t="s">
-        <v>2840</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="34" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>2681</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>2684</v>
+        <v>2930</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C80" s="55" t="s">
+        <v>2683</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="49" t="s">
-        <v>2683</v>
-      </c>
-      <c r="B81" s="51" t="s">
         <v>2682</v>
       </c>
-      <c r="C81" s="30" t="s">
-        <v>2685</v>
+      <c r="B81" s="54" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>2684</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>2841</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="34" t="s">
-        <v>2995</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>2857</v>
+        <v>2931</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>2795</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="34" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>2858</v>
+        <v>2932</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>2796</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="34" t="s">
-        <v>2997</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>2859</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>2720</v>
+        <v>2933</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C84" s="55" t="s">
+        <v>2712</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="42.75">
       <c r="A85" s="34" t="s">
-        <v>2860</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>2861</v>
+        <v>2798</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>2799</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="29" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>2722</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>2842</v>
+        <v>2713</v>
+      </c>
+      <c r="B86" s="55" t="s">
+        <v>2714</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="29" t="s">
-        <v>2723</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>2724</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>2725</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>2843</v>
+        <v>2715</v>
+      </c>
+      <c r="B87" s="55" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>2717</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="29" t="s">
-        <v>2726</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>2728</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>2727</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>2844</v>
+        <v>2718</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C88" s="55" t="s">
+        <v>2719</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="34" t="s">
-        <v>2862</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>2863</v>
+        <v>2800</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>2801</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="34" t="s">
-        <v>2865</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>2864</v>
+      <c r="A90" s="54" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>3069</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="28.5">
       <c r="A91" s="34" t="s">
-        <v>2998</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>2866</v>
+        <v>2934</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>2804</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="57">
       <c r="A92" s="34" t="s">
-        <v>2867</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>2868</v>
+        <v>2805</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>2806</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>2845</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="34" t="s">
-        <v>2959</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>2869</v>
+      <c r="A93" s="54" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>3071</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="34" t="s">
-        <v>2870</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>2871</v>
+        <v>2808</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>2809</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="34" t="s">
-        <v>2872</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>2873</v>
+        <v>2810</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>2811</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="28.5">
       <c r="A96" s="34" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B96" s="34" t="s">
-        <v>2874</v>
+        <v>2897</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>2812</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="34" t="s">
-        <v>2961</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>2875</v>
+        <v>2898</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="34" t="s">
         <v>1579</v>
       </c>
-      <c r="B98" s="34" t="s">
-        <v>2876</v>
+      <c r="B98" s="54" t="s">
+        <v>2814</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="34" t="s">
-        <v>2962</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>2877</v>
+        <v>2899</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>2815</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="29" t="s">
-        <v>2730</v>
-      </c>
-      <c r="B100" s="30" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>2731</v>
+        <v>2722</v>
+      </c>
+      <c r="B100" s="55" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C100" s="55" t="s">
+        <v>2723</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>2845</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="34" t="s">
-        <v>2963</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>2878</v>
+        <v>2900</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>2816</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="34" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B102" s="34" t="s">
-        <v>2879</v>
+        <v>2901</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>2817</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="34" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B103" s="34" t="s">
-        <v>2880</v>
+        <v>2902</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>2818</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="34" t="s">
-        <v>2966</v>
-      </c>
-      <c r="B104" s="34" t="s">
-        <v>2881</v>
+        <v>2903</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>2819</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="42.75">
       <c r="A105" s="34" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>2883</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>2732</v>
+        <v>2820</v>
+      </c>
+      <c r="B105" s="54" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C105" s="54" t="s">
+        <v>2724</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="34" t="s">
-        <v>2967</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>2884</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>2733</v>
+      <c r="A106" s="54" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C106" s="55" t="s">
+        <v>2725</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="34" t="s">
-        <v>2968</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>2885</v>
+        <v>2905</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>2823</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="34" t="s">
-        <v>2886</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>2887</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>2894</v>
+        <v>2824</v>
+      </c>
+      <c r="B108" s="54" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C108" s="55" t="s">
+        <v>2832</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="29" t="s">
-        <v>2969</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>2734</v>
+        <v>2906</v>
+      </c>
+      <c r="B109" s="55" t="s">
+        <v>2726</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>2846</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="29" t="s">
-        <v>2735</v>
-      </c>
-      <c r="B110" s="30" t="s">
-        <v>2736</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>2737</v>
+        <v>2727</v>
+      </c>
+      <c r="B110" s="55" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>2729</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>2847</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="29" t="s">
-        <v>2739</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>2738</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>2848</v>
+        <v>2731</v>
+      </c>
+      <c r="B111" s="55" t="s">
+        <v>2730</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="29" t="s">
-        <v>2741</v>
-      </c>
-      <c r="B112" s="30" t="s">
-        <v>2740</v>
+        <v>2733</v>
+      </c>
+      <c r="B112" s="55" t="s">
+        <v>2732</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>2849</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="29" t="s">
-        <v>2743</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>2744</v>
+        <v>2735</v>
+      </c>
+      <c r="B113" s="55" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>2736</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>2850</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="28.5">
-      <c r="A114" s="34" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>2889</v>
+      <c r="A114" s="54" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>3077</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="34" t="s">
-        <v>2890</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>2891</v>
+        <v>2828</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>2829</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="29" t="s">
-        <v>2745</v>
-      </c>
-      <c r="B116" s="30" t="s">
-        <v>2746</v>
+        <v>2737</v>
+      </c>
+      <c r="B116" s="55" t="s">
+        <v>2738</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>2851</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="34" t="s">
-        <v>2970</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>2892</v>
+        <v>2907</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>2830</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="29" t="s">
-        <v>2748</v>
-      </c>
-      <c r="B118" s="30" t="s">
-        <v>2747</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>2749</v>
+        <v>2740</v>
+      </c>
+      <c r="B118" s="55" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>2741</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>2852</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="34" t="s">
-        <v>2971</v>
-      </c>
-      <c r="B119" s="34" t="s">
-        <v>2893</v>
+        <v>2908</v>
+      </c>
+      <c r="B119" s="54" t="s">
+        <v>2831</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="29" t="s">
-        <v>2750</v>
-      </c>
-      <c r="B120" s="30" t="s">
-        <v>2751</v>
+        <v>2742</v>
+      </c>
+      <c r="B120" s="55" t="s">
+        <v>2743</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>2854</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="49" t="s">
-        <v>2753</v>
-      </c>
-      <c r="B121" s="30" t="s">
-        <v>2752</v>
+        <v>2745</v>
+      </c>
+      <c r="B121" s="55" t="s">
+        <v>2744</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>2853</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="29" t="s">
-        <v>2972</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>2895</v>
+      <c r="A122" s="28" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B122" s="55" t="s">
+        <v>2833</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="29" t="s">
-        <v>2973</v>
-      </c>
-      <c r="B123" s="30" t="s">
-        <v>2896</v>
+      <c r="A123" s="28" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B123" s="55" t="s">
+        <v>2834</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="29" t="s">
-        <v>2898</v>
-      </c>
-      <c r="B124" s="30" t="s">
-        <v>2897</v>
+        <v>2836</v>
+      </c>
+      <c r="B124" s="55" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>3082</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="29" t="s">
-        <v>2974</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>2899</v>
+        <v>2911</v>
+      </c>
+      <c r="B125" s="55" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>3083</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="29" t="s">
-        <v>2975</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>2900</v>
+      <c r="A126" s="28" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B126" s="55" t="s">
+        <v>2838</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="29" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B127" s="30" t="s">
-        <v>2901</v>
+      <c r="A127" s="28" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B127" s="55" t="s">
+        <v>2839</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="29" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>2841</v>
+      </c>
+      <c r="B128" s="55" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="29" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="42.75">
-      <c r="A130" s="29" t="s">
-        <v>2907</v>
-      </c>
-      <c r="B130" s="51" t="s">
-        <v>2906</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="42.75">
+        <v>2843</v>
+      </c>
+      <c r="B129" s="55" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="42.75">
+      <c r="A130" s="28" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B130" s="54" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="42.75">
       <c r="A131" s="29" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B131" s="54" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="29" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B132" s="55" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="29" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B133" s="55" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="28" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B134" s="55" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="42.75">
+      <c r="A135" s="29" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B135" s="54" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="28" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B136" s="55" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="28.5">
+      <c r="A137" s="28" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B137" s="54" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="29" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B138" s="55" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="28" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B139" s="55" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="28.5">
+      <c r="A140" s="29" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B140" s="54" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="29" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B141" s="55" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="28.5">
+      <c r="A142" s="28" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B142" s="54" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="29" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B143" s="55" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="28.5">
+      <c r="A144" s="28" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B144" s="54" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="28" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B145" s="55" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="28" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B146" s="55" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="28" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B147" s="55" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="28" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B148" s="55" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="28" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B149" s="55" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="28" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B150" s="55" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="28" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B151" s="55" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="28" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B152" s="55" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="28" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B153" s="55" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="42.75">
+      <c r="A154" s="28" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B154" s="54" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="29" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B155" s="55" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="29" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B156" s="55" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="28.5">
+      <c r="A157" s="28" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B157" s="54" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="29" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B158" s="55" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="28" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B159" s="55" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="28" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B160" s="55" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="56" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B161" s="55" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="28.5">
+      <c r="A162" s="28" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B162" s="54" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="28" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B163" s="55" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="28" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B164" s="55" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="29" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B165" s="55" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D165" s="29" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="28.5">
+      <c r="A166" s="29" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B166" s="54" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C166" s="54" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="28" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B167" s="55" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="57">
+      <c r="A168" s="28" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B168" s="54" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="28" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B169" s="55" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="28" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B170" s="55" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="29" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B171" s="55" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D171" s="29" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="28" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B172" s="55" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="28" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B173" s="55" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="28.5">
+      <c r="A174" s="28" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B174" s="54" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="28" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B175" s="55" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="42.75">
+      <c r="A176" s="28" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B176" s="54" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="28.5">
+      <c r="A177" s="28" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B177" s="54" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="28.5">
+      <c r="A178" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="B178" s="54" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="28" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B179" s="55" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="28.5">
+      <c r="A180" s="29" t="s">
         <v>2977</v>
       </c>
-      <c r="B131" s="51" t="s">
+      <c r="B180" s="54" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C180" s="55" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="42.75">
+      <c r="A181" s="28" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B181" s="54" t="s">
         <v>2978</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="29" t="s">
-        <v>2909</v>
-      </c>
-      <c r="B132" s="30" t="s">
-        <v>2908</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="29" t="s">
-        <v>2911</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="29" t="s">
-        <v>2913</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="42.75">
-      <c r="A135" s="29" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B135" s="51" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="29" t="s">
-        <v>2917</v>
-      </c>
-      <c r="B136" s="30" t="s">
-        <v>2916</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="28.5">
-      <c r="A137" s="29" t="s">
-        <v>2979</v>
-      </c>
-      <c r="B137" s="51" t="s">
-        <v>2918</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="29" t="s">
-        <v>2920</v>
-      </c>
-      <c r="B138" s="30" t="s">
-        <v>2919</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="29" t="s">
+    <row r="182" spans="1:4">
+      <c r="A182" s="29" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B182" s="55" t="s">
         <v>2980</v>
       </c>
-      <c r="B139" s="30" t="s">
-        <v>2921</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="28.5">
-      <c r="A140" s="29" t="s">
-        <v>2923</v>
-      </c>
-      <c r="B140" s="51" t="s">
-        <v>2922</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="29" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B141" s="30" t="s">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="28.5">
-      <c r="A142" s="29" t="s">
-        <v>2927</v>
-      </c>
-      <c r="B142" s="51" t="s">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="29" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>2929</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="28.5">
-      <c r="A144" s="29" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B144" s="51" t="s">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="29" t="s">
-        <v>2981</v>
-      </c>
-      <c r="B145" s="30" t="s">
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="29" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B146" s="30" t="s">
-        <v>2934</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="29" t="s">
-        <v>2936</v>
-      </c>
-      <c r="B147" s="30" t="s">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="29" t="s">
-        <v>2938</v>
-      </c>
-      <c r="B148" s="30" t="s">
-        <v>2937</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="29" t="s">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="29" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B183" s="55" t="s">
         <v>2982</v>
       </c>
-      <c r="B149" s="30" t="s">
-        <v>2939</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="29" t="s">
-        <v>2941</v>
-      </c>
-      <c r="B150" s="30" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="29" t="s">
-        <v>2943</v>
-      </c>
-      <c r="B151" s="29" t="s">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="29" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B152" s="30" t="s">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="29" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B153" s="30" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="42.75">
-      <c r="A154" s="29" t="s">
-        <v>2948</v>
-      </c>
-      <c r="B154" s="51" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="29" t="s">
-        <v>2949</v>
-      </c>
-      <c r="B155" s="30" t="s">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="29" t="s">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="28" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B184" s="55" t="s">
         <v>2984</v>
       </c>
-      <c r="B156" s="30" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="28.5">
-      <c r="A157" s="29" t="s">
-        <v>2985</v>
-      </c>
-      <c r="B157" s="51" t="s">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="29" t="s">
-        <v>2954</v>
-      </c>
-      <c r="B158" s="30" t="s">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="29" t="s">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="29" t="s">
         <v>2986</v>
       </c>
-      <c r="B159" s="30" t="s">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="29" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B160" s="30" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="52" t="s">
+      <c r="B185" s="55" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C185" s="55" t="s">
         <v>2987</v>
       </c>
-      <c r="B161" s="30" t="s">
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="28.5">
-      <c r="A162" s="29" t="s">
-        <v>3022</v>
-      </c>
-      <c r="B162" s="51" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="29" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B163" s="30" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="29" t="s">
-        <v>3027</v>
-      </c>
-      <c r="B164" s="30" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="29" t="s">
-        <v>3029</v>
-      </c>
-      <c r="B165" s="30" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="28.5">
-      <c r="A166" s="29" t="s">
-        <v>3030</v>
-      </c>
-      <c r="B166" s="51" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C166" s="51" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="29" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B167" s="30" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="57">
-      <c r="A168" s="29" t="s">
-        <v>3035</v>
-      </c>
-      <c r="B168" s="51" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="29" t="s">
-        <v>3038</v>
-      </c>
-      <c r="B169" s="30" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="29" t="s">
-        <v>3040</v>
-      </c>
-      <c r="B170" s="30" t="s">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="29" t="s">
-        <v>3042</v>
-      </c>
-      <c r="B171" s="30" t="s">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="29" t="s">
-        <v>3044</v>
-      </c>
-      <c r="B172" s="30" t="s">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="29" t="s">
-        <v>3046</v>
-      </c>
-      <c r="B173" s="30" t="s">
-        <v>3045</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="28.5">
-      <c r="A174" s="29" t="s">
-        <v>3048</v>
-      </c>
-      <c r="B174" s="51" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="29" t="s">
-        <v>3050</v>
-      </c>
-      <c r="B175" s="30" t="s">
-        <v>3049</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="42.75">
-      <c r="A176" s="29" t="s">
-        <v>3052</v>
-      </c>
-      <c r="B176" s="51" t="s">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="28.5">
-      <c r="A177" s="29" t="s">
-        <v>3054</v>
-      </c>
-      <c r="B177" s="51" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="28.5">
-      <c r="A178" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="B178" s="51" t="s">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="29" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B179" s="30" t="s">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="28.5">
-      <c r="A180" s="29" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B180" s="51" t="s">
-        <v>3058</v>
-      </c>
-      <c r="C180" s="30" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="42.75">
-      <c r="A181" s="29" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B181" s="51" t="s">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="29" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B182" s="30" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="29" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B183" s="30" t="s">
-        <v>3065</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="29" t="s">
-        <v>3068</v>
-      </c>
-      <c r="B184" s="30" t="s">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="29" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B185" s="30" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C185" s="30" t="s">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="28.5">
+    </row>
+    <row r="186" spans="1:4" ht="28.5">
       <c r="A186" s="29" t="s">
         <v>2023</v>
       </c>
-      <c r="B186" s="51" t="s">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="28.5">
+      <c r="B186" s="54" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="28.5">
       <c r="A187" s="29" t="s">
-        <v>3074</v>
-      </c>
-      <c r="B187" s="51" t="s">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="28.5">
-      <c r="A188" s="29" t="s">
-        <v>3076</v>
-      </c>
-      <c r="B188" s="51" t="s">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="42.75">
+        <v>2991</v>
+      </c>
+      <c r="B187" s="54" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D187" s="29" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="28.5">
+      <c r="A188" s="28" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B188" s="54" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="42.75">
       <c r="A189" s="29" t="s">
-        <v>3078</v>
-      </c>
-      <c r="B189" s="51" t="s">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="28.5">
+        <v>2995</v>
+      </c>
+      <c r="B189" s="54" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="28.5">
       <c r="A190" s="29" t="s">
-        <v>3080</v>
-      </c>
-      <c r="B190" s="51" t="s">
-        <v>3079</v>
-      </c>
-      <c r="C190" s="30" t="s">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="28.5">
-      <c r="A191" s="29" t="s">
-        <v>3083</v>
-      </c>
-      <c r="B191" s="51" t="s">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>2997</v>
+      </c>
+      <c r="B190" s="54" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C190" s="55" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="28.5">
+      <c r="A191" s="28" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B191" s="54" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="29" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B192" s="30" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C192" s="30" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="29" t="s">
-        <v>3088</v>
-      </c>
-      <c r="B193" s="30" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="57">
+        <v>3002</v>
+      </c>
+      <c r="B192" s="55" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C192" s="55" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="28" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B193" s="55" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="57">
       <c r="A194" s="29" t="s">
         <v>2240</v>
       </c>
-      <c r="B194" s="51" t="s">
-        <v>3089</v>
-      </c>
-      <c r="C194" s="51" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="52"/>
+      <c r="B194" s="54" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C194" s="54" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="28.5">
+      <c r="A195" s="28" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B195" s="54" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="28.5">
+      <c r="A196" s="28" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B196" s="54" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="28.5">
+      <c r="A197" s="28" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B197" s="54" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C197" s="55" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="28.5">
+      <c r="A198" s="28" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B198" s="54" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="28" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B199" s="54" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="28" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B200" s="54" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="51" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B201" s="54" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="28" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B202" s="54" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="28" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B203" s="54" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="28.5">
+      <c r="A204" s="28" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B204" s="54" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="28" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B205" s="54" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="28" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B206" s="54" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="29" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B207" s="54" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="28" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B208" s="54" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="29" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B209" s="54" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="28.5">
+      <c r="A210" s="28" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B210" s="54" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="29" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B211" s="54" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="29" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B212" s="54" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="29" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B213" s="54" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="28.5">
+      <c r="A214" s="28" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B214" s="54" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="28" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B215" s="54" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="28" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B216" s="54" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="28" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B217" s="54" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="57">
+      <c r="A218" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B218" s="54" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="29" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B219" s="54" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C219" s="55" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="28" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B220" s="54" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="28" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B221" s="54" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="28" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B222" s="54" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="28" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B223" s="54" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="28.5">
+      <c r="A224" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B224" s="54" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="29" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B225" s="54" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="28.5">
+      <c r="A226" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B226" s="54" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="28" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B227" s="54" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="28" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B228" s="54" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="28" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B229" s="54" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B230" s="54" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C230" s="55" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B231" s="54" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="42.75">
+      <c r="A232" s="28" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B232" s="54" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="28" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B233" s="54" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="28" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B234" s="54" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="28.5">
+      <c r="A235" s="28" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B235" s="54" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="29" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B236" s="54" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="28" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B237" s="54" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="28" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B238" s="54" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="28.5">
+      <c r="A239" s="29" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B239" s="54" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="42.75">
+      <c r="A240" s="57" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B240" s="54" t="s">
+        <v>3230</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A201"/>
